--- a/ReadingIndex.xlsx
+++ b/ReadingIndex.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="99">
   <si>
     <t>Paper</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>8.17-8.18</t>
-  </si>
-  <si>
-    <t>aasdfa</t>
   </si>
 </sst>
 </file>
@@ -346,12 +343,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -366,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -374,6 +377,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4321,10 +4325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M995"/>
+  <dimension ref="A1:N995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M3" sqref="M3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4339,7 +4343,7 @@
     <col min="9" max="28" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>94</v>
       </c>
@@ -4380,7 +4384,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4408,11 +4412,11 @@
       <c r="L2" s="6">
         <v>0.5</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4439,8 +4443,12 @@
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="7">
+        <v>6</v>
+      </c>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4465,8 +4473,11 @@
       <c r="I4" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4500,8 +4511,11 @@
       <c r="L5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4525,7 +4539,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4544,7 +4558,7 @@
       <c r="F7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4571,7 +4585,7 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4602,7 +4616,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4626,7 +4640,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4650,7 +4664,7 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4676,7 +4690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4693,7 +4707,7 @@
       <c r="F13" s="3"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4711,7 +4725,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4732,7 +4746,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>

--- a/ReadingIndex.xlsx
+++ b/ReadingIndex.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="480" windowWidth="15036" windowHeight="8676" activeTab="1"/>
+    <workbookView xWindow="516" yWindow="480" windowWidth="15036" windowHeight="6024" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Schedule_Updated" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="112">
   <si>
     <t>Paper</t>
   </si>
@@ -312,7 +315,46 @@
     <t>8.19-8.20</t>
   </si>
   <si>
-    <t>8.17-8.18</t>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source </t>
+  </si>
+  <si>
+    <t>TIA Video</t>
+  </si>
+  <si>
+    <t>TIA Problem Video</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Paper Author</t>
+  </si>
+  <si>
+    <t>Review Method</t>
   </si>
 </sst>
 </file>
@@ -352,7 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -377,7 +419,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,6 +444,209 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$G$4:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$H$4:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="334444032"/>
+        <c:axId val="253513088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="334444032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="253513088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="253513088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="334444032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -681,13 +938,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="26" width="7.6640625" customWidth="1"/>
+    <col min="3" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -718,6 +979,7 @@
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="G2" s="3"/>
       <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
@@ -742,7 +1004,7 @@
         <v>12</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K7" si="0">VLOOKUP(J3,$B$2:$E$29,4,FALSE)</f>
+        <f>VLOOKUP(J3,$B$2:$E$29,4,FALSE)</f>
         <v>16</v>
       </c>
       <c r="M3" s="4">
@@ -770,7 +1032,7 @@
         <v>24</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(J4,$B$2:$E$29,4,FALSE)</f>
         <v>6</v>
       </c>
     </row>
@@ -795,7 +1057,7 @@
         <v>58</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(J5,$B$2:$E$29,4,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -820,7 +1082,7 @@
         <v>66</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(J6,$B$2:$E$29,4,FALSE)</f>
         <v>58</v>
       </c>
     </row>
@@ -844,7 +1106,7 @@
         <v>69</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(J7,$B$2:$E$29,4,FALSE)</f>
         <v>20</v>
       </c>
     </row>
@@ -906,7 +1168,7 @@
         <v>70</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" ref="K10:K12" si="1">VLOOKUP(J10,$B$2:$E$29,4,FALSE)</f>
+        <f>VLOOKUP(J10,$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
       <c r="M10" s="4">
@@ -934,7 +1196,7 @@
         <v>72</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(J11,$B$2:$E$29,4,FALSE)</f>
         <v>82</v>
       </c>
     </row>
@@ -959,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(J12,$B$2:$E$29,4,FALSE)</f>
         <v>17</v>
       </c>
     </row>
@@ -1054,7 +1316,7 @@
         <v>13</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" ref="K17:K20" si="2">VLOOKUP(J17,$B$2:$E$29,4,FALSE)</f>
+        <f>VLOOKUP(J17,$B$2:$E$29,4,FALSE)</f>
         <v>16</v>
       </c>
       <c r="M17" s="4">
@@ -1082,7 +1344,7 @@
         <v>21</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(J18,$B$2:$E$29,4,FALSE)</f>
         <v>32</v>
       </c>
     </row>
@@ -1107,7 +1369,7 @@
         <v>27</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(J19,$B$2:$E$29,4,FALSE)</f>
         <v>28</v>
       </c>
     </row>
@@ -1125,7 +1387,7 @@
         <v>35</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(J20,$B$2:$E$29,4,FALSE)</f>
         <v>37</v>
       </c>
     </row>
@@ -1185,7 +1447,7 @@
         <v>31</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" ref="K24:K28" si="3">VLOOKUP(J24,$B$2:$E$29,4,FALSE)</f>
+        <f>VLOOKUP(J24,$B$2:$E$29,4,FALSE)</f>
         <v>14</v>
       </c>
       <c r="M24" s="4">
@@ -1213,7 +1475,7 @@
         <v>35</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(J25,$B$2:$E$29,4,FALSE)</f>
         <v>37</v>
       </c>
     </row>
@@ -1237,7 +1499,7 @@
         <v>38</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(J26,$B$2:$E$29,4,FALSE)</f>
         <v>25</v>
       </c>
     </row>
@@ -1258,7 +1520,7 @@
         <v>40</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(J27,$B$2:$E$29,4,FALSE)</f>
         <v>24</v>
       </c>
     </row>
@@ -1282,7 +1544,7 @@
         <v>45</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(J28,$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
     </row>
@@ -1323,7 +1585,7 @@
         <v>48</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" ref="K31:K36" si="4">VLOOKUP(J31,$B$2:$E$29,4,FALSE)</f>
+        <f t="shared" ref="K31:K36" si="0">VLOOKUP(J31,$B$2:$E$29,4,FALSE)</f>
         <v>14</v>
       </c>
       <c r="M31" s="4">
@@ -1337,7 +1599,7 @@
         <v>50</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -1347,7 +1609,7 @@
         <v>67</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1357,7 +1619,7 @@
         <v>52</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1367,7 +1629,7 @@
         <v>56</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1377,7 +1639,7 @@
         <v>57</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1396,7 +1658,7 @@
         <v>60</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" ref="K39:K43" si="5">VLOOKUP(J39,$B$2:$E$29,4,FALSE)</f>
+        <f>VLOOKUP(J39,$B$2:$E$29,4,FALSE)</f>
         <v>8</v>
       </c>
       <c r="M39" s="4">
@@ -1410,7 +1672,7 @@
         <v>62</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(J40,$B$2:$E$29,4,FALSE)</f>
         <v>17</v>
       </c>
     </row>
@@ -1420,7 +1682,7 @@
         <v>63</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(J41,$B$2:$E$29,4,FALSE)</f>
         <v>25</v>
       </c>
     </row>
@@ -1430,7 +1692,7 @@
         <v>64</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(J42,$B$2:$E$29,4,FALSE)</f>
         <v>49</v>
       </c>
     </row>
@@ -1440,7 +1702,7 @@
         <v>65</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(J43,$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
     </row>
@@ -4327,8 +4589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4336,11 +4598,12 @@
     <col min="1" max="1" width="15.109375" style="3"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
     <col min="6" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="28" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="10" max="28" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4380,8 +4643,8 @@
       <c r="L1">
         <v>8.16</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>98</v>
+      <c r="M1" s="6">
+        <v>8.17</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4409,11 +4672,9 @@
       <c r="I2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="6">
-        <v>0.5</v>
-      </c>
+      <c r="L2" s="6"/>
       <c r="M2" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4443,9 +4704,7 @@
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="M3" s="7">
-        <v>6</v>
-      </c>
+      <c r="M3" s="7"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4473,9 +4732,8 @@
       <c r="I4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M4">
-        <v>7</v>
-      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -4512,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4639,6 +4897,9 @@
       <c r="I10" s="2">
         <v>8.17</v>
       </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -4812,17 +5073,13 @@
       <c r="A20" s="3">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="3"/>
       <c r="E21" s="3"/>
       <c r="H21" s="3"/>
@@ -5811,399 +6068,2741 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1000"/>
+  <dimension ref="A1:BG997"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="26" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="26" width="7.6640625" customWidth="1"/>
+    <col min="28" max="28" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3">
+        <v>11</v>
+      </c>
+      <c r="M2" s="3">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3">
+        <v>13</v>
+      </c>
+      <c r="O2" s="3">
+        <v>14</v>
+      </c>
+      <c r="P2" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>16</v>
+      </c>
+      <c r="R2" s="3">
+        <v>17</v>
+      </c>
+      <c r="S2" s="3">
+        <v>18</v>
+      </c>
+      <c r="T2" s="3">
+        <v>19</v>
+      </c>
+      <c r="U2" s="3">
+        <v>20</v>
+      </c>
+      <c r="V2" s="3">
+        <v>21</v>
+      </c>
+      <c r="W2" s="3">
+        <v>22</v>
+      </c>
+      <c r="X2" s="3">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="1">
+        <f>VLOOKUP(B1,Schedule!$B$2:$F$29,4)</f>
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <f>VLOOKUP(C1,Schedule!$B$2:$F$29,4)</f>
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <f>VLOOKUP(D1,Schedule!$B$2:$F$29,4)</f>
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <f>VLOOKUP(E1,Schedule!$B$2:$F$29,4)</f>
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <f>VLOOKUP(F1,Schedule!$B$2:$F$29,4)</f>
+        <v>25</v>
+      </c>
+      <c r="G3" s="1">
+        <f>VLOOKUP(G1,Schedule!$B$2:$F$29,4)</f>
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <f>VLOOKUP(H1,Schedule!$B$2:$F$29,4)</f>
+        <v>82</v>
+      </c>
+      <c r="I3" s="1">
+        <f>VLOOKUP(I1,Schedule!$B$2:$F$29,4)</f>
+        <v>14</v>
+      </c>
+      <c r="J3" s="1">
+        <f>VLOOKUP(J1,Schedule!$B$2:$F$29,4)</f>
+        <v>3</v>
+      </c>
+      <c r="K3" s="1">
+        <f>VLOOKUP(K1,Schedule!$B$2:$F$29,4)</f>
+        <v>3</v>
+      </c>
+      <c r="L3" s="1">
+        <f>VLOOKUP(L1,Schedule!$B$2:$F$29,4)</f>
+        <v>24</v>
+      </c>
+      <c r="M3" s="1">
+        <f>VLOOKUP(M1,Schedule!$B$2:$F$29,4)</f>
+        <v>13</v>
+      </c>
+      <c r="N3" s="1">
+        <f>VLOOKUP(N1,Schedule!$B$2:$F$29,4)</f>
+        <v>25</v>
+      </c>
+      <c r="O3" s="1">
+        <f>VLOOKUP(O1,Schedule!$B$2:$F$29,4)</f>
+        <v>16</v>
+      </c>
+      <c r="P3" s="1">
+        <f>VLOOKUP(P1,Schedule!$B$2:$F$29,4)</f>
+        <v>25</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>VLOOKUP(Q1,Schedule!$B$2:$F$29,4)</f>
+        <v>14</v>
+      </c>
+      <c r="R3" s="1">
+        <f>VLOOKUP(R1,Schedule!$B$2:$F$29,4)</f>
+        <v>25</v>
+      </c>
+      <c r="S3" s="1">
+        <f>VLOOKUP(S1,Schedule!$B$2:$F$29,4)</f>
+        <v>3</v>
+      </c>
+      <c r="T3" s="1">
+        <f>VLOOKUP(T1,Schedule!$B$2:$F$29,4)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <f>VLOOKUP(U1,Schedule!$B$2:$F$29,4)</f>
+        <v>3</v>
+      </c>
+      <c r="V3" s="1">
+        <f>VLOOKUP(V1,Schedule!$B$2:$F$29,4)</f>
+        <v>25</v>
+      </c>
+      <c r="W3" s="1">
+        <f>VLOOKUP(W1,Schedule!$B$2:$F$29,4)</f>
+        <v>17</v>
+      </c>
+      <c r="X3" s="1">
+        <f>VLOOKUP(X1,Schedule!$B$2:$F$29,4)</f>
+        <v>3</v>
+      </c>
+      <c r="Y3" s="1">
+        <f>VLOOKUP(Y1,Schedule!$B$2:$F$29,4)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <f>VLOOKUP(Z1,Schedule!$B$2:$F$29,4)</f>
+        <v>3</v>
+      </c>
+      <c r="AA3" s="1">
+        <f>VLOOKUP(AA1,Schedule!$B$2:$F$29,4)</f>
+        <v>3</v>
+      </c>
+      <c r="AB3" s="1">
+        <f>VLOOKUP(AB1,Schedule!$B$2:$F$29,4)</f>
+        <v>3</v>
+      </c>
+      <c r="AC3" s="1">
+        <f>VLOOKUP(AC1,Schedule!$B$2:$F$29,4)</f>
+        <v>17</v>
+      </c>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+    </row>
+    <row r="4" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+    </row>
+    <row r="5" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+    </row>
+    <row r="6" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="str">
+        <f>IF(COUNTIF($B$6:B6,B6)&lt;5,B6,VLOOKUP(B6,$B$11:$F$38,5,FALSE))</f>
+        <v>AAA</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:C6,C6)&lt;5,C6,VLOOKUP(C6,$B$11:$F$38,5,FALSE))</f>
+        <v>AAA</v>
+      </c>
+      <c r="E6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:D6,D6)&lt;5,D6,VLOOKUP(D6,$B$11:$F$38,5,FALSE))</f>
+        <v>AAA</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:E6,E6)&lt;5,E6,VLOOKUP(E6,$B$11:$F$38,5,FALSE))</f>
+        <v>AAA</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:F6,F6)&lt;5,F6,HLOOKUP(HLOOKUP(F6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bailey &amp; Simon</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:G6,G6)&lt;5,G6,HLOOKUP(HLOOKUP(G6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bailey &amp; Simon</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:H6,H6)&lt;5,H6,HLOOKUP(HLOOKUP(H6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bailey &amp; Simon</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:I6,I6)&lt;5,I6,HLOOKUP(HLOOKUP(I6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bailey &amp; Simon</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:J6,J6)&lt;5,J6,HLOOKUP(HLOOKUP(J6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bailey &amp; Simon</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:K6,K6)&lt;5,K6,HLOOKUP(HLOOKUP(K6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bailey &amp; Simon Discussion</v>
+      </c>
+      <c r="M6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:L6,L6)&lt;5,L6,HLOOKUP(HLOOKUP(L6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bailey &amp; Simon Discussion</v>
+      </c>
+      <c r="N6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:M6,M6)&lt;5,M6,HLOOKUP(HLOOKUP(M6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bailey &amp; Simon Discussion</v>
+      </c>
+      <c r="O6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:N6,N6)&lt;5,N6,HLOOKUP(HLOOKUP(N6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bailey &amp; Simon Discussion</v>
+      </c>
+      <c r="P6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:O6,O6)&lt;5,O6,HLOOKUP(HLOOKUP(O6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bailey &amp; Simon Discussion</v>
+      </c>
+      <c r="Q6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:P6,P6)&lt;5,P6,HLOOKUP(HLOOKUP(P6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Mahler1</v>
+      </c>
+      <c r="R6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:Q6,Q6)&lt;5,Q6,HLOOKUP(HLOOKUP(Q6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Mahler1</v>
+      </c>
+      <c r="S6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:R6,R6)&lt;5,R6,HLOOKUP(HLOOKUP(R6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Mahler1</v>
+      </c>
+      <c r="T6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:S6,S6)&lt;5,S6,HLOOKUP(HLOOKUP(S6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Mahler1</v>
+      </c>
+      <c r="U6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:T6,T6)&lt;5,T6,HLOOKUP(HLOOKUP(T6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Mahler1</v>
+      </c>
+      <c r="V6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:U6,U6)&lt;5,U6,HLOOKUP(HLOOKUP(U6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Robertson</v>
+      </c>
+      <c r="W6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:V6,V6)&lt;5,V6,HLOOKUP(HLOOKUP(V6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Robertson</v>
+      </c>
+      <c r="X6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:W6,W6)&lt;5,W6,HLOOKUP(HLOOKUP(W6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Robertson</v>
+      </c>
+      <c r="Y6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:X6,X6)&lt;5,X6,HLOOKUP(HLOOKUP(X6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Robertson</v>
+      </c>
+      <c r="Z6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:Y6,Y6)&lt;5,Y6,HLOOKUP(HLOOKUP(Y6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Robertson</v>
+      </c>
+      <c r="AA6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:Z6,Z6)&lt;5,Z6,HLOOKUP(HLOOKUP(Z6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Couret &amp; Venter</v>
+      </c>
+      <c r="AB6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AA6,AA6)&lt;5,AA6,HLOOKUP(HLOOKUP(AA6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Couret &amp; Venter</v>
+      </c>
+      <c r="AC6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AB6,AB6)&lt;5,AB6,HLOOKUP(HLOOKUP(AB6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Couret &amp; Venter</v>
+      </c>
+      <c r="AD6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AC6,AC6)&lt;5,AC6,HLOOKUP(HLOOKUP(AC6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Couret &amp; Venter</v>
+      </c>
+      <c r="AE6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AD6,AD6)&lt;5,AD6,HLOOKUP(HLOOKUP(AD6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Couret &amp; Venter</v>
+      </c>
+      <c r="AF6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AE6,AE6)&lt;5,AE6,HLOOKUP(HLOOKUP(AE6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>GLM</v>
+      </c>
+      <c r="AG6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AF6,AF6)&lt;5,AF6,HLOOKUP(HLOOKUP(AF6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>GLM</v>
+      </c>
+      <c r="AH6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AG6,AG6)&lt;5,AG6,HLOOKUP(HLOOKUP(AG6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>GLM</v>
+      </c>
+      <c r="AI6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AH6,AH6)&lt;5,AH6,HLOOKUP(HLOOKUP(AH6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>GLM</v>
+      </c>
+      <c r="AJ6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AI6,AI6)&lt;5,AI6,HLOOKUP(HLOOKUP(AI6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>GLM</v>
+      </c>
+      <c r="AK6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AJ6,AJ6)&lt;5,AJ6,HLOOKUP(HLOOKUP(AJ6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Lee2</v>
+      </c>
+      <c r="AL6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AK6,AK6)&lt;5,AK6,HLOOKUP(HLOOKUP(AK6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Lee2</v>
+      </c>
+      <c r="AM6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AL6,AL6)&lt;5,AL6,HLOOKUP(HLOOKUP(AL6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Lee2</v>
+      </c>
+      <c r="AN6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AM6,AM6)&lt;5,AM6,HLOOKUP(HLOOKUP(AM6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Lee2</v>
+      </c>
+      <c r="AO6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AN6,AN6)&lt;5,AN6,HLOOKUP(HLOOKUP(AN6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Lee2</v>
+      </c>
+      <c r="AP6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AO6,AO6)&lt;5,AO6,HLOOKUP(HLOOKUP(AO6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gilliam &amp; Snader2</v>
+      </c>
+      <c r="AQ6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AP6,AP6)&lt;5,AP6,HLOOKUP(HLOOKUP(AP6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gilliam &amp; Snader2</v>
+      </c>
+      <c r="AR6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AQ6,AQ6)&lt;5,AQ6,HLOOKUP(HLOOKUP(AQ6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gilliam &amp; Snader2</v>
+      </c>
+      <c r="AS6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AR6,AR6)&lt;5,AR6,HLOOKUP(HLOOKUP(AR6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gilliam &amp; Snader2</v>
+      </c>
+      <c r="AT6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AS6,AS6)&lt;5,AS6,HLOOKUP(HLOOKUP(AS6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gilliam &amp; Snader2</v>
+      </c>
+      <c r="AU6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AT6,AT6)&lt;5,AT6,HLOOKUP(HLOOKUP(AT6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Brosius</v>
+      </c>
+      <c r="AV6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AU6,AU6)&lt;5,AU6,HLOOKUP(HLOOKUP(AU6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Brosius</v>
+      </c>
+      <c r="AW6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AV6,AV6)&lt;5,AV6,HLOOKUP(HLOOKUP(AV6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Brosius</v>
+      </c>
+      <c r="AX6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AW6,AW6)&lt;5,AW6,HLOOKUP(HLOOKUP(AW6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Brosius</v>
+      </c>
+      <c r="AY6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AX6,AX6)&lt;5,AX6,HLOOKUP(HLOOKUP(AX6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Brosius</v>
+      </c>
+      <c r="AZ6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AY6,AY6)&lt;5,AY6,HLOOKUP(HLOOKUP(AY6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Skurnick</v>
+      </c>
+      <c r="BA6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:AZ6,AZ6)&lt;5,AZ6,HLOOKUP(HLOOKUP(AZ6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Skurnick</v>
+      </c>
+      <c r="BB6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:BA6,BA6)&lt;5,BA6,HLOOKUP(HLOOKUP(BA6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Skurnick</v>
+      </c>
+      <c r="BC6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:BB6,BB6)&lt;5,BB6,HLOOKUP(HLOOKUP(BB6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Skurnick</v>
+      </c>
+      <c r="BD6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:BC6,BC6)&lt;5,BC6,HLOOKUP(HLOOKUP(BC6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Skurnick</v>
+      </c>
+      <c r="BE6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:BD6,BD6)&lt;5,BD6,HLOOKUP(HLOOKUP(BD6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Skurnick Discussion</v>
+      </c>
+      <c r="BF6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:BE6,BE6)&lt;5,BE6,HLOOKUP(HLOOKUP(BE6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Skurnick Discussion</v>
+      </c>
+      <c r="BG6" s="3" t="str">
+        <f>IF(COUNTIF($B$6:BF6,BF6)&lt;5,BF6,HLOOKUP(HLOOKUP(BF6, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Skurnick Discussion</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B8,B8)&lt;5,B8,HLOOKUP(HLOOKUP(B8, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>AAA</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B9,B9)&lt;5,B9,HLOOKUP(HLOOKUP(B9, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>AAA</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B10,B10)&lt;5,B10,HLOOKUP(HLOOKUP(B10, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>AAA</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B11,B11)&lt;5,B11,HLOOKUP(HLOOKUP(B11, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>AAA</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B12,B12)&lt;5,B12,HLOOKUP(HLOOKUP(B12, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bailey &amp; Simon</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B13,B13)&lt;5,B13,HLOOKUP(HLOOKUP(B13, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bailey &amp; Simon</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B14,B14)&lt;5,B14,HLOOKUP(HLOOKUP(B14, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bailey &amp; Simon</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B15,B15)&lt;5,B15,HLOOKUP(HLOOKUP(B15, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bailey &amp; Simon</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B16,B16)&lt;5,B16,HLOOKUP(HLOOKUP(B16, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bailey &amp; Simon</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B17,B17)&lt;5,B17,HLOOKUP(HLOOKUP(B17, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bailey &amp; Simon Discussion</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B18,B18)&lt;5,B18,HLOOKUP(HLOOKUP(B18, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bailey &amp; Simon Discussion</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B19,B19)&lt;5,B19,HLOOKUP(HLOOKUP(B19, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bailey &amp; Simon Discussion</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B20,B20)&lt;5,B20,HLOOKUP(HLOOKUP(B20, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bailey &amp; Simon Discussion</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B21,B21)&lt;5,B21,HLOOKUP(HLOOKUP(B21, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bailey &amp; Simon Discussion</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B22,B22)&lt;5,B22,HLOOKUP(HLOOKUP(B22, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Mahler1</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B23,B23)&lt;5,B23,HLOOKUP(HLOOKUP(B23, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Mahler1</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B24,B24)&lt;5,B24,HLOOKUP(HLOOKUP(B24, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Mahler1</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B25,B25)&lt;5,B25,HLOOKUP(HLOOKUP(B25, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Mahler1</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B26,B26)&lt;5,B26,HLOOKUP(HLOOKUP(B26, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Mahler1</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B27,B27)&lt;5,B27,HLOOKUP(HLOOKUP(B27, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Robertson</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B28,B28)&lt;5,B28,HLOOKUP(HLOOKUP(B28, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Robertson</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B29,B29)&lt;5,B29,HLOOKUP(HLOOKUP(B29, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Robertson</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B30,B30)&lt;5,B30,HLOOKUP(HLOOKUP(B30, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Robertson</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B31,B31)&lt;5,B31,HLOOKUP(HLOOKUP(B31, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Robertson</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B32,B32)&lt;5,B32,HLOOKUP(HLOOKUP(B32, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Couret &amp; Venter</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B33,B33)&lt;5,B33,HLOOKUP(HLOOKUP(B33, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Couret &amp; Venter</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B34,B34)&lt;5,B34,HLOOKUP(HLOOKUP(B34, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Couret &amp; Venter</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B35,B35)&lt;5,B35,HLOOKUP(HLOOKUP(B35, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Couret &amp; Venter</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B36,B36)&lt;5,B36,HLOOKUP(HLOOKUP(B36, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Couret &amp; Venter</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B37,B37)&lt;5,B37,HLOOKUP(HLOOKUP(B37, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>GLM</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B38,B38)&lt;5,B38,HLOOKUP(HLOOKUP(B38, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>GLM</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B39,B39)&lt;5,B39,HLOOKUP(HLOOKUP(B39, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>GLM</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B40,B40)&lt;5,B40,HLOOKUP(HLOOKUP(B40, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>GLM</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B41,B41)&lt;5,B41,HLOOKUP(HLOOKUP(B41, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>GLM</v>
+      </c>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B42,B42)&lt;5,B42,HLOOKUP(HLOOKUP(B42, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Lee2</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B43,B43)&lt;5,B43,HLOOKUP(HLOOKUP(B43, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Lee2</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B44,B44)&lt;5,B44,HLOOKUP(HLOOKUP(B44, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Lee2</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B45,B45)&lt;5,B45,HLOOKUP(HLOOKUP(B45, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Lee2</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B46,B46)&lt;5,B46,HLOOKUP(HLOOKUP(B46, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Lee2</v>
+      </c>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B47,B47)&lt;5,B47,HLOOKUP(HLOOKUP(B47, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gilliam &amp; Snader2</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B48,B48)&lt;5,B48,HLOOKUP(HLOOKUP(B48, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gilliam &amp; Snader2</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B49,B49)&lt;5,B49,HLOOKUP(HLOOKUP(B49, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gilliam &amp; Snader2</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B50,B50)&lt;5,B50,HLOOKUP(HLOOKUP(B50, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gilliam &amp; Snader2</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B51,B51)&lt;5,B51,HLOOKUP(HLOOKUP(B51, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gilliam &amp; Snader2</v>
+      </c>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B52,B52)&lt;5,B52,HLOOKUP(HLOOKUP(B52, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Brosius</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B53,B53)&lt;5,B53,HLOOKUP(HLOOKUP(B53, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Brosius</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B54,B54)&lt;5,B54,HLOOKUP(HLOOKUP(B54, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Brosius</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B55,B55)&lt;5,B55,HLOOKUP(HLOOKUP(B55, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Brosius</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B56,B56)&lt;5,B56,HLOOKUP(HLOOKUP(B56, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Brosius</v>
+      </c>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B57,B57)&lt;5,B57,HLOOKUP(HLOOKUP(B57, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Skurnick</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B58,B58)&lt;5,B58,HLOOKUP(HLOOKUP(B58, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Skurnick</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B59,B59)&lt;5,B59,HLOOKUP(HLOOKUP(B59, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Skurnick</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B60,B60)&lt;5,B60,HLOOKUP(HLOOKUP(B60, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Skurnick</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B61,B61)&lt;5,B61,HLOOKUP(HLOOKUP(B61, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Skurnick</v>
+      </c>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B62,B62)&lt;5,B62,HLOOKUP(HLOOKUP(B62, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Skurnick Discussion</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B63,B63)&lt;5,B63,HLOOKUP(HLOOKUP(B63, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Skurnick Discussion</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B64,B64)&lt;5,B64,HLOOKUP(HLOOKUP(B64, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Skurnick Discussion</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B65,B65)&lt;5,B65,HLOOKUP(HLOOKUP(B65, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Skurnick Discussion</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B66,B66)&lt;5,B66,HLOOKUP(HLOOKUP(B66, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Skurnick Discussion</v>
+      </c>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B67,B67)&lt;5,B67,HLOOKUP(HLOOKUP(B67, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>NCCI2</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B68,B68)&lt;5,B68,HLOOKUP(HLOOKUP(B68, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>NCCI2</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B69,B69)&lt;5,B69,HLOOKUP(HLOOKUP(B69, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>NCCI2</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B70,B70)&lt;5,B70,HLOOKUP(HLOOKUP(B70, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>NCCI2</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B71,B71)&lt;5,B71,HLOOKUP(HLOOKUP(B71, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>NCCI2</v>
+      </c>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B72,B72)&lt;5,B72,HLOOKUP(HLOOKUP(B72, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Lee1</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B73,B73)&lt;5,B73,HLOOKUP(HLOOKUP(B73, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Lee1</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B74,B74)&lt;5,B74,HLOOKUP(HLOOKUP(B74, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Lee1</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B75,B75)&lt;5,B75,HLOOKUP(HLOOKUP(B75, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Lee1</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B76,B76)&lt;5,B76,HLOOKUP(HLOOKUP(B76, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Lee1</v>
+      </c>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B77,B77)&lt;5,B77,HLOOKUP(HLOOKUP(B77, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Miccolis</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B78,B78)&lt;5,B78,HLOOKUP(HLOOKUP(B78, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Miccolis</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B79,B79)&lt;5,B79,HLOOKUP(HLOOKUP(B79, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Miccolis</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B80,B80)&lt;5,B80,HLOOKUP(HLOOKUP(B80, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Miccolis</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B81,B81)&lt;5,B81,HLOOKUP(HLOOKUP(B81, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Miccolis</v>
+      </c>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B82,B82)&lt;5,B82,HLOOKUP(HLOOKUP(B82, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Mahler2</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B83,B83)&lt;5,B83,HLOOKUP(HLOOKUP(B83, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Mahler2</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B84,B84)&lt;5,B84,HLOOKUP(HLOOKUP(B84, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Mahler2</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B85,B85)&lt;5,B85,HLOOKUP(HLOOKUP(B85, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Mahler2</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B86,B86)&lt;5,B86,HLOOKUP(HLOOKUP(B86, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Mahler2</v>
+      </c>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B87,B87)&lt;5,B87,HLOOKUP(HLOOKUP(B87, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Mahler3</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B88,B88)&lt;5,B88,HLOOKUP(HLOOKUP(B88, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Mahler3</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B89,B89)&lt;5,B89,HLOOKUP(HLOOKUP(B89, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Mahler3</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B90,B90)&lt;5,B90,HLOOKUP(HLOOKUP(B90, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Mahler3</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B91,B91)&lt;5,B91,HLOOKUP(HLOOKUP(B91, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Mahler3</v>
+      </c>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B92,B92)&lt;5,B92,HLOOKUP(HLOOKUP(B92, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gillam</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B93,B93)&lt;5,B93,HLOOKUP(HLOOKUP(B93, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gillam</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B94,B94)&lt;5,B94,HLOOKUP(HLOOKUP(B94, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gillam</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B95,B95)&lt;5,B95,HLOOKUP(HLOOKUP(B95, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gillam</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B96,B96)&lt;5,B96,HLOOKUP(HLOOKUP(B96, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gillam</v>
+      </c>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B97,B97)&lt;5,B97,HLOOKUP(HLOOKUP(B97, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Venter</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B98,B98)&lt;5,B98,HLOOKUP(HLOOKUP(B98, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Venter</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B99,B99)&lt;5,B99,HLOOKUP(HLOOKUP(B99, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Venter</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B100,B100)&lt;5,B100,HLOOKUP(HLOOKUP(B100, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Venter</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B101,B101)&lt;5,B101,HLOOKUP(HLOOKUP(B101, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Venter</v>
+      </c>
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B102,B102)&lt;5,B102,HLOOKUP(HLOOKUP(B102, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gilliam &amp; Snader1</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B103,B103)&lt;5,B103,HLOOKUP(HLOOKUP(B103, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gilliam &amp; Snader1</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B104,B104)&lt;5,B104,HLOOKUP(HLOOKUP(B104, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gilliam &amp; Snader1</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B105,B105)&lt;5,B105,HLOOKUP(HLOOKUP(B105, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gilliam &amp; Snader1</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B106,B106)&lt;5,B106,HLOOKUP(HLOOKUP(B106, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gilliam &amp; Snader1</v>
+      </c>
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B107,B107)&lt;5,B107,HLOOKUP(HLOOKUP(B107, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>NCCI1</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B108,B108)&lt;5,B108,HLOOKUP(HLOOKUP(B108, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>NCCI1</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B109,B109)&lt;5,B109,HLOOKUP(HLOOKUP(B109, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>NCCI1</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B110,B110)&lt;5,B110,HLOOKUP(HLOOKUP(B110, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>NCCI1</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B111,B111)&lt;5,B111,HLOOKUP(HLOOKUP(B111, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>NCCI1</v>
+      </c>
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B112,B112)&lt;5,B112,HLOOKUP(HLOOKUP(B112, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>ISO</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B113,B113)&lt;5,B113,HLOOKUP(HLOOKUP(B113, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>ISO</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B114,B114)&lt;5,B114,HLOOKUP(HLOOKUP(B114, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>ISO</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B115,B115)&lt;5,B115,HLOOKUP(HLOOKUP(B115, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>ISO</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B116,B116)&lt;5,B116,HLOOKUP(HLOOKUP(B116, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>ISO</v>
+      </c>
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B117,B117)&lt;5,B117,HLOOKUP(HLOOKUP(B117, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gilliam &amp; Snader3</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B118,B118)&lt;5,B118,HLOOKUP(HLOOKUP(B118, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gilliam &amp; Snader3</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B119,B119)&lt;5,B119,HLOOKUP(HLOOKUP(B119, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gilliam &amp; Snader3</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B120,B120)&lt;5,B120,HLOOKUP(HLOOKUP(B120, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gilliam &amp; Snader3</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B121,B121)&lt;5,B121,HLOOKUP(HLOOKUP(B121, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Gilliam &amp; Snader3</v>
+      </c>
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B122,B122)&lt;5,B122,HLOOKUP(HLOOKUP(B122, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Teng</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B123,B123)&lt;5,B123,HLOOKUP(HLOOKUP(B123, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Teng</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B124,B124)&lt;5,B124,HLOOKUP(HLOOKUP(B124, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Teng</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B125,B125)&lt;5,B125,HLOOKUP(HLOOKUP(B125, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Teng</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B126,B126)&lt;5,B126,HLOOKUP(HLOOKUP(B126, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Teng</v>
+      </c>
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B127,B127)&lt;5,B127,HLOOKUP(HLOOKUP(B127, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Fisher</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B128,B128)&lt;5,B128,HLOOKUP(HLOOKUP(B128, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Fisher</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B129,B129)&lt;5,B129,HLOOKUP(HLOOKUP(B129, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Fisher</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B130,B130)&lt;5,B130,HLOOKUP(HLOOKUP(B130, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Fisher</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B131,B131)&lt;5,B131,HLOOKUP(HLOOKUP(B131, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Fisher</v>
+      </c>
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B132,B132)&lt;5,B132,HLOOKUP(HLOOKUP(B132, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Clark</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B133,B133)&lt;5,B133,HLOOKUP(HLOOKUP(B133, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Clark</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B134,B134)&lt;5,B134,HLOOKUP(HLOOKUP(B134, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Clark</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B135,B135)&lt;5,B135,HLOOKUP(HLOOKUP(B135, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Clark</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B136,B136)&lt;5,B136,HLOOKUP(HLOOKUP(B136, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Clark</v>
+      </c>
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B137,B137)&lt;5,B137,HLOOKUP(HLOOKUP(B137, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bernegger</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B138,B138)&lt;5,B138,HLOOKUP(HLOOKUP(B138, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bernegger</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B139,B139)&lt;5,B139,HLOOKUP(HLOOKUP(B139, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bernegger</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B140,B140)&lt;5,B140,HLOOKUP(HLOOKUP(B140, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bernegger</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B141,B141)&lt;5,B141,HLOOKUP(HLOOKUP(B141, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Bernegger</v>
+      </c>
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B142,B142)&lt;5,B142,HLOOKUP(HLOOKUP(B142, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Grossi &amp; Kunreuther</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B143,B143)&lt;5,B143,HLOOKUP(HLOOKUP(B143, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Grossi &amp; Kunreuther</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B144,B144)&lt;5,B144,HLOOKUP(HLOOKUP(B144, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Grossi &amp; Kunreuther</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B145,B145)&lt;5,B145,HLOOKUP(HLOOKUP(B145, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Grossi &amp; Kunreuther</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="3" t="str">
+        <f>IF(COUNTIF($B$8:B146,B146)&lt;5,B146,HLOOKUP(HLOOKUP(B146, $B$1:$AC$4,2,FALSE)+1, $B$2:$AC$4,3,FALSE))</f>
+        <v>Grossi &amp; Kunreuther</v>
+      </c>
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I148" s="3"/>
+    </row>
+    <row r="149" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I149" s="3"/>
+    </row>
+    <row r="150" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I150" s="3"/>
+    </row>
+    <row r="151" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I151" s="3"/>
+    </row>
+    <row r="152" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I152" s="3"/>
+    </row>
+    <row r="153" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I153" s="3"/>
+    </row>
+    <row r="154" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I154" s="3"/>
+    </row>
+    <row r="155" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I155" s="3"/>
+    </row>
+    <row r="156" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I156" s="3"/>
+    </row>
+    <row r="157" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I157" s="3"/>
+    </row>
+    <row r="158" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I158" s="3"/>
+    </row>
+    <row r="159" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I159" s="3"/>
+    </row>
+    <row r="160" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I160" s="3"/>
+    </row>
+    <row r="161" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I161" s="3"/>
+    </row>
+    <row r="162" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I162" s="3"/>
+    </row>
+    <row r="163" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I163" s="3"/>
+    </row>
+    <row r="164" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I164" s="3"/>
+    </row>
+    <row r="165" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I165" s="3"/>
+    </row>
+    <row r="166" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I166" s="3"/>
+    </row>
+    <row r="167" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I167" s="3"/>
+    </row>
+    <row r="168" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I168" s="3"/>
+    </row>
+    <row r="169" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I169" s="3"/>
+    </row>
+    <row r="170" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I170" s="3"/>
+    </row>
+    <row r="171" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I171" s="3"/>
+    </row>
+    <row r="172" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I172" s="3"/>
+    </row>
+    <row r="173" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I173" s="3"/>
+    </row>
+    <row r="174" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I174" s="3"/>
+    </row>
+    <row r="175" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I175" s="3"/>
+    </row>
+    <row r="176" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I176" s="3"/>
+    </row>
+    <row r="177" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I177" s="3"/>
+    </row>
+    <row r="178" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I178" s="3"/>
+    </row>
+    <row r="179" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I179" s="3"/>
+    </row>
+    <row r="180" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I180" s="3"/>
+    </row>
+    <row r="181" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I181" s="3"/>
+    </row>
+    <row r="182" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I182" s="3"/>
+    </row>
+    <row r="183" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I183" s="3"/>
+    </row>
+    <row r="184" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I184" s="3"/>
+    </row>
+    <row r="185" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I185" s="3"/>
+    </row>
+    <row r="186" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I186" s="3"/>
+    </row>
+    <row r="187" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I187" s="3"/>
+    </row>
+    <row r="188" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I188" s="3"/>
+    </row>
+    <row r="189" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I189" s="3"/>
+    </row>
+    <row r="190" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I190" s="3"/>
+    </row>
+    <row r="191" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I191" s="3"/>
+    </row>
+    <row r="192" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I192" s="3"/>
+    </row>
+    <row r="193" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I193" s="3"/>
+    </row>
+    <row r="194" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I194" s="3"/>
+    </row>
+    <row r="195" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I195" s="3"/>
+    </row>
+    <row r="196" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I196" s="3"/>
+    </row>
+    <row r="197" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I197" s="3"/>
+    </row>
+    <row r="198" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I198" s="3"/>
+    </row>
+    <row r="199" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I199" s="3"/>
+    </row>
+    <row r="200" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I200" s="3"/>
+    </row>
+    <row r="201" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I201" s="3"/>
+    </row>
+    <row r="202" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I202" s="3"/>
+    </row>
+    <row r="203" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I203" s="3"/>
+    </row>
+    <row r="204" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I204" s="3"/>
+    </row>
+    <row r="205" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I205" s="3"/>
+    </row>
+    <row r="206" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I206" s="3"/>
+    </row>
+    <row r="207" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I207" s="3"/>
+    </row>
+    <row r="208" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I208" s="3"/>
+    </row>
+    <row r="209" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I209" s="3"/>
+    </row>
+    <row r="210" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I210" s="3"/>
+    </row>
+    <row r="211" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I211" s="3"/>
+    </row>
+    <row r="212" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I212" s="3"/>
+    </row>
+    <row r="213" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I213" s="3"/>
+    </row>
+    <row r="214" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I214" s="3"/>
+    </row>
+    <row r="215" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I215" s="3"/>
+    </row>
+    <row r="216" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I216" s="3"/>
+    </row>
+    <row r="217" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I217" s="3"/>
+    </row>
+    <row r="218" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I218" s="3"/>
+    </row>
+    <row r="219" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I219" s="3"/>
+    </row>
+    <row r="220" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I220" s="3"/>
+    </row>
+    <row r="221" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I221" s="3"/>
+    </row>
+    <row r="222" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I222" s="3"/>
+    </row>
+    <row r="223" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I223" s="3"/>
+    </row>
+    <row r="224" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I224" s="3"/>
+    </row>
+    <row r="225" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I225" s="3"/>
+    </row>
+    <row r="226" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I226" s="3"/>
+    </row>
+    <row r="227" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I227" s="3"/>
+    </row>
+    <row r="228" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I228" s="3"/>
+    </row>
+    <row r="229" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I229" s="3"/>
+    </row>
+    <row r="230" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I230" s="3"/>
+    </row>
+    <row r="231" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I231" s="3"/>
+    </row>
+    <row r="232" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I232" s="3"/>
+    </row>
+    <row r="233" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I233" s="3"/>
+    </row>
+    <row r="234" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I234" s="3"/>
+    </row>
+    <row r="235" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I235" s="3"/>
+    </row>
+    <row r="236" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I236" s="3"/>
+    </row>
+    <row r="237" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I237" s="3"/>
+    </row>
+    <row r="238" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I238" s="3"/>
+    </row>
+    <row r="239" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I239" s="3"/>
+    </row>
+    <row r="240" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I240" s="3"/>
+    </row>
+    <row r="241" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I241" s="3"/>
+    </row>
+    <row r="242" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I242" s="3"/>
+    </row>
+    <row r="243" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I243" s="3"/>
+    </row>
+    <row r="244" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I244" s="3"/>
+    </row>
+    <row r="245" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I245" s="3"/>
+    </row>
+    <row r="246" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I246" s="3"/>
+    </row>
+    <row r="247" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I247" s="3"/>
+    </row>
+    <row r="248" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I248" s="3"/>
+    </row>
+    <row r="249" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I249" s="3"/>
+    </row>
+    <row r="250" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I250" s="3"/>
+    </row>
+    <row r="251" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I251" s="3"/>
+    </row>
+    <row r="252" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I252" s="3"/>
+    </row>
+    <row r="253" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I253" s="3"/>
+    </row>
+    <row r="254" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I254" s="3"/>
+    </row>
+    <row r="255" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I255" s="3"/>
+    </row>
+    <row r="256" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I256" s="3"/>
+    </row>
+    <row r="257" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I257" s="3"/>
+    </row>
+    <row r="258" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I258" s="3"/>
+    </row>
+    <row r="259" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I259" s="3"/>
+    </row>
+    <row r="260" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I260" s="3"/>
+    </row>
+    <row r="261" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I261" s="3"/>
+    </row>
+    <row r="262" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I262" s="3"/>
+    </row>
+    <row r="263" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I263" s="3"/>
+    </row>
+    <row r="264" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I264" s="3"/>
+    </row>
+    <row r="265" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I265" s="3"/>
+    </row>
+    <row r="266" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I266" s="3"/>
+    </row>
+    <row r="267" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I267" s="3"/>
+    </row>
+    <row r="268" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I268" s="3"/>
+    </row>
+    <row r="269" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I269" s="3"/>
+    </row>
+    <row r="270" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I270" s="3"/>
+    </row>
+    <row r="271" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I271" s="3"/>
+    </row>
+    <row r="272" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I272" s="3"/>
+    </row>
+    <row r="273" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I273" s="3"/>
+    </row>
+    <row r="274" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I274" s="3"/>
+    </row>
+    <row r="275" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I275" s="3"/>
+    </row>
+    <row r="276" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I276" s="3"/>
+    </row>
+    <row r="277" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I277" s="3"/>
+    </row>
+    <row r="278" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I278" s="3"/>
+    </row>
+    <row r="279" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I279" s="3"/>
+    </row>
+    <row r="280" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I280" s="3"/>
+    </row>
+    <row r="281" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I281" s="3"/>
+    </row>
+    <row r="282" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I282" s="3"/>
+    </row>
+    <row r="283" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I283" s="3"/>
+    </row>
+    <row r="284" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I284" s="3"/>
+    </row>
+    <row r="285" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I285" s="3"/>
+    </row>
+    <row r="286" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I286" s="3"/>
+    </row>
+    <row r="287" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I287" s="3"/>
+    </row>
+    <row r="288" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I288" s="3"/>
+    </row>
+    <row r="289" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I289" s="3"/>
+    </row>
+    <row r="290" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I290" s="3"/>
+    </row>
+    <row r="291" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I291" s="3"/>
+    </row>
+    <row r="292" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I292" s="3"/>
+    </row>
+    <row r="293" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I293" s="3"/>
+    </row>
+    <row r="294" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I294" s="3"/>
+    </row>
+    <row r="295" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I295" s="3"/>
+    </row>
+    <row r="296" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I296" s="3"/>
+    </row>
+    <row r="297" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I297" s="3"/>
+    </row>
+    <row r="298" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I298" s="3"/>
+    </row>
+    <row r="299" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I299" s="3"/>
+    </row>
+    <row r="300" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I300" s="3"/>
+    </row>
+    <row r="301" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I301" s="3"/>
+    </row>
+    <row r="302" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I302" s="3"/>
+    </row>
+    <row r="303" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I303" s="3"/>
+    </row>
+    <row r="304" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I304" s="3"/>
+    </row>
+    <row r="305" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I305" s="3"/>
+    </row>
+    <row r="306" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I306" s="3"/>
+    </row>
+    <row r="307" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I307" s="3"/>
+    </row>
+    <row r="308" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I308" s="3"/>
+    </row>
+    <row r="309" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I309" s="3"/>
+    </row>
+    <row r="310" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I310" s="3"/>
+    </row>
+    <row r="311" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I311" s="3"/>
+    </row>
+    <row r="312" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I312" s="3"/>
+    </row>
+    <row r="313" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I313" s="3"/>
+    </row>
+    <row r="314" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I314" s="3"/>
+    </row>
+    <row r="315" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I315" s="3"/>
+    </row>
+    <row r="316" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I316" s="3"/>
+    </row>
+    <row r="317" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I317" s="3"/>
+    </row>
+    <row r="318" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I318" s="3"/>
+    </row>
+    <row r="319" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I319" s="3"/>
+    </row>
+    <row r="320" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I320" s="3"/>
+    </row>
+    <row r="321" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I321" s="3"/>
+    </row>
+    <row r="322" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I322" s="3"/>
+    </row>
+    <row r="323" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I323" s="3"/>
+    </row>
+    <row r="324" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I324" s="3"/>
+    </row>
+    <row r="325" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I325" s="3"/>
+    </row>
+    <row r="326" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I326" s="3"/>
+    </row>
+    <row r="327" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I327" s="3"/>
+    </row>
+    <row r="328" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I328" s="3"/>
+    </row>
+    <row r="329" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I329" s="3"/>
+    </row>
+    <row r="330" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I330" s="3"/>
+    </row>
+    <row r="331" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I331" s="3"/>
+    </row>
+    <row r="332" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I332" s="3"/>
+    </row>
+    <row r="333" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I333" s="3"/>
+    </row>
+    <row r="334" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I334" s="3"/>
+    </row>
+    <row r="335" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I335" s="3"/>
+    </row>
+    <row r="336" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I336" s="3"/>
+    </row>
+    <row r="337" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I337" s="3"/>
+    </row>
+    <row r="338" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I338" s="3"/>
+    </row>
+    <row r="339" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I339" s="3"/>
+    </row>
+    <row r="340" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I340" s="3"/>
+    </row>
+    <row r="341" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I341" s="3"/>
+    </row>
+    <row r="342" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I342" s="3"/>
+    </row>
+    <row r="343" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I343" s="3"/>
+    </row>
+    <row r="344" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I344" s="3"/>
+    </row>
+    <row r="345" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I345" s="3"/>
+    </row>
+    <row r="346" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I346" s="3"/>
+    </row>
+    <row r="347" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I347" s="3"/>
+    </row>
+    <row r="348" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I348" s="3"/>
+    </row>
+    <row r="349" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I349" s="3"/>
+    </row>
+    <row r="350" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I350" s="3"/>
+    </row>
+    <row r="351" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I351" s="3"/>
+    </row>
+    <row r="352" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I352" s="3"/>
+    </row>
+    <row r="353" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I353" s="3"/>
+    </row>
+    <row r="354" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I354" s="3"/>
+    </row>
+    <row r="355" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I355" s="3"/>
+    </row>
+    <row r="356" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I356" s="3"/>
+    </row>
+    <row r="357" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I357" s="3"/>
+    </row>
+    <row r="358" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I358" s="3"/>
+    </row>
+    <row r="359" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I359" s="3"/>
+    </row>
+    <row r="360" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I360" s="3"/>
+    </row>
+    <row r="361" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I361" s="3"/>
+    </row>
+    <row r="362" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I362" s="3"/>
+    </row>
+    <row r="363" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I363" s="3"/>
+    </row>
+    <row r="364" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I364" s="3"/>
+    </row>
+    <row r="365" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I365" s="3"/>
+    </row>
+    <row r="366" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I366" s="3"/>
+    </row>
+    <row r="367" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I367" s="3"/>
+    </row>
+    <row r="368" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I368" s="3"/>
+    </row>
+    <row r="369" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I369" s="3"/>
+    </row>
+    <row r="370" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I370" s="3"/>
+    </row>
+    <row r="371" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I371" s="3"/>
+    </row>
+    <row r="372" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I372" s="3"/>
+    </row>
+    <row r="373" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I373" s="3"/>
+    </row>
+    <row r="374" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I374" s="3"/>
+    </row>
+    <row r="375" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I375" s="3"/>
+    </row>
+    <row r="376" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I376" s="3"/>
+    </row>
+    <row r="377" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I377" s="3"/>
+    </row>
+    <row r="378" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I378" s="3"/>
+    </row>
+    <row r="379" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I379" s="3"/>
+    </row>
+    <row r="380" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I380" s="3"/>
+    </row>
+    <row r="381" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I381" s="3"/>
+    </row>
+    <row r="382" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6817,10 +9416,2981 @@
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CD149"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F64" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I84" sqref="I84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" style="8" customWidth="1"/>
+    <col min="6" max="22" width="9.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="31" width="8.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="61" width="9.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="62" max="80" width="10.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="81" max="16384" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1" s="9">
+        <f ca="1">TODAY()</f>
+        <v>42600</v>
+      </c>
+      <c r="F1" s="11">
+        <v>42597</v>
+      </c>
+      <c r="G1" s="11">
+        <v>42598</v>
+      </c>
+      <c r="H1" s="11">
+        <v>42599</v>
+      </c>
+      <c r="I1" s="11">
+        <v>42600</v>
+      </c>
+      <c r="J1" s="11">
+        <v>42601</v>
+      </c>
+      <c r="K1" s="11">
+        <v>42602</v>
+      </c>
+      <c r="L1" s="11">
+        <v>42603</v>
+      </c>
+      <c r="M1" s="11">
+        <v>42604</v>
+      </c>
+      <c r="N1" s="11">
+        <v>42605</v>
+      </c>
+      <c r="O1" s="11">
+        <v>42606</v>
+      </c>
+      <c r="P1" s="11">
+        <v>42607</v>
+      </c>
+      <c r="Q1" s="11">
+        <v>42608</v>
+      </c>
+      <c r="R1" s="11">
+        <v>42609</v>
+      </c>
+      <c r="S1" s="11">
+        <v>42610</v>
+      </c>
+      <c r="T1" s="11">
+        <v>42611</v>
+      </c>
+      <c r="U1" s="11">
+        <v>42612</v>
+      </c>
+      <c r="V1" s="11">
+        <v>42613</v>
+      </c>
+      <c r="W1" s="11">
+        <v>42614</v>
+      </c>
+      <c r="X1" s="11">
+        <v>42615</v>
+      </c>
+      <c r="Y1" s="11">
+        <v>42616</v>
+      </c>
+      <c r="Z1" s="11">
+        <v>42617</v>
+      </c>
+      <c r="AA1" s="11">
+        <v>42618</v>
+      </c>
+      <c r="AB1" s="11">
+        <v>42619</v>
+      </c>
+      <c r="AC1" s="11">
+        <v>42620</v>
+      </c>
+      <c r="AD1" s="11">
+        <v>42621</v>
+      </c>
+      <c r="AE1" s="11">
+        <v>42622</v>
+      </c>
+      <c r="AF1" s="11">
+        <v>42623</v>
+      </c>
+      <c r="AG1" s="11">
+        <v>42624</v>
+      </c>
+      <c r="AH1" s="11">
+        <v>42625</v>
+      </c>
+      <c r="AI1" s="11">
+        <v>42626</v>
+      </c>
+      <c r="AJ1" s="11">
+        <v>42627</v>
+      </c>
+      <c r="AK1" s="11">
+        <v>42628</v>
+      </c>
+      <c r="AL1" s="11">
+        <v>42629</v>
+      </c>
+      <c r="AM1" s="11">
+        <v>42630</v>
+      </c>
+      <c r="AN1" s="11">
+        <v>42631</v>
+      </c>
+      <c r="AO1" s="11">
+        <v>42632</v>
+      </c>
+      <c r="AP1" s="11">
+        <v>42633</v>
+      </c>
+      <c r="AQ1" s="11">
+        <v>42634</v>
+      </c>
+      <c r="AR1" s="11">
+        <v>42635</v>
+      </c>
+      <c r="AS1" s="11">
+        <v>42636</v>
+      </c>
+      <c r="AT1" s="11">
+        <v>42637</v>
+      </c>
+      <c r="AU1" s="11">
+        <v>42638</v>
+      </c>
+      <c r="AV1" s="11">
+        <v>42639</v>
+      </c>
+      <c r="AW1" s="11">
+        <v>42640</v>
+      </c>
+      <c r="AX1" s="11">
+        <v>42641</v>
+      </c>
+      <c r="AY1" s="11">
+        <v>42642</v>
+      </c>
+      <c r="AZ1" s="11">
+        <v>42643</v>
+      </c>
+      <c r="BA1" s="11">
+        <v>42644</v>
+      </c>
+      <c r="BB1" s="11">
+        <v>42645</v>
+      </c>
+      <c r="BC1" s="11">
+        <v>42646</v>
+      </c>
+      <c r="BD1" s="11">
+        <v>42647</v>
+      </c>
+      <c r="BE1" s="11">
+        <v>42648</v>
+      </c>
+      <c r="BF1" s="11">
+        <v>42649</v>
+      </c>
+      <c r="BG1" s="11">
+        <v>42650</v>
+      </c>
+      <c r="BH1" s="11">
+        <v>42651</v>
+      </c>
+      <c r="BI1" s="11">
+        <v>42652</v>
+      </c>
+      <c r="BJ1" s="11">
+        <v>42653</v>
+      </c>
+      <c r="BK1" s="11">
+        <v>42654</v>
+      </c>
+      <c r="BL1" s="11">
+        <v>42655</v>
+      </c>
+      <c r="BM1" s="11">
+        <v>42656</v>
+      </c>
+      <c r="BN1" s="11">
+        <v>42657</v>
+      </c>
+      <c r="BO1" s="11">
+        <v>42658</v>
+      </c>
+      <c r="BP1" s="11">
+        <v>42659</v>
+      </c>
+      <c r="BQ1" s="11">
+        <v>42660</v>
+      </c>
+      <c r="BR1" s="11">
+        <v>42661</v>
+      </c>
+      <c r="BS1" s="11">
+        <v>42662</v>
+      </c>
+      <c r="BT1" s="11">
+        <v>42663</v>
+      </c>
+      <c r="BU1" s="11">
+        <v>42664</v>
+      </c>
+      <c r="BV1" s="11">
+        <v>42665</v>
+      </c>
+      <c r="BW1" s="11">
+        <v>42666</v>
+      </c>
+      <c r="BX1" s="11">
+        <v>42667</v>
+      </c>
+      <c r="BY1" s="11">
+        <v>42668</v>
+      </c>
+      <c r="BZ1" s="11">
+        <v>42669</v>
+      </c>
+      <c r="CA1" s="11">
+        <v>42670</v>
+      </c>
+      <c r="CB1" s="11">
+        <v>42671</v>
+      </c>
+      <c r="CC1" s="9"/>
+      <c r="CD1" s="9"/>
+    </row>
+    <row r="2" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BB2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="BJ2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="BK2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BN2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="BQ2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="BR2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="BS2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="BT2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="BV2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BW2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="BY2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="BZ2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="CA2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="CB2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="CC2" s="9"/>
+      <c r="CD2" s="9"/>
+    </row>
+    <row r="3" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B3,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B3,VLOOKUP(B3,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>AAA</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="8">
+        <f>VLOOKUP(B3,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B4,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B4,VLOOKUP(B4,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>AAA</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="8">
+        <f>VLOOKUP(B4,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B5,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B5,VLOOKUP(B5,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>AAA</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="8">
+        <f>VLOOKUP(B5,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B6,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B6,VLOOKUP(B6,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>AAA</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8">
+        <f>VLOOKUP(B6,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B7,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B7,VLOOKUP(B7,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>AAA</v>
+      </c>
+      <c r="E7" s="8">
+        <f>VLOOKUP(B7,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B8,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B8,VLOOKUP(B8,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Bailey &amp; Simon</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="8">
+        <f>VLOOKUP(B8,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B9,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B9,VLOOKUP(B9,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Bailey &amp; Simon</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="8">
+        <f>VLOOKUP(B9,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B10,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B10,VLOOKUP(B10,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Bailey &amp; Simon</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="8">
+        <f>VLOOKUP(B10,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B11,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B11,VLOOKUP(B11,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Bailey &amp; Simon</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="8">
+        <f>VLOOKUP(B11,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B12,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B12,VLOOKUP(B12,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Bailey &amp; Simon</v>
+      </c>
+      <c r="E12" s="8">
+        <f>VLOOKUP(B12,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B13,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B13,VLOOKUP(B13,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Bailey &amp; Simon Discussion</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="8">
+        <f>VLOOKUP(B13,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B14,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B14,VLOOKUP(B14,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Bailey &amp; Simon Discussion</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="8">
+        <f>VLOOKUP(B14,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B15,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B15,VLOOKUP(B15,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Bailey &amp; Simon Discussion</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="8">
+        <f>VLOOKUP(B15,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B16,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B16,VLOOKUP(B16,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Bailey &amp; Simon Discussion</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="8">
+        <f>VLOOKUP(B16,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B17,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B17,VLOOKUP(B17,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Bailey &amp; Simon Discussion</v>
+      </c>
+      <c r="E17" s="8">
+        <f>VLOOKUP(B17,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B18,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B18,VLOOKUP(B18,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Mahler1</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="8">
+        <f>VLOOKUP(B18,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B19,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B19,VLOOKUP(B19,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Mahler1</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="8">
+        <f>VLOOKUP(B19,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B20,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B20,VLOOKUP(B20,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Mahler1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="8">
+        <f>VLOOKUP(B20,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B21,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B21,VLOOKUP(B21,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Mahler1</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="8">
+        <f>VLOOKUP(B21,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B22,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B22,VLOOKUP(B22,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Mahler1</v>
+      </c>
+      <c r="E22" s="8">
+        <f>VLOOKUP(B22,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B23,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B23,VLOOKUP(B23,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Robertson</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="8">
+        <f>VLOOKUP(B23,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B24,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B24,VLOOKUP(B24,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Robertson</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="8">
+        <f>VLOOKUP(B24,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B25,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B25,VLOOKUP(B25,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Robertson</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="8">
+        <f>VLOOKUP(B25,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B26,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B26,VLOOKUP(B26,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Robertson</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="8">
+        <f>VLOOKUP(B26,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B27,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B27,VLOOKUP(B27,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Robertson</v>
+      </c>
+      <c r="E27" s="8">
+        <f>VLOOKUP(B27,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B28,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B28,VLOOKUP(B28,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Couret &amp; Venter</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="8">
+        <f>VLOOKUP(B28,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B29,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B29,VLOOKUP(B29,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Couret &amp; Venter</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="8">
+        <f>VLOOKUP(B29,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B30,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B30,VLOOKUP(B30,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Couret &amp; Venter</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="8">
+        <f>VLOOKUP(B30,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B31,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B31,VLOOKUP(B31,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Couret &amp; Venter</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="8">
+        <f>VLOOKUP(B31,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B32,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B32,VLOOKUP(B32,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Couret &amp; Venter</v>
+      </c>
+      <c r="E32" s="8">
+        <f>VLOOKUP(B32,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B33,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B33,VLOOKUP(B33,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>GLM</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="8">
+        <f>VLOOKUP(B33,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B34,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B34,VLOOKUP(B34,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>GLM</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="8">
+        <f>VLOOKUP(B34,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B35,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B35,VLOOKUP(B35,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>GLM</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="8">
+        <f>VLOOKUP(B35,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B36,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B36,VLOOKUP(B36,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>GLM</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="8">
+        <f>VLOOKUP(B36,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B37,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B37,VLOOKUP(B37,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>GLM</v>
+      </c>
+      <c r="E37" s="8">
+        <f>VLOOKUP(B37,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B38,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B38,VLOOKUP(B38,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="8">
+        <f>VLOOKUP(B38,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B39,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B39,VLOOKUP(B39,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="8">
+        <f>VLOOKUP(B39,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B40,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B40,VLOOKUP(B40,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="8">
+        <f>VLOOKUP(B40,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>8.16</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B41,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B41,VLOOKUP(B41,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="8">
+        <f>VLOOKUP(B41,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="H41" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B42,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B42,VLOOKUP(B42,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="E42" s="8">
+        <f>VLOOKUP(B42,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B43,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B43,VLOOKUP(B43,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="8">
+        <f>VLOOKUP(B43,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B44,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B44,VLOOKUP(B44,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="8">
+        <f>VLOOKUP(B44,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B45,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B45,VLOOKUP(B45,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="8">
+        <f>VLOOKUP(B45,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>8.18</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B46,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B46,VLOOKUP(B46,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="8">
+        <f>VLOOKUP(B46,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B47,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B47,VLOOKUP(B47,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="E47" s="8">
+        <f>VLOOKUP(B47,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B48,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B48,VLOOKUP(B48,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="8">
+        <f>VLOOKUP(B48,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B49,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B49,VLOOKUP(B49,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="8">
+        <f>VLOOKUP(B49,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B50,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B50,VLOOKUP(B50,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="8">
+        <f>VLOOKUP(B50,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
+        <v>8.19</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B51,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B51,VLOOKUP(B51,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="8">
+        <f>VLOOKUP(B51,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B52,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B52,VLOOKUP(B52,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="E52" s="8">
+        <f>VLOOKUP(B52,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B53,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B53,VLOOKUP(B53,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="8">
+        <f>VLOOKUP(B53,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="F53" s="13">
+        <v>1</v>
+      </c>
+      <c r="G53" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="10"/>
+      <c r="B54" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B54,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B54,VLOOKUP(B54,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="8">
+        <f>VLOOKUP(B54,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="10"/>
+      <c r="B55" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B55,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B55,VLOOKUP(B55,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="8">
+        <f>VLOOKUP(B55,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="10"/>
+      <c r="B56" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B56,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B56,VLOOKUP(B56,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="8">
+        <f>VLOOKUP(B56,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="10"/>
+      <c r="B57" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B57,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B57,VLOOKUP(B57,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="E57" s="8">
+        <f>VLOOKUP(B57,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B58,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B58,VLOOKUP(B58,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="8">
+        <f>VLOOKUP(B58,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B59,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B59,VLOOKUP(B59,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="8">
+        <f>VLOOKUP(B59,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B60,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B60,VLOOKUP(B60,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="8">
+        <f>VLOOKUP(B60,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B61,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B61,VLOOKUP(B61,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="8">
+        <f>VLOOKUP(B61,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B62,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B62,VLOOKUP(B62,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="E62" s="8">
+        <f>VLOOKUP(B62,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B63,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B63,VLOOKUP(B63,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" s="8">
+        <f>VLOOKUP(B63,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B64,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B64,VLOOKUP(B64,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="8">
+        <f>VLOOKUP(B64,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B65,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B65,VLOOKUP(B65,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" s="8">
+        <f>VLOOKUP(B65,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B66,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B66,VLOOKUP(B66,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="8">
+        <f>VLOOKUP(B66,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B67,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B67,VLOOKUP(B67,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Retrospective</v>
+      </c>
+      <c r="E67" s="8">
+        <f>VLOOKUP(B67,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B68,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B68,VLOOKUP(B68,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v xml:space="preserve">Excess factor </v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" s="8">
+        <f>VLOOKUP(B68,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B69,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B69,VLOOKUP(B69,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v xml:space="preserve">Excess factor </v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" s="8">
+        <f>VLOOKUP(B69,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F69" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B70,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B70,VLOOKUP(B70,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v xml:space="preserve">Excess factor </v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" s="8">
+        <f>VLOOKUP(B70,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B71,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B71,VLOOKUP(B71,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v xml:space="preserve">Excess factor </v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="8">
+        <f>VLOOKUP(B71,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B72,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B72,VLOOKUP(B72,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v xml:space="preserve">Excess factor </v>
+      </c>
+      <c r="E72" s="8">
+        <f>VLOOKUP(B72,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B73,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B73,VLOOKUP(B73,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>ILF/Excess</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="8">
+        <f>VLOOKUP(B73,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>8.16</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B74,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B74,VLOOKUP(B74,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>ILF/Excess</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="8">
+        <f>VLOOKUP(B74,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="F74" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G74" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B75" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B75,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B75,VLOOKUP(B75,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>ILF/Excess</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" s="8">
+        <f>VLOOKUP(B75,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B76" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B76,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B76,VLOOKUP(B76,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>ILF/Excess</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="8">
+        <f>VLOOKUP(B76,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B77" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B77,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B77,VLOOKUP(B77,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>ILF/Excess</v>
+      </c>
+      <c r="E77" s="8">
+        <f>VLOOKUP(B77,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B78" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B78,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B78,VLOOKUP(B78,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v xml:space="preserve">Excess factor </v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" s="8">
+        <f>VLOOKUP(B78,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>8.17</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B79,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B79,VLOOKUP(B79,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v xml:space="preserve">Excess factor </v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" s="8">
+        <f>VLOOKUP(B79,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="H79" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B80,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B80,VLOOKUP(B80,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v xml:space="preserve">Excess factor </v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E80" s="8">
+        <f>VLOOKUP(B80,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B81" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B81,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B81,VLOOKUP(B81,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v xml:space="preserve">Excess factor </v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="8">
+        <f>VLOOKUP(B81,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B82" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B82,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B82,VLOOKUP(B82,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v xml:space="preserve">Excess factor </v>
+      </c>
+      <c r="E82" s="8">
+        <f>VLOOKUP(B82,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B83" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B83,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B83,VLOOKUP(B83,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v xml:space="preserve">Excess factor </v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" s="8">
+        <f>VLOOKUP(B83,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>8.18</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B84,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B84,VLOOKUP(B84,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v xml:space="preserve">Excess factor </v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E84" s="8">
+        <f>VLOOKUP(B84,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="I84" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B85,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B85,VLOOKUP(B85,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v xml:space="preserve">Excess factor </v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E85" s="8">
+        <f>VLOOKUP(B85,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B86,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B86,VLOOKUP(B86,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v xml:space="preserve">Excess factor </v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="8">
+        <f>VLOOKUP(B86,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B87" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B87,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B87,VLOOKUP(B87,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v xml:space="preserve">Excess factor </v>
+      </c>
+      <c r="E87" s="8">
+        <f>VLOOKUP(B87,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B88,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B88,VLOOKUP(B88,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Experience</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E88" s="8">
+        <f>VLOOKUP(B88,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="F88" s="13">
+        <v>1</v>
+      </c>
+      <c r="G88" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B89,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B89,VLOOKUP(B89,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Experience</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E89" s="8">
+        <f>VLOOKUP(B89,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B90" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B90,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B90,VLOOKUP(B90,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Experience</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E90" s="8">
+        <f>VLOOKUP(B90,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B91" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B91,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B91,VLOOKUP(B91,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Experience</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="8">
+        <f>VLOOKUP(B91,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B92" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B92,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B92,VLOOKUP(B92,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Experience</v>
+      </c>
+      <c r="E92" s="8">
+        <f>VLOOKUP(B92,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B93" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C93" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B93,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B93,VLOOKUP(B93,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Experience</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E93" s="8">
+        <f>VLOOKUP(B93,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B94" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B94,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B94,VLOOKUP(B94,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Experience</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E94" s="8">
+        <f>VLOOKUP(B94,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B95" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B95,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B95,VLOOKUP(B95,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Experience</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E95" s="8">
+        <f>VLOOKUP(B95,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B96" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C96" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B96,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B96,VLOOKUP(B96,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Experience</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" s="8">
+        <f>VLOOKUP(B96,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B97" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C97" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B97,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B97,VLOOKUP(B97,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Experience</v>
+      </c>
+      <c r="E97" s="8">
+        <f>VLOOKUP(B97,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B98" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B98,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B98,VLOOKUP(B98,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Experience</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E98" s="8">
+        <f>VLOOKUP(B98,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B99" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B99,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B99,VLOOKUP(B99,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Experience</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E99" s="8">
+        <f>VLOOKUP(B99,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B100" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B100,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B100,VLOOKUP(B100,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Experience</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E100" s="8">
+        <f>VLOOKUP(B100,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B101" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B101,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B101,VLOOKUP(B101,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Experience</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="8">
+        <f>VLOOKUP(B101,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B102" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B102,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B102,VLOOKUP(B102,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Experience</v>
+      </c>
+      <c r="E102" s="8">
+        <f>VLOOKUP(B102,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B103" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B103,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B103,VLOOKUP(B103,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Experience</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E103" s="8">
+        <f>VLOOKUP(B103,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B104" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B104,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B104,VLOOKUP(B104,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Experience</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E104" s="8">
+        <f>VLOOKUP(B104,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B105" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B105,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B105,VLOOKUP(B105,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Experience</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E105" s="8">
+        <f>VLOOKUP(B105,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B106" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B106,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B106,VLOOKUP(B106,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Experience</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="8">
+        <f>VLOOKUP(B106,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B107" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B107,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B107,VLOOKUP(B107,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Experience</v>
+      </c>
+      <c r="E107" s="8">
+        <f>VLOOKUP(B107,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B108" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C108" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B108,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B108,VLOOKUP(B108,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>GL Experience &amp; Schedule</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E108" s="8">
+        <f>VLOOKUP(B108,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B109" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C109" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B109,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B109,VLOOKUP(B109,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>GL Experience &amp; Schedule</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E109" s="8">
+        <f>VLOOKUP(B109,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B110" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C110" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B110,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B110,VLOOKUP(B110,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>GL Experience &amp; Schedule</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E110" s="8">
+        <f>VLOOKUP(B110,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B111" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C111" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B111,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B111,VLOOKUP(B111,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>GL Experience &amp; Schedule</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" s="8">
+        <f>VLOOKUP(B111,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B112" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C112" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B112,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B112,VLOOKUP(B112,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>GL Experience &amp; Schedule</v>
+      </c>
+      <c r="E112" s="8">
+        <f>VLOOKUP(B112,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>8.19</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C113" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B113,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B113,VLOOKUP(B113,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>LDD</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E113" s="8">
+        <f>VLOOKUP(B113,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B114" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C114" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B114,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B114,VLOOKUP(B114,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>LDD</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E114" s="8">
+        <f>VLOOKUP(B114,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B115" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C115" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B115,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B115,VLOOKUP(B115,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>LDD</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E115" s="8">
+        <f>VLOOKUP(B115,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B116" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B116,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B116,VLOOKUP(B116,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>LDD</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" s="8">
+        <f>VLOOKUP(B116,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B117" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C117" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B117,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B117,VLOOKUP(B117,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>LDD</v>
+      </c>
+      <c r="E117" s="8">
+        <f>VLOOKUP(B117,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>8.18</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B118,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B118,VLOOKUP(B118,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>LDD</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E118" s="8">
+        <f>VLOOKUP(B118,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="I118" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B119" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C119" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B119,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B119,VLOOKUP(B119,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>LDD</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E119" s="8">
+        <f>VLOOKUP(B119,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B120" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C120" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B120,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B120,VLOOKUP(B120,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>LDD</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E120" s="8">
+        <f>VLOOKUP(B120,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B121" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C121" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B121,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B121,VLOOKUP(B121,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>LDD</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E121" s="8">
+        <f>VLOOKUP(B121,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B122" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B122,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B122,VLOOKUP(B122,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>LDD</v>
+      </c>
+      <c r="E122" s="8">
+        <f>VLOOKUP(B122,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B123" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C123" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B123,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B123,VLOOKUP(B123,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>LDD</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E123" s="8">
+        <f>VLOOKUP(B123,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B124" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C124" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B124,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B124,VLOOKUP(B124,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>LDD</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E124" s="8">
+        <f>VLOOKUP(B124,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B125" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C125" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B125,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B125,VLOOKUP(B125,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>LDD</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E125" s="8">
+        <f>VLOOKUP(B125,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B126" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C126" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B126,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B126,VLOOKUP(B126,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>LDD</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" s="8">
+        <f>VLOOKUP(B126,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B127" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C127" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B127,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B127,VLOOKUP(B127,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>LDD</v>
+      </c>
+      <c r="E127" s="8">
+        <f>VLOOKUP(B127,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B128" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C128" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B128,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B128,VLOOKUP(B128,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Clark</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E128" s="8">
+        <f>VLOOKUP(B128,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B129" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C129" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B129,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B129,VLOOKUP(B129,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Clark</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E129" s="8">
+        <f>VLOOKUP(B129,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="130" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B130" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C130" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B130,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B130,VLOOKUP(B130,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Clark</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E130" s="8">
+        <f>VLOOKUP(B130,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="131" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B131" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C131" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B131,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B131,VLOOKUP(B131,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Clark</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="8">
+        <f>VLOOKUP(B131,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="132" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B132" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C132" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B132,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B132,VLOOKUP(B132,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Clark</v>
+      </c>
+      <c r="E132" s="8">
+        <f>VLOOKUP(B132,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B133" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C133" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B133,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B133,VLOOKUP(B133,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Bernegger</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E133" s="8">
+        <f>VLOOKUP(B133,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B134" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C134" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B134,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B134,VLOOKUP(B134,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Bernegger</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E134" s="8">
+        <f>VLOOKUP(B134,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B135" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C135" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B135,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B135,VLOOKUP(B135,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Bernegger</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E135" s="8">
+        <f>VLOOKUP(B135,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B136" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C136" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B136,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B136,VLOOKUP(B136,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Bernegger</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136" s="8">
+        <f>VLOOKUP(B136,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B137" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C137" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B137,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B137,VLOOKUP(B137,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Bernegger</v>
+      </c>
+      <c r="E137" s="8">
+        <f>VLOOKUP(B137,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B138" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C138" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B138,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B138,VLOOKUP(B138,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Grossi &amp; Kunreuther</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E138" s="8">
+        <f>VLOOKUP(B138,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="139" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B139" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C139" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B139,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B139,VLOOKUP(B139,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Grossi &amp; Kunreuther</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E139" s="8">
+        <f>VLOOKUP(B139,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="140" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B140" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C140" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B140,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B140,VLOOKUP(B140,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Grossi &amp; Kunreuther</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E140" s="8">
+        <f>VLOOKUP(B140,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="141" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B141" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C141" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B141,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B141,VLOOKUP(B141,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Grossi &amp; Kunreuther</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E141" s="8">
+        <f>VLOOKUP(B141,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="142" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B142" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C142" s="8" t="str">
+        <f>IF(ISERROR(VLOOKUP(B142,Sheet2!$B$2:$C$21,2,FALSE)),Schedule_Updated!B142,VLOOKUP(B142,Sheet2!$B$2:$C$21,2,FALSE))</f>
+        <v>Grossi &amp; Kunreuther</v>
+      </c>
+      <c r="E142" s="8">
+        <f>VLOOKUP(B142,Schedule!$B$2:$E$29,4,FALSE)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="143" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F143" s="13">
+        <f>SUM(F3:F142)</f>
+        <v>3</v>
+      </c>
+      <c r="G143" s="13">
+        <f>SUM(G3:G142)</f>
+        <v>2.5</v>
+      </c>
+      <c r="H143" s="13">
+        <f>SUM(H3:H142)</f>
+        <v>2.5</v>
+      </c>
+      <c r="I143" s="13">
+        <f t="shared" ref="I143:Q143" si="0">SUM(I3:I142)</f>
+        <v>1.5</v>
+      </c>
+      <c r="J143" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K143" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L143" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M143" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N143" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O143" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P143" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q143" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G149" s="13">
+        <f>0.039</f>
+        <v>3.9E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:H13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <f>D4/$D$13</f>
+        <v>0.1</v>
+      </c>
+      <c r="H4">
+        <f>E4/$E$13</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>120</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5:G13" si="0">D5/$D$13</f>
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="3">
+        <f>E5/$E$13</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>150</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="3">
+        <f>E6/$E$13</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="3">
+        <f>E7/$E$13</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="3">
+        <f>E8/$E$13</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>400</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="H9" s="3">
+        <f>E9/$E$13</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>500</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="H10" s="3">
+        <f>E10/$E$13</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>600</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="H11" s="3">
+        <f>E11/$E$13</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>800</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="H12" s="3">
+        <f>E12/$E$13</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <f>E13/$E$13</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ReadingIndex.xlsx
+++ b/ReadingIndex.xlsx
@@ -14,7 +14,6 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -562,11 +561,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="334444032"/>
-        <c:axId val="253513088"/>
+        <c:axId val="193636224"/>
+        <c:axId val="193648512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="334444032"/>
+        <c:axId val="193636224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,12 +575,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="253513088"/>
+        <c:crossAx val="193648512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="253513088"/>
+        <c:axId val="193648512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -592,14 +591,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334444032"/>
+        <c:crossAx val="193636224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9427,10 +9425,10 @@
   <dimension ref="A1:CD149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I84" sqref="I84"/>
+      <selection pane="bottomRight" activeCell="I143" sqref="I143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10642,7 +10640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>31</v>
       </c>
@@ -10658,7 +10656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>31</v>
       </c>
@@ -10674,7 +10672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>8.19</v>
       </c>
@@ -10693,7 +10691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>31</v>
       </c>
@@ -10706,7 +10704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>44</v>
       </c>
@@ -10730,8 +10728,11 @@
       <c r="G53" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I53" s="13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="8" t="s">
         <v>40</v>
@@ -10748,7 +10749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="8" t="s">
         <v>40</v>
@@ -10765,7 +10766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="8" t="s">
         <v>40</v>
@@ -10782,7 +10783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="8" t="s">
         <v>40</v>
@@ -10796,7 +10797,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>44</v>
       </c>
@@ -10815,7 +10816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>45</v>
       </c>
@@ -10831,7 +10832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>45</v>
       </c>
@@ -10847,7 +10848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>45</v>
       </c>
@@ -10863,7 +10864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>45</v>
       </c>
@@ -10876,7 +10877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>57</v>
       </c>
@@ -10892,7 +10893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>57</v>
       </c>
@@ -12168,7 +12169,7 @@
       </c>
       <c r="I143" s="13">
         <f t="shared" ref="I143:Q143" si="0">SUM(I3:I142)</f>
-        <v>1.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J143" s="13">
         <f t="shared" si="0"/>
@@ -12241,7 +12242,7 @@
         <v>0.1</v>
       </c>
       <c r="H4">
-        <f>E4/$E$13</f>
+        <f t="shared" ref="H4:H13" si="0">E4/$E$13</f>
         <v>0.1</v>
       </c>
     </row>
@@ -12253,11 +12254,11 @@
         <v>120</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" ref="G5:G13" si="0">D5/$D$13</f>
+        <f t="shared" ref="G5:G13" si="1">D5/$D$13</f>
         <v>0.2</v>
       </c>
       <c r="H5" s="3">
-        <f>E5/$E$13</f>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
     </row>
@@ -12269,11 +12270,11 @@
         <v>150</v>
       </c>
       <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="H6" s="3">
-        <f>E6/$E$13</f>
         <v>0.15</v>
       </c>
     </row>
@@ -12285,11 +12286,11 @@
         <v>200</v>
       </c>
       <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="H7" s="3">
-        <f>E7/$E$13</f>
         <v>0.2</v>
       </c>
     </row>
@@ -12301,11 +12302,11 @@
         <v>300</v>
       </c>
       <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="3">
-        <f>E8/$E$13</f>
         <v>0.3</v>
       </c>
     </row>
@@ -12317,11 +12318,11 @@
         <v>400</v>
       </c>
       <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="H9" s="3">
-        <f>E9/$E$13</f>
         <v>0.4</v>
       </c>
     </row>
@@ -12333,11 +12334,11 @@
         <v>500</v>
       </c>
       <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="H10" s="3">
-        <f>E10/$E$13</f>
         <v>0.5</v>
       </c>
     </row>
@@ -12349,11 +12350,11 @@
         <v>600</v>
       </c>
       <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="H11" s="3">
-        <f>E11/$E$13</f>
         <v>0.6</v>
       </c>
     </row>
@@ -12365,11 +12366,11 @@
         <v>800</v>
       </c>
       <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="H12" s="3">
         <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="H12" s="3">
-        <f>E12/$E$13</f>
         <v>0.8</v>
       </c>
     </row>
@@ -12381,11 +12382,11 @@
         <v>1000</v>
       </c>
       <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <f>E13/$E$13</f>
         <v>1</v>
       </c>
     </row>

--- a/ReadingIndex.xlsx
+++ b/ReadingIndex.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="480" windowWidth="15030" windowHeight="6030" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,20 @@
     <sheet name="Schedule_Updated" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Schedule_Updated!$A$2:$CC$143</definedName>
+  </definedNames>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="116">
   <si>
     <t>Paper</t>
   </si>
@@ -355,12 +363,24 @@
   <si>
     <t>Review Method</t>
   </si>
+  <si>
+    <t>8.20-8.21</t>
+  </si>
+  <si>
+    <t>Total Hours</t>
+  </si>
+  <si>
+    <t>Behind Target 3 hr /day by</t>
+  </si>
+  <si>
+    <t>Study Hour Used</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -382,6 +402,18 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -407,8 +439,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -432,8 +468,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -447,12 +487,24 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -495,7 +547,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -534,51 +586,67 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="59967744"/>
-        <c:axId val="59981824"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="276256824"/>
+        <c:axId val="276259768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59967744"/>
+        <c:axId val="276256824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59981824"/>
+        <c:crossAx val="276259768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59981824"/>
+        <c:axId val="276259768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59967744"/>
+        <c:crossAx val="276256824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -903,20 +971,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="26" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="14.25" customHeight="1">
@@ -4550,28 +4618,33 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="3"/>
+    <col min="1" max="1" width="15.1640625" style="3"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="7" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="6" max="7" width="7.6640625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="28" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="28" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1">
@@ -6031,22 +6104,27 @@
     <sortCondition ref="A2:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG997"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="26" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="26" width="7.6640625" customWidth="1"/>
     <col min="28" max="28" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9386,269 +9464,274 @@
     <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CD149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CE149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I150" sqref="I150"/>
+      <selection pane="bottomRight" activeCell="M113" sqref="M113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="8" customWidth="1"/>
-    <col min="6" max="22" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="31" width="8.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="61" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="62" max="80" width="10.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="81" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" style="8" customWidth="1"/>
+    <col min="7" max="23" width="9.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="32" width="8.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="33" max="62" width="9.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="63" max="81" width="10.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="82" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82">
+    <row r="1" spans="1:83">
       <c r="A1" s="9">
         <f ca="1">TODAY()</f>
+        <v>42602</v>
+      </c>
+      <c r="G1" s="11">
+        <v>42597</v>
+      </c>
+      <c r="H1" s="11">
+        <v>42598</v>
+      </c>
+      <c r="I1" s="11">
+        <v>42599</v>
+      </c>
+      <c r="J1" s="11">
         <v>42600</v>
       </c>
-      <c r="F1" s="11">
-        <v>42597</v>
-      </c>
-      <c r="G1" s="11">
-        <v>42598</v>
-      </c>
-      <c r="H1" s="11">
-        <v>42599</v>
-      </c>
-      <c r="I1" s="11">
-        <v>42600</v>
-      </c>
-      <c r="J1" s="11">
+      <c r="K1" s="11">
         <v>42601</v>
       </c>
-      <c r="K1" s="11">
+      <c r="L1" s="11">
         <v>42602</v>
       </c>
-      <c r="L1" s="11">
+      <c r="M1" s="11">
         <v>42603</v>
       </c>
-      <c r="M1" s="11">
+      <c r="N1" s="11">
         <v>42604</v>
       </c>
-      <c r="N1" s="11">
+      <c r="O1" s="11">
         <v>42605</v>
       </c>
-      <c r="O1" s="11">
+      <c r="P1" s="11">
         <v>42606</v>
       </c>
-      <c r="P1" s="11">
+      <c r="Q1" s="11">
         <v>42607</v>
       </c>
-      <c r="Q1" s="11">
+      <c r="R1" s="11">
         <v>42608</v>
       </c>
-      <c r="R1" s="11">
+      <c r="S1" s="11">
         <v>42609</v>
       </c>
-      <c r="S1" s="11">
+      <c r="T1" s="11">
         <v>42610</v>
       </c>
-      <c r="T1" s="11">
+      <c r="U1" s="11">
         <v>42611</v>
       </c>
-      <c r="U1" s="11">
+      <c r="V1" s="11">
         <v>42612</v>
       </c>
-      <c r="V1" s="11">
+      <c r="W1" s="11">
         <v>42613</v>
       </c>
-      <c r="W1" s="11">
+      <c r="X1" s="11">
         <v>42614</v>
       </c>
-      <c r="X1" s="11">
+      <c r="Y1" s="11">
         <v>42615</v>
       </c>
-      <c r="Y1" s="11">
+      <c r="Z1" s="11">
         <v>42616</v>
       </c>
-      <c r="Z1" s="11">
+      <c r="AA1" s="11">
         <v>42617</v>
       </c>
-      <c r="AA1" s="11">
+      <c r="AB1" s="11">
         <v>42618</v>
       </c>
-      <c r="AB1" s="11">
+      <c r="AC1" s="11">
         <v>42619</v>
       </c>
-      <c r="AC1" s="11">
+      <c r="AD1" s="11">
         <v>42620</v>
       </c>
-      <c r="AD1" s="11">
+      <c r="AE1" s="11">
         <v>42621</v>
       </c>
-      <c r="AE1" s="11">
+      <c r="AF1" s="11">
         <v>42622</v>
       </c>
-      <c r="AF1" s="11">
+      <c r="AG1" s="11">
         <v>42623</v>
       </c>
-      <c r="AG1" s="11">
+      <c r="AH1" s="11">
         <v>42624</v>
       </c>
-      <c r="AH1" s="11">
+      <c r="AI1" s="11">
         <v>42625</v>
       </c>
-      <c r="AI1" s="11">
+      <c r="AJ1" s="11">
         <v>42626</v>
       </c>
-      <c r="AJ1" s="11">
+      <c r="AK1" s="11">
         <v>42627</v>
       </c>
-      <c r="AK1" s="11">
+      <c r="AL1" s="11">
         <v>42628</v>
       </c>
-      <c r="AL1" s="11">
+      <c r="AM1" s="11">
         <v>42629</v>
       </c>
-      <c r="AM1" s="11">
+      <c r="AN1" s="11">
         <v>42630</v>
       </c>
-      <c r="AN1" s="11">
+      <c r="AO1" s="11">
         <v>42631</v>
       </c>
-      <c r="AO1" s="11">
+      <c r="AP1" s="11">
         <v>42632</v>
       </c>
-      <c r="AP1" s="11">
+      <c r="AQ1" s="11">
         <v>42633</v>
       </c>
-      <c r="AQ1" s="11">
+      <c r="AR1" s="11">
         <v>42634</v>
       </c>
-      <c r="AR1" s="11">
+      <c r="AS1" s="11">
         <v>42635</v>
       </c>
-      <c r="AS1" s="11">
+      <c r="AT1" s="11">
         <v>42636</v>
       </c>
-      <c r="AT1" s="11">
+      <c r="AU1" s="11">
         <v>42637</v>
       </c>
-      <c r="AU1" s="11">
+      <c r="AV1" s="11">
         <v>42638</v>
       </c>
-      <c r="AV1" s="11">
+      <c r="AW1" s="11">
         <v>42639</v>
       </c>
-      <c r="AW1" s="11">
+      <c r="AX1" s="11">
         <v>42640</v>
       </c>
-      <c r="AX1" s="11">
+      <c r="AY1" s="11">
         <v>42641</v>
       </c>
-      <c r="AY1" s="11">
+      <c r="AZ1" s="11">
         <v>42642</v>
       </c>
-      <c r="AZ1" s="11">
+      <c r="BA1" s="11">
         <v>42643</v>
       </c>
-      <c r="BA1" s="11">
+      <c r="BB1" s="11">
         <v>42644</v>
       </c>
-      <c r="BB1" s="11">
+      <c r="BC1" s="11">
         <v>42645</v>
       </c>
-      <c r="BC1" s="11">
+      <c r="BD1" s="11">
         <v>42646</v>
       </c>
-      <c r="BD1" s="11">
+      <c r="BE1" s="11">
         <v>42647</v>
       </c>
-      <c r="BE1" s="11">
+      <c r="BF1" s="11">
         <v>42648</v>
       </c>
-      <c r="BF1" s="11">
+      <c r="BG1" s="11">
         <v>42649</v>
       </c>
-      <c r="BG1" s="11">
+      <c r="BH1" s="11">
         <v>42650</v>
       </c>
-      <c r="BH1" s="11">
+      <c r="BI1" s="11">
         <v>42651</v>
       </c>
-      <c r="BI1" s="11">
+      <c r="BJ1" s="11">
         <v>42652</v>
       </c>
-      <c r="BJ1" s="11">
+      <c r="BK1" s="11">
         <v>42653</v>
       </c>
-      <c r="BK1" s="11">
+      <c r="BL1" s="11">
         <v>42654</v>
       </c>
-      <c r="BL1" s="11">
+      <c r="BM1" s="11">
         <v>42655</v>
       </c>
-      <c r="BM1" s="11">
+      <c r="BN1" s="11">
         <v>42656</v>
       </c>
-      <c r="BN1" s="11">
+      <c r="BO1" s="11">
         <v>42657</v>
       </c>
-      <c r="BO1" s="11">
+      <c r="BP1" s="11">
         <v>42658</v>
       </c>
-      <c r="BP1" s="11">
+      <c r="BQ1" s="11">
         <v>42659</v>
       </c>
-      <c r="BQ1" s="11">
+      <c r="BR1" s="11">
         <v>42660</v>
       </c>
-      <c r="BR1" s="11">
+      <c r="BS1" s="11">
         <v>42661</v>
       </c>
-      <c r="BS1" s="11">
+      <c r="BT1" s="11">
         <v>42662</v>
       </c>
-      <c r="BT1" s="11">
+      <c r="BU1" s="11">
         <v>42663</v>
       </c>
-      <c r="BU1" s="11">
+      <c r="BV1" s="11">
         <v>42664</v>
       </c>
-      <c r="BV1" s="11">
+      <c r="BW1" s="11">
         <v>42665</v>
       </c>
-      <c r="BW1" s="11">
+      <c r="BX1" s="11">
         <v>42666</v>
       </c>
-      <c r="BX1" s="11">
+      <c r="BY1" s="11">
         <v>42667</v>
       </c>
-      <c r="BY1" s="11">
+      <c r="BZ1" s="11">
         <v>42668</v>
       </c>
-      <c r="BZ1" s="11">
+      <c r="CA1" s="11">
         <v>42669</v>
       </c>
-      <c r="CA1" s="11">
+      <c r="CB1" s="11">
         <v>42670</v>
       </c>
-      <c r="CB1" s="11">
+      <c r="CC1" s="11">
         <v>42671</v>
       </c>
-      <c r="CC1" s="9"/>
       <c r="CD1" s="9"/>
-    </row>
-    <row r="2" spans="1:82">
+      <c r="CE1" s="9"/>
+    </row>
+    <row r="2" spans="1:83">
       <c r="A2" s="10" t="s">
         <v>95</v>
       </c>
@@ -9661,238 +9744,241 @@
       <c r="D2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="T2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="U2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="V2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="W2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="X2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="Y2" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Z2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="AA2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AB2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AC2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AD2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AE2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AF2" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AG2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AH2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AH2" s="12" t="s">
+      <c r="AI2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AI2" s="12" t="s">
+      <c r="AJ2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="AJ2" s="12" t="s">
+      <c r="AK2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AK2" s="12" t="s">
+      <c r="AL2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="AL2" s="12" t="s">
+      <c r="AM2" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AN2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AN2" s="12" t="s">
+      <c r="AO2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AO2" s="12" t="s">
+      <c r="AP2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AP2" s="12" t="s">
+      <c r="AQ2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="AQ2" s="12" t="s">
+      <c r="AR2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AR2" s="12" t="s">
+      <c r="AS2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="AS2" s="12" t="s">
+      <c r="AT2" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="AT2" s="12" t="s">
+      <c r="AU2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AU2" s="12" t="s">
+      <c r="AV2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AV2" s="12" t="s">
+      <c r="AW2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AW2" s="12" t="s">
+      <c r="AX2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="AX2" s="12" t="s">
+      <c r="AY2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AY2" s="12" t="s">
+      <c r="AZ2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="AZ2" s="12" t="s">
+      <c r="BA2" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="BA2" s="12" t="s">
+      <c r="BB2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="BB2" s="12" t="s">
+      <c r="BC2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="BC2" s="12" t="s">
+      <c r="BD2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="BD2" s="12" t="s">
+      <c r="BE2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="BE2" s="12" t="s">
+      <c r="BF2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="BF2" s="12" t="s">
+      <c r="BG2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="BG2" s="12" t="s">
+      <c r="BH2" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="BH2" s="12" t="s">
+      <c r="BI2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="BI2" s="12" t="s">
+      <c r="BJ2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="BJ2" s="12" t="s">
+      <c r="BK2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="BK2" s="12" t="s">
+      <c r="BL2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="BL2" s="12" t="s">
+      <c r="BM2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="BM2" s="12" t="s">
+      <c r="BN2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="BN2" s="12" t="s">
+      <c r="BO2" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="BO2" s="12" t="s">
+      <c r="BP2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="BP2" s="12" t="s">
+      <c r="BQ2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="BQ2" s="12" t="s">
+      <c r="BR2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="BR2" s="12" t="s">
+      <c r="BS2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="BS2" s="12" t="s">
+      <c r="BT2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="BT2" s="12" t="s">
+      <c r="BU2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="BU2" s="12" t="s">
+      <c r="BV2" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="BV2" s="12" t="s">
+      <c r="BW2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="BW2" s="12" t="s">
+      <c r="BX2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="BX2" s="12" t="s">
+      <c r="BY2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="BY2" s="12" t="s">
+      <c r="BZ2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="BZ2" s="12" t="s">
+      <c r="CA2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="CA2" s="12" t="s">
+      <c r="CB2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="CB2" s="12" t="s">
+      <c r="CC2" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="CC2" s="9"/>
       <c r="CD2" s="9"/>
-    </row>
-    <row r="3" spans="1:82">
+      <c r="CE2" s="9"/>
+    </row>
+    <row r="3" spans="1:83">
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
@@ -9904,11 +9990,15 @@
         <v>100</v>
       </c>
       <c r="E3" s="8">
+        <f>SUM(G3:XFD3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <f>VLOOKUP(B3,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:82">
+    <row r="4" spans="1:83">
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
@@ -9920,11 +10010,15 @@
         <v>101</v>
       </c>
       <c r="E4" s="8">
+        <f t="shared" ref="E4:E67" si="0">SUM(G4:XFD4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
         <f>VLOOKUP(B4,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:82">
+    <row r="5" spans="1:83">
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -9936,11 +10030,15 @@
         <v>102</v>
       </c>
       <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
         <f>VLOOKUP(B5,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:82">
+    <row r="6" spans="1:83">
       <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
@@ -9952,11 +10050,15 @@
         <v>4</v>
       </c>
       <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
         <f>VLOOKUP(B6,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:82">
+    <row r="7" spans="1:83">
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -9965,11 +10067,15 @@
         <v>AAA</v>
       </c>
       <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
         <f>VLOOKUP(B7,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:82">
+    <row r="8" spans="1:83">
       <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
@@ -9981,11 +10087,15 @@
         <v>100</v>
       </c>
       <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
         <f>VLOOKUP(B8,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:82">
+    <row r="9" spans="1:83">
       <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
@@ -9997,11 +10107,15 @@
         <v>101</v>
       </c>
       <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
         <f>VLOOKUP(B9,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:82">
+    <row r="10" spans="1:83">
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
@@ -10013,11 +10127,15 @@
         <v>102</v>
       </c>
       <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
         <f>VLOOKUP(B10,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:82">
+    <row r="11" spans="1:83">
       <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
@@ -10029,11 +10147,15 @@
         <v>4</v>
       </c>
       <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
         <f>VLOOKUP(B11,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:82">
+    <row r="12" spans="1:83">
       <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
@@ -10042,11 +10164,15 @@
         <v>Bailey &amp; Simon</v>
       </c>
       <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
         <f>VLOOKUP(B12,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:82">
+    <row r="13" spans="1:83">
       <c r="B13" s="8" t="s">
         <v>58</v>
       </c>
@@ -10058,11 +10184,15 @@
         <v>100</v>
       </c>
       <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
         <f>VLOOKUP(B13,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:82">
+    <row r="14" spans="1:83">
       <c r="B14" s="8" t="s">
         <v>58</v>
       </c>
@@ -10074,11 +10204,15 @@
         <v>101</v>
       </c>
       <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
         <f>VLOOKUP(B14,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:82">
+    <row r="15" spans="1:83">
       <c r="B15" s="8" t="s">
         <v>58</v>
       </c>
@@ -10090,11 +10224,15 @@
         <v>102</v>
       </c>
       <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
         <f>VLOOKUP(B15,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:82">
+    <row r="16" spans="1:83">
       <c r="B16" s="8" t="s">
         <v>58</v>
       </c>
@@ -10106,11 +10244,15 @@
         <v>4</v>
       </c>
       <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
         <f>VLOOKUP(B16,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:6">
       <c r="B17" s="8" t="s">
         <v>58</v>
       </c>
@@ -10119,11 +10261,15 @@
         <v>Bailey &amp; Simon Discussion</v>
       </c>
       <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
         <f>VLOOKUP(B17,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:6">
       <c r="B18" s="8" t="s">
         <v>66</v>
       </c>
@@ -10135,11 +10281,15 @@
         <v>100</v>
       </c>
       <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
         <f>VLOOKUP(B18,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:6">
       <c r="B19" s="8" t="s">
         <v>66</v>
       </c>
@@ -10151,11 +10301,15 @@
         <v>101</v>
       </c>
       <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
         <f>VLOOKUP(B19,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:6">
       <c r="B20" s="8" t="s">
         <v>66</v>
       </c>
@@ -10167,11 +10321,15 @@
         <v>102</v>
       </c>
       <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
         <f>VLOOKUP(B20,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:6">
       <c r="B21" s="8" t="s">
         <v>66</v>
       </c>
@@ -10183,11 +10341,15 @@
         <v>4</v>
       </c>
       <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
         <f>VLOOKUP(B21,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:6">
       <c r="B22" s="8" t="s">
         <v>66</v>
       </c>
@@ -10196,11 +10358,15 @@
         <v>Mahler1</v>
       </c>
       <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
         <f>VLOOKUP(B22,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:6">
       <c r="B23" s="8" t="s">
         <v>69</v>
       </c>
@@ -10212,11 +10378,15 @@
         <v>100</v>
       </c>
       <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
         <f>VLOOKUP(B23,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:6">
       <c r="B24" s="8" t="s">
         <v>69</v>
       </c>
@@ -10228,11 +10398,15 @@
         <v>101</v>
       </c>
       <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
         <f>VLOOKUP(B24,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:6">
       <c r="B25" s="8" t="s">
         <v>69</v>
       </c>
@@ -10244,11 +10418,15 @@
         <v>102</v>
       </c>
       <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
         <f>VLOOKUP(B25,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:6">
       <c r="B26" s="8" t="s">
         <v>69</v>
       </c>
@@ -10260,11 +10438,15 @@
         <v>4</v>
       </c>
       <c r="E26" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
         <f>VLOOKUP(B26,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:6">
       <c r="B27" s="8" t="s">
         <v>69</v>
       </c>
@@ -10273,11 +10455,15 @@
         <v>Robertson</v>
       </c>
       <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
         <f>VLOOKUP(B27,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:6">
       <c r="B28" s="8" t="s">
         <v>70</v>
       </c>
@@ -10289,11 +10475,15 @@
         <v>100</v>
       </c>
       <c r="E28" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
         <f>VLOOKUP(B28,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:6">
       <c r="B29" s="8" t="s">
         <v>70</v>
       </c>
@@ -10305,11 +10495,15 @@
         <v>101</v>
       </c>
       <c r="E29" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
         <f>VLOOKUP(B29,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:6">
       <c r="B30" s="8" t="s">
         <v>70</v>
       </c>
@@ -10321,11 +10515,15 @@
         <v>102</v>
       </c>
       <c r="E30" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
         <f>VLOOKUP(B30,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:6">
       <c r="B31" s="8" t="s">
         <v>70</v>
       </c>
@@ -10337,11 +10535,15 @@
         <v>4</v>
       </c>
       <c r="E31" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
         <f>VLOOKUP(B31,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:6">
       <c r="B32" s="8" t="s">
         <v>70</v>
       </c>
@@ -10350,11 +10552,15 @@
         <v>Couret &amp; Venter</v>
       </c>
       <c r="E32" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
         <f>VLOOKUP(B32,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:12">
       <c r="B33" s="8" t="s">
         <v>72</v>
       </c>
@@ -10366,11 +10572,15 @@
         <v>100</v>
       </c>
       <c r="E33" s="8">
+        <f>SUM(G33:XFD33)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
         <f>VLOOKUP(B33,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:12">
       <c r="B34" s="8" t="s">
         <v>72</v>
       </c>
@@ -10382,11 +10592,15 @@
         <v>101</v>
       </c>
       <c r="E34" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
         <f>VLOOKUP(B34,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:12">
       <c r="B35" s="8" t="s">
         <v>72</v>
       </c>
@@ -10398,11 +10612,15 @@
         <v>102</v>
       </c>
       <c r="E35" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
         <f>VLOOKUP(B35,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:12">
       <c r="B36" s="8" t="s">
         <v>72</v>
       </c>
@@ -10414,11 +10632,15 @@
         <v>4</v>
       </c>
       <c r="E36" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
         <f>VLOOKUP(B36,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:12">
       <c r="B37" s="8" t="s">
         <v>72</v>
       </c>
@@ -10427,11 +10649,15 @@
         <v>GLM</v>
       </c>
       <c r="E37" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="8">
         <f>VLOOKUP(B37,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:12">
       <c r="B38" s="8" t="s">
         <v>48</v>
       </c>
@@ -10443,11 +10669,15 @@
         <v>100</v>
       </c>
       <c r="E38" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="8">
         <f>VLOOKUP(B38,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:12">
       <c r="B39" s="8" t="s">
         <v>48</v>
       </c>
@@ -10459,11 +10689,18 @@
         <v>101</v>
       </c>
       <c r="E39" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="8">
         <f>VLOOKUP(B39,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:12">
+      <c r="A40" s="8">
+        <v>8</v>
+      </c>
       <c r="B40" s="8" t="s">
         <v>48</v>
       </c>
@@ -10475,11 +10712,18 @@
         <v>102</v>
       </c>
       <c r="E40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="F40" s="8">
         <f>VLOOKUP(B40,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="L40" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="8">
         <v>8.16</v>
       </c>
@@ -10494,14 +10738,18 @@
         <v>4</v>
       </c>
       <c r="E41" s="8">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F41" s="8">
         <f>VLOOKUP(B41,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="H41" s="13">
+      <c r="I41" s="13">
         <v>1.5</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:12">
       <c r="B42" s="8" t="s">
         <v>48</v>
       </c>
@@ -10510,11 +10758,15 @@
         <v>Retrospective</v>
       </c>
       <c r="E42" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="8">
         <f>VLOOKUP(B42,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:12">
       <c r="B43" s="8" t="s">
         <v>35</v>
       </c>
@@ -10526,11 +10778,15 @@
         <v>100</v>
       </c>
       <c r="E43" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="8">
         <f>VLOOKUP(B43,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:12">
       <c r="B44" s="8" t="s">
         <v>35</v>
       </c>
@@ -10542,11 +10798,18 @@
         <v>101</v>
       </c>
       <c r="E44" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="8">
         <f>VLOOKUP(B44,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:12">
+      <c r="A45" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="B45" s="8" t="s">
         <v>35</v>
       </c>
@@ -10558,14 +10821,21 @@
         <v>102</v>
       </c>
       <c r="E45" s="8">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="F45" s="8">
         <f>VLOOKUP(B45,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="I45" s="13">
+      <c r="J45" s="13">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="L45" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="8">
         <v>8.18</v>
       </c>
@@ -10580,14 +10850,18 @@
         <v>4</v>
       </c>
       <c r="E46" s="8">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="F46" s="8">
         <f>VLOOKUP(B46,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="I46" s="13">
+      <c r="J46" s="13">
         <v>0.7</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:12">
       <c r="B47" s="8" t="s">
         <v>35</v>
       </c>
@@ -10596,11 +10870,15 @@
         <v>Retrospective</v>
       </c>
       <c r="E47" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="8">
         <f>VLOOKUP(B47,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:12">
       <c r="B48" s="8" t="s">
         <v>31</v>
       </c>
@@ -10612,11 +10890,15 @@
         <v>100</v>
       </c>
       <c r="E48" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="8">
         <f>VLOOKUP(B48,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:12">
       <c r="B49" s="8" t="s">
         <v>31</v>
       </c>
@@ -10628,11 +10910,15 @@
         <v>101</v>
       </c>
       <c r="E49" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="8">
         <f>VLOOKUP(B49,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:12">
       <c r="B50" s="8" t="s">
         <v>31</v>
       </c>
@@ -10644,11 +10930,18 @@
         <v>102</v>
       </c>
       <c r="E50" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="8">
         <f>VLOOKUP(B50,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="L50" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="8">
         <v>8.19</v>
       </c>
@@ -10663,11 +10956,15 @@
         <v>4</v>
       </c>
       <c r="E51" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="8">
         <f>VLOOKUP(B51,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:12">
       <c r="B52" s="8" t="s">
         <v>31</v>
       </c>
@@ -10676,11 +10973,15 @@
         <v>Retrospective</v>
       </c>
       <c r="E52" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="8">
         <f>VLOOKUP(B52,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:12">
       <c r="A53" s="10" t="s">
         <v>44</v>
       </c>
@@ -10695,20 +10996,27 @@
         <v>100</v>
       </c>
       <c r="E53" s="8">
+        <f t="shared" si="0"/>
+        <v>5.05</v>
+      </c>
+      <c r="F53" s="8">
         <f>VLOOKUP(B53,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="F53" s="13">
-        <v>1</v>
-      </c>
       <c r="G53" s="13">
         <v>1</v>
       </c>
-      <c r="I53" s="13">
+      <c r="H53" s="13">
+        <v>1</v>
+      </c>
+      <c r="J53" s="13">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="L53" s="13">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="10"/>
       <c r="B54" s="8" t="s">
         <v>40</v>
@@ -10721,11 +11029,15 @@
         <v>101</v>
       </c>
       <c r="E54" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="8">
         <f>VLOOKUP(B54,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:12">
       <c r="A55" s="10"/>
       <c r="B55" s="8" t="s">
         <v>40</v>
@@ -10738,11 +11050,15 @@
         <v>102</v>
       </c>
       <c r="E55" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="8">
         <f>VLOOKUP(B55,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:12">
       <c r="A56" s="10"/>
       <c r="B56" s="8" t="s">
         <v>40</v>
@@ -10755,11 +11071,15 @@
         <v>4</v>
       </c>
       <c r="E56" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="8">
         <f>VLOOKUP(B56,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:12">
       <c r="A57" s="10"/>
       <c r="B57" s="8" t="s">
         <v>40</v>
@@ -10769,11 +11089,15 @@
         <v>Retrospective</v>
       </c>
       <c r="E57" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="8">
         <f>VLOOKUP(B57,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:12">
       <c r="A58" s="10" t="s">
         <v>44</v>
       </c>
@@ -10788,11 +11112,15 @@
         <v>100</v>
       </c>
       <c r="E58" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="8">
         <f>VLOOKUP(B58,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:12">
       <c r="B59" s="8" t="s">
         <v>45</v>
       </c>
@@ -10804,11 +11132,15 @@
         <v>101</v>
       </c>
       <c r="E59" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="8">
         <f>VLOOKUP(B59,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:12">
       <c r="B60" s="8" t="s">
         <v>45</v>
       </c>
@@ -10820,11 +11152,15 @@
         <v>102</v>
       </c>
       <c r="E60" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="8">
         <f>VLOOKUP(B60,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:12">
       <c r="B61" s="8" t="s">
         <v>45</v>
       </c>
@@ -10836,11 +11172,15 @@
         <v>4</v>
       </c>
       <c r="E61" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="8">
         <f>VLOOKUP(B61,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:12">
       <c r="B62" s="8" t="s">
         <v>45</v>
       </c>
@@ -10849,11 +11189,15 @@
         <v>Retrospective</v>
       </c>
       <c r="E62" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="8">
         <f>VLOOKUP(B62,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:12">
       <c r="B63" s="8" t="s">
         <v>57</v>
       </c>
@@ -10865,11 +11209,15 @@
         <v>100</v>
       </c>
       <c r="E63" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="8">
         <f>VLOOKUP(B63,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:12">
       <c r="B64" s="8" t="s">
         <v>57</v>
       </c>
@@ -10881,11 +11229,15 @@
         <v>101</v>
       </c>
       <c r="E64" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="8">
         <f>VLOOKUP(B64,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:9">
       <c r="B65" s="8" t="s">
         <v>57</v>
       </c>
@@ -10897,11 +11249,15 @@
         <v>102</v>
       </c>
       <c r="E65" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="8">
         <f>VLOOKUP(B65,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:9">
       <c r="B66" s="8" t="s">
         <v>57</v>
       </c>
@@ -10913,11 +11269,15 @@
         <v>4</v>
       </c>
       <c r="E66" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="8">
         <f>VLOOKUP(B66,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:9">
       <c r="B67" s="8" t="s">
         <v>57</v>
       </c>
@@ -10926,11 +11286,15 @@
         <v>Retrospective</v>
       </c>
       <c r="E67" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F67" s="8">
         <f>VLOOKUP(B67,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:9">
       <c r="B68" s="8" t="s">
         <v>13</v>
       </c>
@@ -10942,11 +11306,15 @@
         <v>100</v>
       </c>
       <c r="E68" s="8">
+        <f t="shared" ref="E68:E131" si="1">SUM(G68:XFD68)</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="8">
         <f>VLOOKUP(B68,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:9">
       <c r="A69" s="2" t="s">
         <v>19</v>
       </c>
@@ -10961,14 +11329,18 @@
         <v>101</v>
       </c>
       <c r="E69" s="8">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F69" s="8">
         <f>VLOOKUP(B69,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="F69" s="13">
+      <c r="G69" s="13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:9">
       <c r="B70" s="8" t="s">
         <v>13</v>
       </c>
@@ -10980,11 +11352,15 @@
         <v>102</v>
       </c>
       <c r="E70" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="8">
         <f>VLOOKUP(B70,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:9">
       <c r="B71" s="8" t="s">
         <v>13</v>
       </c>
@@ -10996,11 +11372,15 @@
         <v>4</v>
       </c>
       <c r="E71" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="8">
         <f>VLOOKUP(B71,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:9">
       <c r="B72" s="8" t="s">
         <v>13</v>
       </c>
@@ -11009,11 +11389,15 @@
         <v xml:space="preserve">Excess factor </v>
       </c>
       <c r="E72" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="8">
         <f>VLOOKUP(B72,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:9">
       <c r="B73" s="8" t="s">
         <v>27</v>
       </c>
@@ -11025,11 +11409,15 @@
         <v>100</v>
       </c>
       <c r="E73" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="8">
         <f>VLOOKUP(B73,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:9">
       <c r="A74" s="2">
         <v>8.16</v>
       </c>
@@ -11044,17 +11432,21 @@
         <v>101</v>
       </c>
       <c r="E74" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F74" s="8">
         <f>VLOOKUP(B74,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="F74" s="13">
-        <v>0.5</v>
-      </c>
       <c r="G74" s="13">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="H74" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" s="8" t="s">
         <v>27</v>
       </c>
@@ -11066,11 +11458,15 @@
         <v>102</v>
       </c>
       <c r="E75" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="8">
         <f>VLOOKUP(B75,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:9">
       <c r="B76" s="8" t="s">
         <v>27</v>
       </c>
@@ -11082,11 +11478,15 @@
         <v>4</v>
       </c>
       <c r="E76" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F76" s="8">
         <f>VLOOKUP(B76,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:9">
       <c r="B77" s="8" t="s">
         <v>27</v>
       </c>
@@ -11095,11 +11495,15 @@
         <v>ILF/Excess</v>
       </c>
       <c r="E77" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="8">
         <f>VLOOKUP(B77,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:9">
       <c r="B78" s="8" t="s">
         <v>21</v>
       </c>
@@ -11111,11 +11515,15 @@
         <v>100</v>
       </c>
       <c r="E78" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="8">
         <f>VLOOKUP(B78,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:9">
       <c r="A79" s="2">
         <v>8.17</v>
       </c>
@@ -11130,14 +11538,18 @@
         <v>101</v>
       </c>
       <c r="E79" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F79" s="8">
         <f>VLOOKUP(B79,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="H79" s="13">
+      <c r="I79" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:9">
       <c r="B80" s="8" t="s">
         <v>21</v>
       </c>
@@ -11149,11 +11561,15 @@
         <v>102</v>
       </c>
       <c r="E80" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="8">
         <f>VLOOKUP(B80,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:10">
       <c r="B81" s="8" t="s">
         <v>21</v>
       </c>
@@ -11165,11 +11581,15 @@
         <v>4</v>
       </c>
       <c r="E81" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F81" s="8">
         <f>VLOOKUP(B81,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:10">
       <c r="B82" s="8" t="s">
         <v>21</v>
       </c>
@@ -11178,11 +11598,15 @@
         <v xml:space="preserve">Excess factor </v>
       </c>
       <c r="E82" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="8">
         <f>VLOOKUP(B82,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:10">
       <c r="B83" s="8" t="s">
         <v>38</v>
       </c>
@@ -11194,11 +11618,15 @@
         <v>100</v>
       </c>
       <c r="E83" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F83" s="8">
         <f>VLOOKUP(B83,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:10">
       <c r="A84" s="2">
         <v>8.18</v>
       </c>
@@ -11213,14 +11641,18 @@
         <v>101</v>
       </c>
       <c r="E84" s="8">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F84" s="8">
         <f>VLOOKUP(B84,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>25</v>
       </c>
-      <c r="I84" s="13">
+      <c r="J84" s="13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:10">
       <c r="B85" s="8" t="s">
         <v>38</v>
       </c>
@@ -11232,11 +11664,15 @@
         <v>102</v>
       </c>
       <c r="E85" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F85" s="8">
         <f>VLOOKUP(B85,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:10">
       <c r="B86" s="8" t="s">
         <v>38</v>
       </c>
@@ -11248,11 +11684,15 @@
         <v>4</v>
       </c>
       <c r="E86" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="8">
         <f>VLOOKUP(B86,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:10">
       <c r="B87" s="8" t="s">
         <v>38</v>
       </c>
@@ -11261,11 +11701,15 @@
         <v xml:space="preserve">Excess factor </v>
       </c>
       <c r="E87" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="8">
         <f>VLOOKUP(B87,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:10">
       <c r="A88" s="2" t="s">
         <v>51</v>
       </c>
@@ -11280,17 +11724,21 @@
         <v>100</v>
       </c>
       <c r="E88" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F88" s="8">
         <f>VLOOKUP(B88,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>25</v>
       </c>
-      <c r="F88" s="13">
-        <v>1</v>
-      </c>
       <c r="G88" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="H88" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="B89" s="8" t="s">
         <v>50</v>
       </c>
@@ -11302,11 +11750,15 @@
         <v>101</v>
       </c>
       <c r="E89" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="8">
         <f>VLOOKUP(B89,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:10">
       <c r="B90" s="8" t="s">
         <v>50</v>
       </c>
@@ -11318,11 +11770,15 @@
         <v>102</v>
       </c>
       <c r="E90" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="8">
         <f>VLOOKUP(B90,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:10">
       <c r="B91" s="8" t="s">
         <v>50</v>
       </c>
@@ -11334,11 +11790,15 @@
         <v>4</v>
       </c>
       <c r="E91" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="8">
         <f>VLOOKUP(B91,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:10">
       <c r="B92" s="8" t="s">
         <v>50</v>
       </c>
@@ -11347,11 +11807,15 @@
         <v>Experience</v>
       </c>
       <c r="E92" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="8">
         <f>VLOOKUP(B92,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:10">
       <c r="B93" s="8" t="s">
         <v>56</v>
       </c>
@@ -11363,11 +11827,15 @@
         <v>100</v>
       </c>
       <c r="E93" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F93" s="8">
         <f>VLOOKUP(B93,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:10">
       <c r="B94" s="8" t="s">
         <v>56</v>
       </c>
@@ -11379,11 +11847,15 @@
         <v>101</v>
       </c>
       <c r="E94" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F94" s="8">
         <f>VLOOKUP(B94,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:10">
       <c r="B95" s="8" t="s">
         <v>56</v>
       </c>
@@ -11395,11 +11867,15 @@
         <v>102</v>
       </c>
       <c r="E95" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F95" s="8">
         <f>VLOOKUP(B95,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:10">
       <c r="B96" s="8" t="s">
         <v>56</v>
       </c>
@@ -11411,11 +11887,15 @@
         <v>4</v>
       </c>
       <c r="E96" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F96" s="8">
         <f>VLOOKUP(B96,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:5">
+    <row r="97" spans="2:6">
       <c r="B97" s="8" t="s">
         <v>56</v>
       </c>
@@ -11424,11 +11904,15 @@
         <v>Experience</v>
       </c>
       <c r="E97" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F97" s="8">
         <f>VLOOKUP(B97,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:5">
+    <row r="98" spans="2:6">
       <c r="B98" s="8" t="s">
         <v>6</v>
       </c>
@@ -11440,11 +11924,15 @@
         <v>100</v>
       </c>
       <c r="E98" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F98" s="8">
         <f>VLOOKUP(B98,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="2:5">
+    <row r="99" spans="2:6">
       <c r="B99" s="8" t="s">
         <v>6</v>
       </c>
@@ -11456,11 +11944,15 @@
         <v>101</v>
       </c>
       <c r="E99" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F99" s="8">
         <f>VLOOKUP(B99,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="2:5">
+    <row r="100" spans="2:6">
       <c r="B100" s="8" t="s">
         <v>6</v>
       </c>
@@ -11472,11 +11964,15 @@
         <v>102</v>
       </c>
       <c r="E100" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F100" s="8">
         <f>VLOOKUP(B100,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="2:5">
+    <row r="101" spans="2:6">
       <c r="B101" s="8" t="s">
         <v>6</v>
       </c>
@@ -11488,11 +11984,15 @@
         <v>4</v>
       </c>
       <c r="E101" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F101" s="8">
         <f>VLOOKUP(B101,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="2:5">
+    <row r="102" spans="2:6">
       <c r="B102" s="8" t="s">
         <v>6</v>
       </c>
@@ -11501,11 +12001,15 @@
         <v>Experience</v>
       </c>
       <c r="E102" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="8">
         <f>VLOOKUP(B102,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="2:5">
+    <row r="103" spans="2:6">
       <c r="B103" s="8" t="s">
         <v>52</v>
       </c>
@@ -11517,11 +12021,15 @@
         <v>100</v>
       </c>
       <c r="E103" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F103" s="8">
         <f>VLOOKUP(B103,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:5">
+    <row r="104" spans="2:6">
       <c r="B104" s="8" t="s">
         <v>52</v>
       </c>
@@ -11533,11 +12041,15 @@
         <v>101</v>
       </c>
       <c r="E104" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F104" s="8">
         <f>VLOOKUP(B104,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:5">
+    <row r="105" spans="2:6">
       <c r="B105" s="8" t="s">
         <v>52</v>
       </c>
@@ -11549,11 +12061,15 @@
         <v>102</v>
       </c>
       <c r="E105" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="8">
         <f>VLOOKUP(B105,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:5">
+    <row r="106" spans="2:6">
       <c r="B106" s="8" t="s">
         <v>52</v>
       </c>
@@ -11565,11 +12081,15 @@
         <v>4</v>
       </c>
       <c r="E106" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F106" s="8">
         <f>VLOOKUP(B106,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:5">
+    <row r="107" spans="2:6">
       <c r="B107" s="8" t="s">
         <v>52</v>
       </c>
@@ -11578,11 +12098,15 @@
         <v>Experience</v>
       </c>
       <c r="E107" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F107" s="8">
         <f>VLOOKUP(B107,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:5">
+    <row r="108" spans="2:6">
       <c r="B108" s="8" t="s">
         <v>67</v>
       </c>
@@ -11594,11 +12118,15 @@
         <v>100</v>
       </c>
       <c r="E108" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F108" s="8">
         <f>VLOOKUP(B108,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:5">
+    <row r="109" spans="2:6">
       <c r="B109" s="8" t="s">
         <v>67</v>
       </c>
@@ -11610,11 +12138,15 @@
         <v>101</v>
       </c>
       <c r="E109" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F109" s="8">
         <f>VLOOKUP(B109,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:5">
+    <row r="110" spans="2:6">
       <c r="B110" s="8" t="s">
         <v>67</v>
       </c>
@@ -11626,11 +12158,15 @@
         <v>102</v>
       </c>
       <c r="E110" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F110" s="8">
         <f>VLOOKUP(B110,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:5">
+    <row r="111" spans="2:6">
       <c r="B111" s="8" t="s">
         <v>67</v>
       </c>
@@ -11642,11 +12178,15 @@
         <v>4</v>
       </c>
       <c r="E111" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F111" s="8">
         <f>VLOOKUP(B111,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:5">
+    <row r="112" spans="2:6">
       <c r="B112" s="8" t="s">
         <v>67</v>
       </c>
@@ -11655,11 +12195,15 @@
         <v>GL Experience &amp; Schedule</v>
       </c>
       <c r="E112" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F112" s="8">
         <f>VLOOKUP(B112,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>8.19</v>
       </c>
@@ -11674,11 +12218,18 @@
         <v>100</v>
       </c>
       <c r="E113" s="8">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F113" s="8">
         <f>VLOOKUP(B113,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="K113" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="B114" s="8" t="s">
         <v>62</v>
       </c>
@@ -11690,11 +12241,15 @@
         <v>101</v>
       </c>
       <c r="E114" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F114" s="8">
         <f>VLOOKUP(B114,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:11">
       <c r="B115" s="8" t="s">
         <v>62</v>
       </c>
@@ -11706,11 +12261,15 @@
         <v>102</v>
       </c>
       <c r="E115" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F115" s="8">
         <f>VLOOKUP(B115,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:11">
       <c r="B116" s="8" t="s">
         <v>62</v>
       </c>
@@ -11722,11 +12281,15 @@
         <v>4</v>
       </c>
       <c r="E116" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F116" s="8">
         <f>VLOOKUP(B116,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:11">
       <c r="B117" s="8" t="s">
         <v>62</v>
       </c>
@@ -11735,11 +12298,15 @@
         <v>LDD</v>
       </c>
       <c r="E117" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F117" s="8">
         <f>VLOOKUP(B117,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>8.18</v>
       </c>
@@ -11754,14 +12321,18 @@
         <v>100</v>
       </c>
       <c r="E118" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F118" s="8">
         <f>VLOOKUP(B118,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>25</v>
       </c>
-      <c r="I118" s="13">
+      <c r="J118" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:11">
       <c r="B119" s="8" t="s">
         <v>63</v>
       </c>
@@ -11773,11 +12344,15 @@
         <v>101</v>
       </c>
       <c r="E119" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F119" s="8">
         <f>VLOOKUP(B119,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:11">
       <c r="B120" s="8" t="s">
         <v>63</v>
       </c>
@@ -11789,11 +12364,15 @@
         <v>102</v>
       </c>
       <c r="E120" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F120" s="8">
         <f>VLOOKUP(B120,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:11">
       <c r="B121" s="8" t="s">
         <v>63</v>
       </c>
@@ -11805,11 +12384,15 @@
         <v>4</v>
       </c>
       <c r="E121" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F121" s="8">
         <f>VLOOKUP(B121,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:11">
       <c r="B122" s="8" t="s">
         <v>63</v>
       </c>
@@ -11818,11 +12401,15 @@
         <v>LDD</v>
       </c>
       <c r="E122" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F122" s="8">
         <f>VLOOKUP(B122,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:11">
       <c r="B123" s="8" t="s">
         <v>60</v>
       </c>
@@ -11834,11 +12421,15 @@
         <v>100</v>
       </c>
       <c r="E123" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F123" s="8">
         <f>VLOOKUP(B123,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:11">
       <c r="B124" s="8" t="s">
         <v>60</v>
       </c>
@@ -11850,11 +12441,15 @@
         <v>101</v>
       </c>
       <c r="E124" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F124" s="8">
         <f>VLOOKUP(B124,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:11">
       <c r="B125" s="8" t="s">
         <v>60</v>
       </c>
@@ -11866,11 +12461,15 @@
         <v>102</v>
       </c>
       <c r="E125" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F125" s="8">
         <f>VLOOKUP(B125,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:11">
       <c r="B126" s="8" t="s">
         <v>60</v>
       </c>
@@ -11882,11 +12481,15 @@
         <v>4</v>
       </c>
       <c r="E126" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F126" s="8">
         <f>VLOOKUP(B126,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:11">
       <c r="B127" s="8" t="s">
         <v>60</v>
       </c>
@@ -11895,11 +12498,15 @@
         <v>LDD</v>
       </c>
       <c r="E127" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F127" s="8">
         <f>VLOOKUP(B127,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:11">
       <c r="B128" s="8" t="s">
         <v>64</v>
       </c>
@@ -11911,11 +12518,15 @@
         <v>100</v>
       </c>
       <c r="E128" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F128" s="8">
         <f>VLOOKUP(B128,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="129" spans="2:17">
+    <row r="129" spans="2:18">
       <c r="B129" s="8" t="s">
         <v>64</v>
       </c>
@@ -11927,11 +12538,15 @@
         <v>101</v>
       </c>
       <c r="E129" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F129" s="8">
         <f>VLOOKUP(B129,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="2:17">
+    <row r="130" spans="2:18">
       <c r="B130" s="8" t="s">
         <v>64</v>
       </c>
@@ -11943,11 +12558,15 @@
         <v>102</v>
       </c>
       <c r="E130" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F130" s="8">
         <f>VLOOKUP(B130,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="131" spans="2:17">
+    <row r="131" spans="2:18">
       <c r="B131" s="8" t="s">
         <v>64</v>
       </c>
@@ -11959,11 +12578,15 @@
         <v>4</v>
       </c>
       <c r="E131" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F131" s="8">
         <f>VLOOKUP(B131,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="132" spans="2:17">
+    <row r="132" spans="2:18">
       <c r="B132" s="8" t="s">
         <v>64</v>
       </c>
@@ -11972,11 +12595,15 @@
         <v>Clark</v>
       </c>
       <c r="E132" s="8">
+        <f t="shared" ref="E132:E157" si="2">SUM(G132:XFD132)</f>
+        <v>0</v>
+      </c>
+      <c r="F132" s="8">
         <f>VLOOKUP(B132,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="133" spans="2:17">
+    <row r="133" spans="2:18">
       <c r="B133" s="8" t="s">
         <v>65</v>
       </c>
@@ -11988,11 +12615,15 @@
         <v>100</v>
       </c>
       <c r="E133" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F133" s="8">
         <f>VLOOKUP(B133,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="2:17">
+    <row r="134" spans="2:18">
       <c r="B134" s="8" t="s">
         <v>65</v>
       </c>
@@ -12004,11 +12635,15 @@
         <v>101</v>
       </c>
       <c r="E134" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F134" s="8">
         <f>VLOOKUP(B134,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="2:17">
+    <row r="135" spans="2:18">
       <c r="B135" s="8" t="s">
         <v>65</v>
       </c>
@@ -12020,11 +12655,15 @@
         <v>102</v>
       </c>
       <c r="E135" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F135" s="8">
         <f>VLOOKUP(B135,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="2:17">
+    <row r="136" spans="2:18">
       <c r="B136" s="8" t="s">
         <v>65</v>
       </c>
@@ -12036,11 +12675,15 @@
         <v>4</v>
       </c>
       <c r="E136" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F136" s="8">
         <f>VLOOKUP(B136,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="2:17">
+    <row r="137" spans="2:18">
       <c r="B137" s="8" t="s">
         <v>65</v>
       </c>
@@ -12049,11 +12692,15 @@
         <v>Bernegger</v>
       </c>
       <c r="E137" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F137" s="8">
         <f>VLOOKUP(B137,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="2:17">
+    <row r="138" spans="2:18">
       <c r="B138" s="8" t="s">
         <v>87</v>
       </c>
@@ -12065,11 +12712,15 @@
         <v>100</v>
       </c>
       <c r="E138" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F138" s="8">
         <f>VLOOKUP(B138,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>111</v>
       </c>
     </row>
-    <row r="139" spans="2:17">
+    <row r="139" spans="2:18">
       <c r="B139" s="8" t="s">
         <v>87</v>
       </c>
@@ -12081,11 +12732,15 @@
         <v>101</v>
       </c>
       <c r="E139" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F139" s="8">
         <f>VLOOKUP(B139,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>111</v>
       </c>
     </row>
-    <row r="140" spans="2:17">
+    <row r="140" spans="2:18">
       <c r="B140" s="8" t="s">
         <v>87</v>
       </c>
@@ -12097,11 +12752,15 @@
         <v>102</v>
       </c>
       <c r="E140" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F140" s="8">
         <f>VLOOKUP(B140,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>111</v>
       </c>
     </row>
-    <row r="141" spans="2:17">
+    <row r="141" spans="2:18">
       <c r="B141" s="8" t="s">
         <v>87</v>
       </c>
@@ -12113,11 +12772,15 @@
         <v>4</v>
       </c>
       <c r="E141" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F141" s="8">
         <f>VLOOKUP(B141,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>111</v>
       </c>
     </row>
-    <row r="142" spans="2:17">
+    <row r="142" spans="2:18">
       <c r="B142" s="8" t="s">
         <v>87</v>
       </c>
@@ -12126,82 +12789,140 @@
         <v>Grossi &amp; Kunreuther</v>
       </c>
       <c r="E142" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F142" s="8">
         <f>VLOOKUP(B142,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>111</v>
       </c>
     </row>
-    <row r="143" spans="2:17">
-      <c r="F143" s="13">
-        <f>SUM(F3:F142)</f>
-        <v>3</v>
+    <row r="143" spans="2:18">
+      <c r="E143" s="8">
+        <f t="shared" si="2"/>
+        <v>15.8</v>
       </c>
       <c r="G143" s="13">
         <f>SUM(G3:G142)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H143" s="13">
         <f>SUM(H3:H142)</f>
         <v>2.5</v>
       </c>
       <c r="I143" s="13">
-        <f t="shared" ref="I143:Q143" si="0">SUM(I3:I142)</f>
+        <f>SUM(I3:I142)</f>
+        <v>2.5</v>
+      </c>
+      <c r="J143" s="13">
+        <f t="shared" ref="J143:R143" si="3">SUM(J3:J142)</f>
         <v>3.3</v>
       </c>
-      <c r="J143" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="K143" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="L143" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="M143" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N143" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O143" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P143" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q143" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="7:9">
-      <c r="G149" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R143" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="5:12">
+      <c r="E147" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G147" s="13">
+        <f>G143-3</f>
+        <v>0</v>
+      </c>
+      <c r="H147" s="13">
+        <f>H143-3</f>
+        <v>-0.5</v>
+      </c>
+      <c r="I147" s="13">
+        <f t="shared" ref="I147:Q147" si="4">I143-3</f>
+        <v>-0.5</v>
+      </c>
+      <c r="J147" s="13">
+        <f t="shared" si="4"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="K147" s="13">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="L147" s="13">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I149" s="13">
+    </row>
+    <row r="149" spans="5:12">
+      <c r="E149" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H149" s="13">
         <v>1</v>
       </c>
+      <c r="J149" s="13">
+        <v>1</v>
+      </c>
+      <c r="K149" s="13">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:CC143"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:H13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="3" spans="4:8">
       <c r="D3">
@@ -12371,5 +13092,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/ReadingIndex.xlsx
+++ b/ReadingIndex.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="119">
   <si>
     <t>Paper</t>
   </si>
@@ -373,7 +373,16 @@
     <t>Study Hour Used</t>
   </si>
   <si>
-    <t>8/24-8/26</t>
+    <t>8/30-9/2</t>
+  </si>
+  <si>
+    <t>8/29-8/30</t>
+  </si>
+  <si>
+    <t>8/30-8/31</t>
+  </si>
+  <si>
+    <t>8/31-9/1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -468,6 +477,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -602,11 +612,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="171209088"/>
-        <c:axId val="171210624"/>
+        <c:axId val="50727168"/>
+        <c:axId val="49364992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="171209088"/>
+        <c:axId val="50727168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,12 +626,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171210624"/>
+        <c:crossAx val="49364992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="171210624"/>
+        <c:axId val="49364992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,13 +642,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171209088"/>
+        <c:crossAx val="50727168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9475,14 +9486,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:XFD149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="M107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="U126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P147" sqref="P147"/>
+      <selection pane="bottomRight" activeCell="AD149" sqref="AD149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9503,7 +9513,7 @@
     <row r="1" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A1" s="9">
         <f ca="1">TODAY()</f>
-        <v>42609</v>
+        <v>42613</v>
       </c>
       <c r="G1" s="11">
         <v>42597</v>
@@ -9980,7 +9990,7 @@
       <c r="CD2" s="9"/>
       <c r="CE2" s="9"/>
     </row>
-    <row r="3" spans="1:83" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
@@ -10000,7 +10010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:83" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
@@ -10077,7 +10087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:83" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:83" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
@@ -10097,7 +10107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:83" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
@@ -10174,7 +10184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:83" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:83" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>58</v>
       </c>
@@ -10194,7 +10204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:83" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:83" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>58</v>
       </c>
@@ -10271,7 +10281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>66</v>
       </c>
@@ -10291,7 +10301,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>66</v>
       </c>
@@ -10368,7 +10378,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>69</v>
       </c>
@@ -10388,7 +10398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>69</v>
       </c>
@@ -10465,7 +10475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>70</v>
       </c>
@@ -10485,7 +10495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>70</v>
       </c>
@@ -10562,7 +10572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>72</v>
       </c>
@@ -10582,7 +10592,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>72</v>
       </c>
@@ -10602,7 +10612,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>72</v>
       </c>
@@ -10622,7 +10632,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>72</v>
       </c>
@@ -10642,7 +10652,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>72</v>
       </c>
@@ -10659,7 +10669,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>48</v>
       </c>
@@ -10679,7 +10689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>48</v>
       </c>
@@ -10699,7 +10709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>48</v>
       </c>
@@ -10712,7 +10722,7 @@
       </c>
       <c r="E40" s="8">
         <f t="shared" si="0"/>
-        <v>3.25</v>
+        <v>1.25</v>
       </c>
       <c r="F40" s="8">
         <f>VLOOKUP(B40,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -10722,10 +10732,10 @@
         <v>0.25</v>
       </c>
       <c r="S40" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>48</v>
       </c>
@@ -10738,7 +10748,7 @@
       </c>
       <c r="E41" s="8">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F41" s="8">
         <f>VLOOKUP(B41,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -10747,8 +10757,11 @@
       <c r="I41" s="13">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="S41" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>48</v>
       </c>
@@ -10765,7 +10778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>35</v>
       </c>
@@ -10785,7 +10798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>35</v>
       </c>
@@ -10805,7 +10818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>35</v>
       </c>
@@ -10831,7 +10844,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="B46" s="8" t="s">
         <v>35</v>
       </c>
@@ -10844,7 +10860,7 @@
       </c>
       <c r="E46" s="8">
         <f t="shared" si="0"/>
-        <v>1.7</v>
+        <v>3.45</v>
       </c>
       <c r="F46" s="8">
         <f>VLOOKUP(B46,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -10856,8 +10872,14 @@
       <c r="S46" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="V46" s="13">
+        <v>1</v>
+      </c>
+      <c r="W46" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>35</v>
       </c>
@@ -10874,7 +10896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>31</v>
       </c>
@@ -10894,7 +10916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>31</v>
       </c>
@@ -10938,6 +10960,9 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="B51" s="8" t="s">
         <v>31</v>
       </c>
@@ -10974,7 +10999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="8" t="s">
         <v>40</v>
@@ -11007,7 +11032,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="8" t="s">
         <v>40</v>
@@ -11029,7 +11054,9 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="10"/>
+      <c r="A55" s="15">
+        <v>42613</v>
+      </c>
       <c r="B55" s="8" t="s">
         <v>40</v>
       </c>
@@ -11050,7 +11077,9 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="10"/>
+      <c r="A56" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="B56" s="8" t="s">
         <v>40</v>
       </c>
@@ -11088,7 +11117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="8" t="s">
         <v>45</v>
@@ -11109,7 +11138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>45</v>
       </c>
@@ -11130,6 +11159,9 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="15">
+        <v>42613</v>
+      </c>
       <c r="B60" s="8" t="s">
         <v>45</v>
       </c>
@@ -11150,6 +11182,9 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="B61" s="8" t="s">
         <v>45</v>
       </c>
@@ -11186,7 +11221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>57</v>
       </c>
@@ -11206,7 +11241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>57</v>
       </c>
@@ -11283,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>13</v>
       </c>
@@ -11303,7 +11338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="8" t="s">
         <v>13</v>
@@ -11390,7 +11425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>27</v>
       </c>
@@ -11410,7 +11445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="8" t="s">
         <v>27</v>
@@ -11497,7 +11532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>21</v>
       </c>
@@ -11517,7 +11552,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="8" t="s">
         <v>21</v>
@@ -11564,7 +11599,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>21</v>
       </c>
@@ -11584,7 +11619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>21</v>
       </c>
@@ -11601,7 +11636,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>38</v>
       </c>
@@ -11621,7 +11656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="8" t="s">
         <v>38</v>
@@ -11635,7 +11670,7 @@
       </c>
       <c r="E84" s="8">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F84" s="8">
         <f>VLOOKUP(B84,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -11644,8 +11679,11 @@
       <c r="J84" s="13">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="U84" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>38</v>
       </c>
@@ -11665,7 +11703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>38</v>
       </c>
@@ -11685,7 +11723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>38</v>
       </c>
@@ -11702,7 +11740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="8" t="s">
         <v>50</v>
@@ -11716,7 +11754,7 @@
       </c>
       <c r="E88" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F88" s="8">
         <f>VLOOKUP(B88,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -11728,11 +11766,12 @@
       <c r="H88" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="14">
-        <v>42604</v>
-      </c>
+      <c r="W88" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A89" s="14"/>
       <c r="B89" s="8" t="s">
         <v>50</v>
       </c>
@@ -11761,7 +11800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>50</v>
       </c>
@@ -11774,7 +11813,7 @@
       </c>
       <c r="E90" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F90" s="8">
         <f>VLOOKUP(B90,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -11783,8 +11822,14 @@
       <c r="P90" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V90" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="W90" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>50</v>
       </c>
@@ -11797,14 +11842,17 @@
       </c>
       <c r="E91" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F91" s="8">
         <f>VLOOKUP(B91,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="W91" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>50</v>
       </c>
@@ -11821,7 +11869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>56</v>
       </c>
@@ -11841,10 +11889,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="14">
-        <v>42605</v>
-      </c>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A94" s="14"/>
       <c r="B94" s="8" t="s">
         <v>56</v>
       </c>
@@ -11867,7 +11913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>56</v>
       </c>
@@ -11887,7 +11933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>56</v>
       </c>
@@ -11924,7 +11970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>6</v>
       </c>
@@ -11944,10 +11990,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="14">
-        <v>42606</v>
-      </c>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="14"/>
       <c r="B99" s="8" t="s">
         <v>6</v>
       </c>
@@ -12024,7 +12068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>52</v>
       </c>
@@ -12044,10 +12088,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="14">
-        <v>42607</v>
-      </c>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="14"/>
       <c r="B104" s="8" t="s">
         <v>52</v>
       </c>
@@ -12124,7 +12166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>67</v>
       </c>
@@ -12144,7 +12186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>67</v>
       </c>
@@ -12221,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="8" t="s">
         <v>62</v>
@@ -12245,7 +12287,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>62</v>
       </c>
@@ -12322,7 +12364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="8" t="s">
         <v>63</v>
@@ -12346,7 +12388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>63</v>
       </c>
@@ -12423,10 +12465,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="14">
-        <v>42605</v>
-      </c>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A123" s="14"/>
       <c r="B123" s="8" t="s">
         <v>60</v>
       </c>
@@ -12449,7 +12489,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>60</v>
       </c>
@@ -12526,10 +12566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="8" t="s">
-        <v>115</v>
-      </c>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>64</v>
       </c>
@@ -12558,7 +12595,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A129" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="B129" s="8" t="s">
         <v>64</v>
       </c>
@@ -12578,7 +12618,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
         <v>64</v>
       </c>
@@ -12598,7 +12638,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>64</v>
       </c>
@@ -12618,7 +12658,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
         <v>64</v>
       </c>
@@ -12635,9 +12675,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" s="14">
-        <v>42609</v>
+        <v>42611</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>65</v>
@@ -12651,14 +12691,17 @@
       </c>
       <c r="E133" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F133" s="8">
         <f>VLOOKUP(B133,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="U133" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
         <v>65</v>
       </c>
@@ -12671,14 +12714,17 @@
       </c>
       <c r="E134" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F134" s="8">
         <f>VLOOKUP(B134,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U134" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>65</v>
       </c>
@@ -12698,7 +12744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>65</v>
       </c>
@@ -12718,7 +12764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>65</v>
       </c>
@@ -12735,7 +12781,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A138" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="B138" s="8" t="s">
         <v>87</v>
       </c>
@@ -12748,14 +12797,20 @@
       </c>
       <c r="E138" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F138" s="8">
         <f>VLOOKUP(B138,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>111</v>
       </c>
-    </row>
-    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V138" s="13">
+        <v>1</v>
+      </c>
+      <c r="W138" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>87</v>
       </c>
@@ -12775,7 +12830,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
         <v>87</v>
       </c>
@@ -12795,7 +12850,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>87</v>
       </c>
@@ -12815,7 +12870,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>87</v>
       </c>
@@ -12832,10 +12887,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E143" s="8">
         <f>SUM(G143:XFD143)</f>
-        <v>36.799999999999997</v>
+        <v>44.8</v>
       </c>
       <c r="G143" s="13">
         <f>SUM(G3:G142)</f>
@@ -12850,7 +12905,7 @@
         <v>2.5</v>
       </c>
       <c r="J143" s="13">
-        <f t="shared" ref="J143:S143" si="3">SUM(J3:J142)</f>
+        <f t="shared" ref="J143:W143" si="3">SUM(J3:J142)</f>
         <v>3.3</v>
       </c>
       <c r="K143" s="13">
@@ -12889,8 +12944,24 @@
         <f t="shared" si="3"/>
         <v>6.75</v>
       </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T143" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U143" s="13">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="V143" s="13">
+        <f t="shared" si="3"/>
+        <v>3.25</v>
+      </c>
+      <c r="W143" s="13">
+        <f t="shared" si="3"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="G144" s="13">
         <v>3</v>
       </c>
@@ -12932,12 +13003,21 @@
       </c>
       <c r="T144" s="13">
         <v>0</v>
+      </c>
+      <c r="U144" s="13">
+        <v>3</v>
+      </c>
+      <c r="V144" s="13">
+        <v>3</v>
+      </c>
+      <c r="W144" s="13">
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="5:16384" x14ac:dyDescent="0.3">
       <c r="E147" s="8">
         <f t="shared" si="2"/>
-        <v>0.79999999999999982</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="F147" s="8" t="s">
         <v>113</v>
@@ -12975,7 +13055,7 @@
         <v>-1.5</v>
       </c>
       <c r="O147" s="13">
-        <f t="shared" ref="O147:S147" si="5">O143-O144</f>
+        <f t="shared" ref="O147:U147" si="5">O143-O144</f>
         <v>-1</v>
       </c>
       <c r="P147" s="13">
@@ -12993,6 +13073,22 @@
       <c r="S147" s="13">
         <f t="shared" si="5"/>
         <v>3.75</v>
+      </c>
+      <c r="T147" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U147" s="13">
+        <f>U143-U144</f>
+        <v>-1.5</v>
+      </c>
+      <c r="V147" s="13">
+        <f>V143-V144</f>
+        <v>0.25</v>
+      </c>
+      <c r="W147" s="13">
+        <f>W143-W144</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="148" spans="5:16384" x14ac:dyDescent="0.3">
@@ -13044,21 +13140,21 @@
         <f ca="1">IF(S1&gt;$A$1,"",R148+S147)</f>
         <v>0.79999999999999982</v>
       </c>
-      <c r="T148" s="13" t="str">
+      <c r="T148" s="13">
         <f t="shared" ref="T148:CC148" ca="1" si="7">IF(T1&gt;$A$1,"",S148+T147)</f>
-        <v/>
-      </c>
-      <c r="U148" s="13" t="str">
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="U148" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="V148" s="13" t="str">
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="V148" s="13">
+        <f ca="1">IF(V1&gt;$A$1,"",U148+V147)</f>
+        <v>-0.45000000000000018</v>
+      </c>
+      <c r="W148" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="W148" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="X148" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -29599,7 +29695,7 @@
     <row r="149" spans="5:16384" x14ac:dyDescent="0.3">
       <c r="E149" s="8">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F149" s="8" t="s">
         <v>114</v>
@@ -29616,16 +29712,12 @@
       <c r="O149" s="13">
         <v>1</v>
       </c>
+      <c r="W149" s="13">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:CC144">
-    <filterColumn colId="3">
-      <filters blank="1">
-        <filter val="Practice"/>
-        <filter val="TIA Problem Video"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:CC144"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -29638,13 +29730,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:H13"/>
+  <dimension ref="D3:M23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D3">
@@ -29808,6 +29903,18 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <f>EXP(7)</f>
+        <v>1096.6331584284585</v>
+      </c>
+    </row>
+    <row r="23" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <f>EXP(0)</f>
         <v>1</v>
       </c>
     </row>

--- a/ReadingIndex.xlsx
+++ b/ReadingIndex.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="118">
   <si>
     <t>Paper</t>
   </si>
@@ -379,10 +379,7 @@
     <t>8/29-8/30</t>
   </si>
   <si>
-    <t>8/30-8/31</t>
-  </si>
-  <si>
-    <t>8/31-9/1</t>
+    <t>plan</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -478,6 +475,7 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -612,11 +610,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50727168"/>
-        <c:axId val="49364992"/>
+        <c:axId val="108131072"/>
+        <c:axId val="107250816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50727168"/>
+        <c:axId val="108131072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -626,12 +624,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49364992"/>
+        <c:crossAx val="107250816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49364992"/>
+        <c:axId val="107250816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,14 +640,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50727168"/>
+        <c:crossAx val="108131072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9486,13 +9483,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:XFD149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="U126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="S89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD149" sqref="AD149"/>
+      <selection pane="bottomRight" activeCell="AC147" sqref="AC147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9513,7 +9511,7 @@
     <row r="1" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A1" s="9">
         <f ca="1">TODAY()</f>
-        <v>42613</v>
+        <v>42616</v>
       </c>
       <c r="G1" s="11">
         <v>42597</v>
@@ -9990,7 +9988,7 @@
       <c r="CD2" s="9"/>
       <c r="CE2" s="9"/>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:83" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
@@ -10030,7 +10028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:83" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -10070,7 +10068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:83" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -10087,7 +10085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:83" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
@@ -10127,7 +10125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:83" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
@@ -10167,7 +10165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:83" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
@@ -10184,7 +10182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:83" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>58</v>
       </c>
@@ -10224,7 +10222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:83" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>58</v>
       </c>
@@ -10264,7 +10262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>58</v>
       </c>
@@ -10281,7 +10279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>66</v>
       </c>
@@ -10321,7 +10319,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>66</v>
       </c>
@@ -10361,7 +10359,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>66</v>
       </c>
@@ -10378,7 +10376,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>69</v>
       </c>
@@ -10418,7 +10416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>69</v>
       </c>
@@ -10458,7 +10456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>69</v>
       </c>
@@ -10475,7 +10473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>70</v>
       </c>
@@ -10515,7 +10513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>70</v>
       </c>
@@ -10555,7 +10553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>70</v>
       </c>
@@ -10572,7 +10570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>72</v>
       </c>
@@ -10592,7 +10590,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>72</v>
       </c>
@@ -10612,7 +10610,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>72</v>
       </c>
@@ -10632,7 +10630,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>72</v>
       </c>
@@ -10652,7 +10650,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>72</v>
       </c>
@@ -10669,7 +10667,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>48</v>
       </c>
@@ -10689,7 +10687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>48</v>
       </c>
@@ -10709,7 +10707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>48</v>
       </c>
@@ -10735,7 +10733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>48</v>
       </c>
@@ -10761,7 +10759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>48</v>
       </c>
@@ -10778,7 +10776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>35</v>
       </c>
@@ -10798,7 +10796,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>35</v>
       </c>
@@ -10818,7 +10816,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>35</v>
       </c>
@@ -10844,7 +10842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>116</v>
       </c>
@@ -10860,7 +10858,7 @@
       </c>
       <c r="E46" s="8">
         <f t="shared" si="0"/>
-        <v>3.45</v>
+        <v>5.45</v>
       </c>
       <c r="F46" s="8">
         <f>VLOOKUP(B46,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -10878,8 +10876,11 @@
       <c r="W46" s="13">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z46" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>35</v>
       </c>
@@ -10896,7 +10897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>31</v>
       </c>
@@ -10936,7 +10937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>31</v>
       </c>
@@ -10960,9 +10961,6 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="B51" s="8" t="s">
         <v>31</v>
       </c>
@@ -10982,7 +10980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>31</v>
       </c>
@@ -10999,7 +10997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="8" t="s">
         <v>40</v>
@@ -11053,7 +11051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>42613</v>
       </c>
@@ -11077,9 +11075,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
-        <v>118</v>
-      </c>
+      <c r="A56" s="10"/>
       <c r="B56" s="8" t="s">
         <v>40</v>
       </c>
@@ -11099,7 +11095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="8" t="s">
         <v>40</v>
@@ -11117,7 +11113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="8" t="s">
         <v>45</v>
@@ -11158,7 +11154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>42613</v>
       </c>
@@ -11182,9 +11178,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
-        <v>118</v>
-      </c>
+      <c r="A61" s="10"/>
       <c r="B61" s="8" t="s">
         <v>45</v>
       </c>
@@ -11204,7 +11198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>45</v>
       </c>
@@ -11221,7 +11215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>57</v>
       </c>
@@ -11261,7 +11255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>57</v>
       </c>
@@ -11301,7 +11295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>57</v>
       </c>
@@ -11318,7 +11312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>13</v>
       </c>
@@ -11362,7 +11356,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>13</v>
       </c>
@@ -11408,7 +11402,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>13</v>
       </c>
@@ -11425,7 +11419,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>27</v>
       </c>
@@ -11472,7 +11466,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>27</v>
       </c>
@@ -11515,7 +11509,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>27</v>
       </c>
@@ -11532,7 +11526,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>21</v>
       </c>
@@ -11576,7 +11570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>21</v>
       </c>
@@ -11599,7 +11593,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>21</v>
       </c>
@@ -11619,7 +11613,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>21</v>
       </c>
@@ -11636,7 +11630,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>38</v>
       </c>
@@ -11656,7 +11650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="8" t="s">
         <v>38</v>
@@ -11683,7 +11677,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>38</v>
       </c>
@@ -11696,14 +11690,17 @@
       </c>
       <c r="E85" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" s="8">
         <f>VLOOKUP(B85,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y85" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>38</v>
       </c>
@@ -11723,7 +11720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>38</v>
       </c>
@@ -11740,7 +11737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="8" t="s">
         <v>50</v>
@@ -11770,7 +11767,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="8" t="s">
         <v>50</v>
@@ -11800,7 +11797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>50</v>
       </c>
@@ -11829,7 +11826,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>50</v>
       </c>
@@ -11842,7 +11839,7 @@
       </c>
       <c r="E91" s="8">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="F91" s="8">
         <f>VLOOKUP(B91,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -11851,8 +11848,14 @@
       <c r="W91" s="13">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X91" s="13">
+        <v>1.75</v>
+      </c>
+      <c r="Y91" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>50</v>
       </c>
@@ -11869,7 +11872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>56</v>
       </c>
@@ -11889,7 +11892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
       <c r="B94" s="8" t="s">
         <v>56</v>
@@ -11913,7 +11916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>56</v>
       </c>
@@ -11933,7 +11936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>56</v>
       </c>
@@ -11953,7 +11956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>56</v>
       </c>
@@ -11970,7 +11973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>6</v>
       </c>
@@ -12011,7 +12014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>6</v>
       </c>
@@ -12051,7 +12054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>6</v>
       </c>
@@ -12068,7 +12071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>52</v>
       </c>
@@ -12109,7 +12112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>52</v>
       </c>
@@ -12149,7 +12152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>52</v>
       </c>
@@ -12166,7 +12169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>67</v>
       </c>
@@ -12206,7 +12209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>67</v>
       </c>
@@ -12246,7 +12249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>67</v>
       </c>
@@ -12263,7 +12266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="8" t="s">
         <v>62</v>
@@ -12287,7 +12290,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>62</v>
       </c>
@@ -12300,14 +12303,17 @@
       </c>
       <c r="E114" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F114" s="8">
         <f>VLOOKUP(B114,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Z114" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>62</v>
       </c>
@@ -12327,7 +12333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>62</v>
       </c>
@@ -12347,7 +12353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>62</v>
       </c>
@@ -12364,7 +12370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="8" t="s">
         <v>63</v>
@@ -12388,7 +12394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>63</v>
       </c>
@@ -12401,14 +12407,17 @@
       </c>
       <c r="E119" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F119" s="8">
         <f>VLOOKUP(B119,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Z119" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>63</v>
       </c>
@@ -12428,7 +12437,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>63</v>
       </c>
@@ -12448,7 +12457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>63</v>
       </c>
@@ -12465,7 +12474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="14"/>
       <c r="B123" s="8" t="s">
         <v>60</v>
@@ -12489,7 +12498,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>60</v>
       </c>
@@ -12502,14 +12511,17 @@
       </c>
       <c r="E124" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F124" s="8">
         <f>VLOOKUP(B124,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Z124" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>60</v>
       </c>
@@ -12529,7 +12541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>60</v>
       </c>
@@ -12549,7 +12561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>60</v>
       </c>
@@ -12566,7 +12578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>64</v>
       </c>
@@ -12595,7 +12607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A129" s="14" t="s">
         <v>116</v>
       </c>
@@ -12618,7 +12630,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
         <v>64</v>
       </c>
@@ -12638,7 +12650,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>64</v>
       </c>
@@ -12658,7 +12670,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
         <v>64</v>
       </c>
@@ -12675,7 +12687,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="14">
         <v>42611</v>
       </c>
@@ -12701,7 +12713,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
         <v>65</v>
       </c>
@@ -12724,7 +12736,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>65</v>
       </c>
@@ -12744,7 +12756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>65</v>
       </c>
@@ -12764,7 +12776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>65</v>
       </c>
@@ -12781,7 +12793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
         <v>115</v>
       </c>
@@ -12797,7 +12809,7 @@
       </c>
       <c r="E138" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="F138" s="8">
         <f>VLOOKUP(B138,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -12809,8 +12821,14 @@
       <c r="W138" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y138" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z138" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>87</v>
       </c>
@@ -12830,7 +12848,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
         <v>87</v>
       </c>
@@ -12850,7 +12868,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>87</v>
       </c>
@@ -12870,7 +12888,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>87</v>
       </c>
@@ -12887,10 +12905,14 @@
         <v>111</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D143" s="16">
+        <f>E143/COUNT(G143:XFD143)</f>
+        <v>2.7524999999999999</v>
+      </c>
       <c r="E143" s="8">
         <f>SUM(G143:XFD143)</f>
-        <v>44.8</v>
+        <v>55.05</v>
       </c>
       <c r="G143" s="13">
         <f>SUM(G3:G142)</f>
@@ -12905,7 +12927,7 @@
         <v>2.5</v>
       </c>
       <c r="J143" s="13">
-        <f t="shared" ref="J143:W143" si="3">SUM(J3:J142)</f>
+        <f t="shared" ref="J143:Z143" si="3">SUM(J3:J142)</f>
         <v>3.3</v>
       </c>
       <c r="K143" s="13">
@@ -12960,8 +12982,23 @@
         <f t="shared" si="3"/>
         <v>3.25</v>
       </c>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X143" s="13">
+        <f t="shared" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="Y143" s="13">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Z143" s="13">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D144" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="G144" s="13">
         <v>3</v>
       </c>
@@ -13011,13 +13048,22 @@
         <v>3</v>
       </c>
       <c r="W144" s="13">
+        <v>3</v>
+      </c>
+      <c r="X144" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y144" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z144" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="147" spans="5:16384" x14ac:dyDescent="0.3">
       <c r="E147" s="8">
         <f t="shared" si="2"/>
-        <v>-0.20000000000000018</v>
+        <v>1.0499999999999998</v>
       </c>
       <c r="F147" s="8" t="s">
         <v>113</v>
@@ -13055,7 +13101,7 @@
         <v>-1.5</v>
       </c>
       <c r="O147" s="13">
-        <f t="shared" ref="O147:U147" si="5">O143-O144</f>
+        <f t="shared" ref="O147:T147" si="5">O143-O144</f>
         <v>-1</v>
       </c>
       <c r="P147" s="13">
@@ -13089,6 +13135,18 @@
       <c r="W147" s="13">
         <f>W143-W144</f>
         <v>0.25</v>
+      </c>
+      <c r="X147" s="13">
+        <f>X143-X144</f>
+        <v>-1.25</v>
+      </c>
+      <c r="Y147" s="13">
+        <f>Y143-Y144</f>
+        <v>0</v>
+      </c>
+      <c r="Z147" s="13">
+        <f>Z143-Z144</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="148" spans="5:16384" x14ac:dyDescent="0.3">
@@ -13156,17 +13214,17 @@
         <f t="shared" ca="1" si="7"/>
         <v>-0.20000000000000018</v>
       </c>
-      <c r="X148" s="13" t="str">
+      <c r="X148" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="Y148" s="13" t="str">
+        <v>-1.4500000000000002</v>
+      </c>
+      <c r="Y148" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="Z148" s="13" t="str">
+        <v>-1.4500000000000002</v>
+      </c>
+      <c r="Z148" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>1.0499999999999998</v>
       </c>
       <c r="AA148" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -29717,7 +29775,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:CC144"/>
+  <autoFilter ref="A2:CC144">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="plan"/>
+        <filter val="Practice"/>
+        <filter val="TIA Video"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/ReadingIndex.xlsx
+++ b/ReadingIndex.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7524" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7524" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="12" r:id="rId7"/>
+    <pivotCache cacheId="25" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="152">
   <si>
     <t>Paper</t>
   </si>
@@ -499,7 +499,7 @@
     <numFmt numFmtId="165" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -546,6 +546,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -617,7 +624,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -695,6 +702,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -830,11 +838,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188185984"/>
-        <c:axId val="188212352"/>
+        <c:axId val="183294592"/>
+        <c:axId val="184042240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188185984"/>
+        <c:axId val="183294592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,12 +852,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188212352"/>
+        <c:crossAx val="184042240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188212352"/>
+        <c:axId val="184042240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,7 +868,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188185984"/>
+        <c:crossAx val="183294592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -966,7 +974,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Li, Lingxiao" refreshedDate="42632.953075578705" createdVersion="3" refreshedVersion="4" minRefreshableVersion="3" recordCount="140">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Li, Lingxiao" refreshedDate="42647.874201041668" createdVersion="3" refreshedVersion="4" minRefreshableVersion="3" recordCount="140">
   <cacheSource type="worksheet">
     <worksheetSource ref="B2:F142" sheet="Schedule_Updated"/>
   </cacheSource>
@@ -1031,16 +1039,17 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Review Method" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
+      <sharedItems containsBlank="1" count="6">
         <s v="Source "/>
         <s v="TIA Video"/>
         <s v="TIA Problem Video"/>
         <s v="Practice"/>
-        <m/>
+        <s v="Review"/>
+        <m u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Total Hours" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="6.75"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="10.08333333"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2225,7 +2234,7 @@
     <x v="4"/>
     <x v="4"/>
     <x v="3"/>
-    <n v="0"/>
+    <n v="0.25"/>
   </r>
   <r>
     <x v="0"/>
@@ -2239,14 +2248,14 @@
     <x v="5"/>
     <x v="5"/>
     <x v="0"/>
-    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
     <x v="5"/>
     <x v="1"/>
-    <n v="0"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="0"/>
@@ -2260,14 +2269,14 @@
     <x v="5"/>
     <x v="5"/>
     <x v="3"/>
-    <n v="0"/>
+    <n v="1.25"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
     <x v="5"/>
     <x v="4"/>
-    <n v="0"/>
+    <n v="2.75"/>
   </r>
   <r>
     <x v="0"/>
@@ -2337,7 +2346,7 @@
     <x v="7"/>
     <x v="7"/>
     <x v="4"/>
-    <n v="0"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="1"/>
@@ -2372,7 +2381,7 @@
     <x v="8"/>
     <x v="7"/>
     <x v="4"/>
-    <n v="0"/>
+    <n v="2.666666666666667"/>
   </r>
   <r>
     <x v="1"/>
@@ -2407,7 +2416,7 @@
     <x v="9"/>
     <x v="7"/>
     <x v="4"/>
-    <n v="0"/>
+    <n v="0.66666666666666663"/>
   </r>
   <r>
     <x v="1"/>
@@ -2442,7 +2451,7 @@
     <x v="10"/>
     <x v="7"/>
     <x v="4"/>
-    <n v="0"/>
+    <n v="3"/>
   </r>
   <r>
     <x v="1"/>
@@ -2477,14 +2486,14 @@
     <x v="11"/>
     <x v="7"/>
     <x v="4"/>
-    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="1"/>
     <x v="12"/>
     <x v="7"/>
     <x v="0"/>
-    <n v="0"/>
+    <n v="1.5"/>
   </r>
   <r>
     <x v="1"/>
@@ -2505,7 +2514,7 @@
     <x v="12"/>
     <x v="7"/>
     <x v="3"/>
-    <n v="0"/>
+    <n v="1.5"/>
   </r>
   <r>
     <x v="1"/>
@@ -2547,7 +2556,7 @@
     <x v="13"/>
     <x v="8"/>
     <x v="4"/>
-    <n v="0"/>
+    <n v="1.6666666666666701"/>
   </r>
   <r>
     <x v="1"/>
@@ -2582,7 +2591,7 @@
     <x v="14"/>
     <x v="8"/>
     <x v="4"/>
-    <n v="0"/>
+    <n v="2.5"/>
   </r>
   <r>
     <x v="1"/>
@@ -2617,7 +2626,7 @@
     <x v="15"/>
     <x v="9"/>
     <x v="4"/>
-    <n v="0"/>
+    <n v="1.5"/>
   </r>
   <r>
     <x v="1"/>
@@ -2652,7 +2661,7 @@
     <x v="16"/>
     <x v="9"/>
     <x v="4"/>
-    <n v="0"/>
+    <n v="1.5"/>
   </r>
   <r>
     <x v="1"/>
@@ -2694,7 +2703,7 @@
     <x v="18"/>
     <x v="10"/>
     <x v="0"/>
-    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -2715,14 +2724,14 @@
     <x v="18"/>
     <x v="10"/>
     <x v="3"/>
-    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="1"/>
     <x v="18"/>
     <x v="10"/>
     <x v="4"/>
-    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -2960,7 +2969,7 @@
     <x v="25"/>
     <x v="13"/>
     <x v="3"/>
-    <n v="1.5"/>
+    <n v="10.08333333"/>
   </r>
   <r>
     <x v="2"/>
@@ -3043,8 +3052,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="U3:V21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="V3:W21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
       <items count="18">
@@ -3144,7 +3153,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -3209,11 +3218,12 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="6">
+      <items count="7">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item m="1" x="5"/>
         <item x="4"/>
         <item t="default"/>
       </items>
@@ -3304,7 +3314,7 @@
       <x v="3"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -7260,89 +7270,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AQ64"/>
+  <dimension ref="A2:AR64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.33203125" customWidth="1"/>
-    <col min="22" max="22" width="16.33203125" customWidth="1"/>
-    <col min="23" max="23" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.109375" style="3"/>
-    <col min="40" max="40" width="9.109375" style="3"/>
+    <col min="13" max="13" width="6.5546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.33203125" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" customWidth="1"/>
+    <col min="24" max="24" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.109375" style="3"/>
+    <col min="41" max="41" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AL2" s="3"/>
-      <c r="AN2" s="36">
-        <f>ROUND((AI17+5)/AL17,2)</f>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AM2" s="3"/>
+      <c r="AO2" s="36">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>117</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="V3" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>121</v>
       </c>
-      <c r="AD3" s="31" t="s">
+      <c r="AE3" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="AE3" s="25"/>
       <c r="AF3" s="25"/>
       <c r="AG3" s="25"/>
       <c r="AH3" s="25"/>
       <c r="AI3" s="25"/>
-      <c r="AK3" s="6" t="s">
+      <c r="AJ3" s="25"/>
+      <c r="AL3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="34">
-        <f>ROUND((AI17+5)/AJ17,2)</f>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="34">
+        <f>ROUND((AJ17+5)/AK17,2)</f>
         <v>0.2</v>
       </c>
-      <c r="AN3" s="3">
+      <c r="AO3" s="3">
         <v>0.12</v>
       </c>
-      <c r="AO3">
-        <f>ROUND((AI13+8)/AJ13,2)</f>
+      <c r="AP3">
+        <f>ROUND((AJ13+8)/AK13,2)</f>
         <v>0.27</v>
       </c>
-      <c r="AP3" s="36">
-        <f>ROUND((AI13+6)/AL13,2)</f>
+      <c r="AQ3" s="36">
+        <f>ROUND((AJ13+6)/AM13,2)</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>128</v>
       </c>
@@ -7359,7 +7368,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>130</v>
@@ -7367,40 +7376,37 @@
       <c r="I4" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="N4" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="O4" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="P4" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="Q4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="V4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="22">
+      <c r="W4" s="22">
         <v>16</v>
       </c>
-      <c r="X4" s="28" t="s">
+      <c r="Y4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="29">
+      <c r="Z4" s="29">
         <v>16</v>
       </c>
-      <c r="Z4" s="3">
-        <f>Y4/$Y$21*140</f>
+      <c r="AA4" s="3">
+        <f>Z4/$Z$21*140</f>
         <v>3.0642954856361149</v>
       </c>
-      <c r="AD4" s="32" t="s">
+      <c r="AE4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AE4" s="33">
-        <v>0</v>
-      </c>
       <c r="AF4" s="33">
         <v>0</v>
       </c>
@@ -7413,39 +7419,42 @@
       <c r="AI4" s="33">
         <v>0</v>
       </c>
-      <c r="AJ4">
-        <f>VLOOKUP(AD4,$X$4:$Y$19,2,FALSE)</f>
+      <c r="AJ4" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <f>VLOOKUP(AE4,$Y$4:$Z$19,2,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="AK4" s="33">
+      <c r="AL4" s="33">
         <v>1</v>
       </c>
-      <c r="AL4" s="33">
-        <f>AJ4*AK4</f>
+      <c r="AM4" s="33">
+        <f>AK4*AL4</f>
         <v>16</v>
       </c>
-      <c r="AM4" s="35">
-        <f>AM$3*$AJ4-$AI4</f>
+      <c r="AN4" s="35">
+        <f>AN$3*$AK4-$AJ4</f>
         <v>3.2</v>
       </c>
-      <c r="AN4" s="37">
-        <f>AN$3*$AL4-$AI4</f>
+      <c r="AO4" s="37">
+        <f>AO$3*$AM4-$AJ4</f>
         <v>1.92</v>
       </c>
-      <c r="AO4" s="35">
-        <f>AO$3*$AJ4-$AI4</f>
+      <c r="AP4" s="35">
+        <f>AP$3*$AK4-$AJ4</f>
         <v>4.32</v>
       </c>
-      <c r="AP4" s="37">
-        <f t="shared" ref="AP4:AP21" si="0">AP$3*$AL4-$AI4</f>
+      <c r="AQ4" s="37">
+        <f t="shared" ref="AQ4:AQ21" si="0">AQ$3*$AM4-$AJ4</f>
         <v>1.92</v>
       </c>
-      <c r="AQ4" s="38">
-        <f t="shared" ref="AQ4:AQ22" si="1">AN4+AI4</f>
+      <c r="AR4" s="38">
+        <f t="shared" ref="AR4:AR22" si="1">AO4+AJ4</f>
         <v>1.92</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>119</v>
       </c>
@@ -7455,9 +7464,6 @@
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
-      <c r="M5" s="25">
-        <v>0</v>
-      </c>
       <c r="N5" s="25">
         <v>0</v>
       </c>
@@ -7467,28 +7473,28 @@
       <c r="P5" s="25">
         <v>0</v>
       </c>
-      <c r="U5" s="21" t="s">
+      <c r="Q5" s="25">
+        <v>0</v>
+      </c>
+      <c r="V5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="22">
+      <c r="W5" s="22">
         <v>6</v>
       </c>
-      <c r="X5" s="28" t="s">
+      <c r="Y5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Y5" s="29">
+      <c r="Z5" s="29">
         <v>6</v>
       </c>
-      <c r="Z5" s="3">
-        <f t="shared" ref="Z5:Z21" si="2">Y5/$Y$21*140</f>
+      <c r="AA5" s="3">
+        <f t="shared" ref="AA5:AA21" si="2">Z5/$Z$21*140</f>
         <v>1.149110807113543</v>
       </c>
-      <c r="AD5" s="32" t="s">
+      <c r="AE5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="AE5" s="33">
-        <v>0</v>
-      </c>
       <c r="AF5" s="33">
         <v>0</v>
       </c>
@@ -7501,39 +7507,42 @@
       <c r="AI5" s="33">
         <v>0</v>
       </c>
-      <c r="AJ5" s="3">
-        <f t="shared" ref="AJ5:AJ21" si="3">VLOOKUP(AD5,$X$4:$Y$19,2,FALSE)</f>
+      <c r="AJ5" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="3">
+        <f t="shared" ref="AK5:AK21" si="3">VLOOKUP(AE5,$Y$4:$Z$19,2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="AK5" s="33">
+      <c r="AL5" s="33">
         <v>4</v>
       </c>
-      <c r="AL5" s="33">
-        <f t="shared" ref="AL5:AL22" si="4">AJ5*AK5</f>
+      <c r="AM5" s="33">
+        <f t="shared" ref="AM5:AM22" si="4">AK5*AL5</f>
         <v>24</v>
       </c>
-      <c r="AM5" s="35">
-        <f t="shared" ref="AM5:AO21" si="5">AM$3*$AJ5-$AI5</f>
+      <c r="AN5" s="35">
+        <f t="shared" ref="AN5:AP21" si="5">AN$3*$AK5-$AJ5</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="AN5" s="37">
-        <f t="shared" ref="AN5:AN21" si="6">AN$3*$AL5-$AI5</f>
+      <c r="AO5" s="37">
+        <f t="shared" ref="AO5:AO21" si="6">AO$3*$AM5-$AJ5</f>
         <v>2.88</v>
       </c>
-      <c r="AO5" s="35">
+      <c r="AP5" s="35">
         <f t="shared" si="5"/>
         <v>1.62</v>
       </c>
-      <c r="AP5" s="37">
+      <c r="AQ5" s="37">
         <f t="shared" si="0"/>
         <v>2.88</v>
       </c>
-      <c r="AQ5" s="38">
+      <c r="AR5" s="38">
         <f t="shared" si="1"/>
         <v>2.88</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>12</v>
       </c>
@@ -7563,44 +7572,40 @@
         <f t="shared" ref="J6:J13" si="7">I6-G6</f>
         <v>1.92</v>
       </c>
-      <c r="L6">
-        <f t="shared" ref="L6:L12" si="8">I6/5</f>
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="M6" s="25">
+      <c r="L6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="25">
         <v>10.55</v>
       </c>
-      <c r="N6" s="25">
+      <c r="O6" s="25">
         <v>10.75</v>
       </c>
-      <c r="O6" s="25">
+      <c r="P6" s="25">
         <v>11.05</v>
       </c>
-      <c r="P6" s="25">
+      <c r="Q6" s="25">
         <v>11.95</v>
       </c>
-      <c r="U6" s="21" t="s">
+      <c r="V6" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="V6" s="22">
+      <c r="W6" s="22">
         <v>3</v>
       </c>
-      <c r="X6" s="28" t="s">
+      <c r="Y6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="Y6" s="29">
+      <c r="Z6" s="29">
         <v>3</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="AA6" s="3">
         <f t="shared" si="2"/>
         <v>0.57455540355677148</v>
       </c>
-      <c r="AD6" s="32" t="s">
+      <c r="AE6" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="AE6" s="33">
-        <v>0</v>
-      </c>
       <c r="AF6" s="33">
         <v>0</v>
       </c>
@@ -7613,39 +7618,42 @@
       <c r="AI6" s="33">
         <v>0</v>
       </c>
-      <c r="AJ6" s="3">
+      <c r="AJ6" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="3">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AK6" s="33">
+      <c r="AL6" s="33">
         <v>4</v>
       </c>
-      <c r="AL6" s="33">
+      <c r="AM6" s="33">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="AM6" s="35">
+      <c r="AN6" s="35">
         <f t="shared" si="5"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="AN6" s="37">
+      <c r="AO6" s="37">
         <f t="shared" si="6"/>
         <v>1.44</v>
       </c>
-      <c r="AO6" s="35">
+      <c r="AP6" s="35">
         <f t="shared" si="5"/>
         <v>0.81</v>
       </c>
-      <c r="AP6" s="37">
+      <c r="AQ6" s="37">
         <f t="shared" si="0"/>
         <v>1.44</v>
       </c>
-      <c r="AQ6" s="38">
+      <c r="AR6" s="38">
         <f t="shared" si="1"/>
         <v>1.44</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>24</v>
       </c>
@@ -7676,43 +7684,39 @@
         <v>1.0466666666666666</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="8"/>
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="M7" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="N7" s="26">
         <v>10.75</v>
       </c>
-      <c r="N7" s="26">
+      <c r="O7" s="26">
         <v>0.5</v>
       </c>
-      <c r="O7" s="26">
-        <v>0</v>
-      </c>
       <c r="P7" s="26">
         <v>0</v>
       </c>
-      <c r="U7" s="21" t="s">
+      <c r="Q7" s="26">
+        <v>0</v>
+      </c>
+      <c r="V7" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="V7" s="22">
+      <c r="W7" s="22">
         <v>13</v>
       </c>
-      <c r="X7" s="28" t="s">
+      <c r="Y7" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="Y7" s="29">
+      <c r="Z7" s="29">
         <v>13</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="AA7" s="3">
         <f t="shared" si="2"/>
         <v>2.4897400820793432</v>
       </c>
-      <c r="AD7" s="32" t="s">
+      <c r="AE7" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="AE7" s="33">
-        <v>0</v>
-      </c>
       <c r="AF7" s="33">
         <v>0</v>
       </c>
@@ -7725,39 +7729,42 @@
       <c r="AI7" s="33">
         <v>0</v>
       </c>
-      <c r="AJ7" s="3">
+      <c r="AJ7" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="3">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="AK7" s="33">
+      <c r="AL7" s="33">
         <v>6</v>
       </c>
-      <c r="AL7" s="33">
-        <f>AJ7*AK7</f>
+      <c r="AM7" s="33">
+        <f>AK7*AL7</f>
         <v>78</v>
       </c>
-      <c r="AM7" s="35">
+      <c r="AN7" s="35">
         <f t="shared" si="5"/>
         <v>2.6</v>
       </c>
-      <c r="AN7" s="37">
+      <c r="AO7" s="37">
         <f t="shared" si="6"/>
         <v>9.36</v>
       </c>
-      <c r="AO7" s="35">
+      <c r="AP7" s="35">
         <f t="shared" si="5"/>
         <v>3.5100000000000002</v>
       </c>
-      <c r="AP7" s="37">
+      <c r="AQ7" s="37">
         <f t="shared" si="0"/>
         <v>9.36</v>
       </c>
-      <c r="AQ7" s="38">
+      <c r="AR7" s="38">
         <f t="shared" si="1"/>
         <v>9.36</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>58</v>
       </c>
@@ -7788,43 +7795,39 @@
         <v>0.43999999999999995</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="8"/>
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="M8" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="N8" s="27">
         <v>21.3</v>
       </c>
-      <c r="N8" s="27">
+      <c r="O8" s="27">
         <v>11.25</v>
       </c>
-      <c r="O8" s="27">
+      <c r="P8" s="27">
         <v>11.05</v>
       </c>
-      <c r="P8" s="27">
+      <c r="Q8" s="27">
         <v>11.95</v>
       </c>
-      <c r="U8" s="21" t="s">
+      <c r="V8" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="V8" s="22">
+      <c r="W8" s="22">
         <v>49</v>
       </c>
-      <c r="X8" s="28" t="s">
+      <c r="Y8" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="Y8" s="29">
+      <c r="Z8" s="29">
         <v>49</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <f t="shared" si="2"/>
         <v>9.3844049247606023</v>
       </c>
-      <c r="AD8" s="32" t="s">
+      <c r="AE8" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AE8" s="33">
-        <v>0</v>
-      </c>
       <c r="AF8" s="33">
         <v>0</v>
       </c>
@@ -7837,59 +7840,62 @@
       <c r="AI8" s="33">
         <v>0</v>
       </c>
-      <c r="AJ8" s="3">
+      <c r="AJ8" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="3">
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
-      <c r="AK8" s="33">
+      <c r="AL8" s="33">
         <v>2</v>
       </c>
-      <c r="AL8" s="33">
-        <f>AJ8*AK8-40</f>
+      <c r="AM8" s="33">
+        <f>AK8*AL8-40</f>
         <v>124</v>
       </c>
-      <c r="AM8" s="35">
+      <c r="AN8" s="35">
         <f t="shared" si="5"/>
         <v>16.400000000000002</v>
       </c>
-      <c r="AN8" s="37">
+      <c r="AO8" s="37">
         <f t="shared" si="6"/>
         <v>14.879999999999999</v>
       </c>
-      <c r="AO8" s="35">
+      <c r="AP8" s="35">
         <f t="shared" si="5"/>
         <v>22.14</v>
       </c>
-      <c r="AP8" s="37">
+      <c r="AQ8" s="37">
         <f t="shared" si="0"/>
         <v>14.879999999999999</v>
       </c>
-      <c r="AQ8" s="38">
+      <c r="AR8" s="38">
         <f t="shared" si="1"/>
         <v>14.879999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="22">
         <v>0</v>
       </c>
       <c r="E9" s="22">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="F9" s="22">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="G9" s="22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I9" s="3">
         <f>'Updated Planning'!F31</f>
@@ -7897,50 +7903,46 @@
       </c>
       <c r="J9" s="40">
         <f t="shared" si="7"/>
-        <v>9.36</v>
+        <v>2.3599999999999994</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="8"/>
-        <v>1.8719999999999999</v>
-      </c>
-      <c r="M9">
-        <f>M8/GETPIVOTDATA("Total Hours",$A$3)</f>
-        <v>0.22099256441293449</v>
-      </c>
-      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <f>N8/GETPIVOTDATA("Total Hours",$A$3)</f>
-        <v>0.11672142486598652</v>
+        <v>0.15810961277144894</v>
       </c>
       <c r="O9" s="3">
         <f>O8/GETPIVOTDATA("Total Hours",$A$3)</f>
-        <v>0.11464637731281344</v>
+        <v>8.3508598294779371E-2</v>
       </c>
       <c r="P9" s="3">
         <f>P8/GETPIVOTDATA("Total Hours",$A$3)</f>
-        <v>0.12398409130209234</v>
-      </c>
-      <c r="U9" s="21" t="s">
+        <v>8.2024000991761076E-2</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>Q8/GETPIVOTDATA("Total Hours",$A$3)</f>
+        <v>8.8704688855343425E-2</v>
+      </c>
+      <c r="V9" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="V9" s="22">
+      <c r="W9" s="22">
         <v>13</v>
       </c>
-      <c r="X9" s="28" t="s">
+      <c r="Y9" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="Y9" s="29">
+      <c r="Z9" s="29">
         <v>13</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <f t="shared" si="2"/>
         <v>2.4897400820793432</v>
       </c>
-      <c r="AD9" s="32" t="s">
+      <c r="AE9" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AE9" s="33">
-        <v>0</v>
-      </c>
       <c r="AF9" s="33">
         <v>0</v>
       </c>
@@ -7953,39 +7955,42 @@
       <c r="AI9" s="33">
         <v>0</v>
       </c>
-      <c r="AJ9" s="3">
+      <c r="AJ9" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="AK9" s="33">
+      <c r="AL9" s="33">
         <v>1</v>
       </c>
-      <c r="AL9" s="33">
+      <c r="AM9" s="33">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="AM9" s="35">
+      <c r="AN9" s="35">
         <f t="shared" si="5"/>
         <v>11.600000000000001</v>
       </c>
-      <c r="AN9" s="37">
+      <c r="AO9" s="37">
         <f t="shared" si="6"/>
         <v>6.96</v>
       </c>
-      <c r="AO9" s="35">
+      <c r="AP9" s="35">
         <f t="shared" si="5"/>
         <v>15.66</v>
       </c>
-      <c r="AP9" s="37">
+      <c r="AQ9" s="37">
         <f t="shared" si="0"/>
         <v>6.96</v>
       </c>
-      <c r="AQ9" s="38">
+      <c r="AR9" s="38">
         <f t="shared" si="1"/>
         <v>6.96</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>72</v>
       </c>
@@ -8016,47 +8021,43 @@
         <v>14.879999999999999</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="8"/>
-        <v>2.976</v>
-      </c>
-      <c r="M10">
-        <f>M9/$P$9</f>
-        <v>1.7824267782426781</v>
-      </c>
-      <c r="N10" s="3">
-        <f>N9/$P$9</f>
-        <v>0.94142259414225948</v>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f>N9/$Q$9</f>
+        <v>1.7824267782426777</v>
       </c>
       <c r="O10" s="3">
-        <f>O9/$P$9</f>
-        <v>0.92468619246861938</v>
+        <f>O9/$Q$9</f>
+        <v>0.94142259414225937</v>
       </c>
       <c r="P10" s="3">
-        <f>P9/$P$9</f>
+        <f>P9/$Q$9</f>
+        <v>0.92468619246861927</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>Q9/$Q$9</f>
         <v>1</v>
       </c>
-      <c r="U10" s="21" t="s">
+      <c r="V10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="22">
+      <c r="W10" s="22">
         <v>57</v>
       </c>
-      <c r="X10" s="28" t="s">
+      <c r="Y10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="Y10" s="29">
+      <c r="Z10" s="29">
         <v>57</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <f t="shared" si="2"/>
         <v>10.916552667578658</v>
       </c>
-      <c r="AD10" s="32" t="s">
+      <c r="AE10" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="AE10" s="33">
-        <v>0</v>
-      </c>
       <c r="AF10" s="33">
         <v>0</v>
       </c>
@@ -8069,39 +8070,42 @@
       <c r="AI10" s="33">
         <v>0</v>
       </c>
-      <c r="AJ10" s="3">
+      <c r="AJ10" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="3">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="AK10" s="33">
+      <c r="AL10" s="33">
         <v>3</v>
       </c>
-      <c r="AL10" s="33">
+      <c r="AM10" s="33">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="AM10" s="35">
+      <c r="AN10" s="35">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="AN10" s="37">
+      <c r="AO10" s="37">
         <f t="shared" si="6"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="AO10" s="35">
+      <c r="AP10" s="35">
         <f t="shared" si="5"/>
         <v>5.4</v>
       </c>
-      <c r="AP10" s="37">
+      <c r="AQ10" s="37">
         <f t="shared" si="0"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="AQ10" s="38">
+      <c r="AR10" s="38">
         <f t="shared" si="1"/>
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>66</v>
       </c>
@@ -8132,60 +8136,59 @@
         <v>6.1266666666666669</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="8"/>
-        <v>1.3919999999999999</v>
-      </c>
-      <c r="U11" s="21" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="V11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="V11" s="22">
+      <c r="W11" s="22">
         <v>77</v>
       </c>
-      <c r="X11" s="28" t="s">
+      <c r="Y11" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="29">
+      <c r="Z11" s="29">
         <v>77</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="AA11" s="3">
         <f t="shared" si="2"/>
         <v>14.746922024623803</v>
       </c>
-      <c r="AD11" s="31" t="s">
+      <c r="AE11" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="AE11" s="25"/>
       <c r="AF11" s="25"/>
       <c r="AG11" s="25"/>
       <c r="AH11" s="25"/>
       <c r="AI11" s="25"/>
-      <c r="AJ11" s="3"/>
-      <c r="AL11" s="33">
+      <c r="AJ11" s="25"/>
+      <c r="AK11" s="3"/>
+      <c r="AM11" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AM11" s="35">
+      <c r="AN11" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN11" s="37">
+      <c r="AO11" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AO11" s="35">
+      <c r="AP11" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AP11" s="37">
+      <c r="AQ11" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AQ11" s="38">
+      <c r="AR11" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>69</v>
       </c>
@@ -8199,13 +8202,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="22">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F12" s="22">
         <v>0</v>
       </c>
       <c r="G12" s="22">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="I12" s="3">
         <f>'Updated Planning'!F34</f>
@@ -8213,79 +8216,78 @@
       </c>
       <c r="J12" s="40">
         <f t="shared" si="7"/>
-        <v>5.1999999999999993</v>
+        <v>4.9499999999999993</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="8"/>
-        <v>1.44</v>
-      </c>
-      <c r="U12" s="21" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="V12" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="V12" s="22">
+      <c r="W12" s="22">
         <v>20</v>
       </c>
-      <c r="X12" s="28" t="s">
+      <c r="Y12" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="Y12" s="29">
+      <c r="Z12" s="29">
         <v>20</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <f t="shared" si="2"/>
         <v>3.8303693570451438</v>
       </c>
-      <c r="AD12" s="32" t="s">
+      <c r="AE12" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AE12" s="33">
-        <v>0</v>
-      </c>
       <c r="AF12" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="33">
         <v>2.5</v>
       </c>
-      <c r="AG12" s="33">
+      <c r="AH12" s="33">
         <v>3.5</v>
       </c>
-      <c r="AH12" s="33">
-        <v>0</v>
-      </c>
       <c r="AI12" s="33">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="33">
         <v>6</v>
       </c>
-      <c r="AJ12" s="3">
+      <c r="AK12" s="3">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="AK12" s="33">
+      <c r="AL12" s="33">
         <v>2</v>
       </c>
-      <c r="AL12" s="33">
+      <c r="AM12" s="33">
         <f t="shared" si="4"/>
         <v>114</v>
       </c>
-      <c r="AM12" s="35">
+      <c r="AN12" s="35">
         <f t="shared" si="5"/>
         <v>5.4</v>
       </c>
-      <c r="AN12" s="37">
+      <c r="AO12" s="37">
         <f t="shared" si="6"/>
         <v>7.68</v>
       </c>
-      <c r="AO12" s="35">
+      <c r="AP12" s="35">
         <f t="shared" si="5"/>
         <v>9.39</v>
       </c>
-      <c r="AP12" s="37">
+      <c r="AQ12" s="37">
         <f t="shared" si="0"/>
         <v>7.68</v>
       </c>
-      <c r="AQ12" s="38">
+      <c r="AR12" s="38">
         <f t="shared" si="1"/>
         <v>13.68</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>88</v>
       </c>
@@ -8303,73 +8305,74 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U13" s="21" t="s">
+      <c r="L13" s="3"/>
+      <c r="V13" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="V13" s="22">
+      <c r="W13" s="22">
         <v>82</v>
       </c>
-      <c r="X13" s="28" t="s">
+      <c r="Y13" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="Y13" s="29">
+      <c r="Z13" s="29">
         <v>82</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="AA13" s="3">
         <f t="shared" si="2"/>
         <v>15.704514363885089</v>
       </c>
-      <c r="AD13" s="32" t="s">
+      <c r="AE13" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AE13" s="33">
+      <c r="AF13" s="33">
         <v>2.5</v>
       </c>
-      <c r="AF13" s="33">
+      <c r="AG13" s="33">
         <v>4.5</v>
-      </c>
-      <c r="AG13" s="33">
-        <v>3</v>
       </c>
       <c r="AH13" s="33">
         <v>3</v>
       </c>
       <c r="AI13" s="33">
+        <v>3</v>
+      </c>
+      <c r="AJ13" s="33">
         <v>13</v>
       </c>
-      <c r="AJ13" s="3">
+      <c r="AK13" s="3">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="AK13" s="33">
+      <c r="AL13" s="33">
         <v>2</v>
       </c>
-      <c r="AL13" s="33">
+      <c r="AM13" s="33">
         <f t="shared" si="4"/>
         <v>154</v>
       </c>
-      <c r="AM13" s="35">
+      <c r="AN13" s="35">
         <f t="shared" si="5"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="AN13" s="37">
+      <c r="AO13" s="37">
         <f t="shared" si="6"/>
         <v>5.48</v>
       </c>
-      <c r="AO13" s="35">
+      <c r="AP13" s="35">
         <f t="shared" si="5"/>
         <v>7.7900000000000027</v>
       </c>
-      <c r="AP13" s="37">
+      <c r="AQ13" s="37">
         <f t="shared" si="0"/>
         <v>5.48</v>
       </c>
-      <c r="AQ13" s="38">
+      <c r="AR13" s="38">
         <f t="shared" si="1"/>
         <v>18.48</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>15</v>
       </c>
@@ -8386,10 +8389,10 @@
         <v>2.25</v>
       </c>
       <c r="F14" s="22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="22">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="I14" s="3">
         <f>'Updated Planning'!F36</f>
@@ -8397,37 +8400,33 @@
       </c>
       <c r="J14" s="40">
         <f>I14-G14</f>
-        <v>7.18</v>
+        <v>4.18</v>
       </c>
       <c r="K14" t="s">
         <v>133</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" ref="L14:L19" si="9">I14/5</f>
-        <v>2.7359999999999998</v>
-      </c>
-      <c r="U14" s="21" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="V14" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="V14" s="22">
+      <c r="W14" s="22">
         <v>111</v>
       </c>
-      <c r="X14" s="28" t="s">
+      <c r="Y14" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="Y14" s="29">
+      <c r="Z14" s="29">
         <v>111</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <f t="shared" si="2"/>
         <v>21.258549931600548</v>
       </c>
-      <c r="AD14" s="32" t="s">
+      <c r="AE14" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="AE14" s="33">
-        <v>0</v>
-      </c>
       <c r="AF14" s="33">
         <v>0</v>
       </c>
@@ -8440,44 +8439,47 @@
       <c r="AI14" s="33">
         <v>0</v>
       </c>
-      <c r="AJ14" s="3">
+      <c r="AJ14" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="3">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="AK14" s="33">
+      <c r="AL14" s="33">
         <v>3</v>
       </c>
-      <c r="AL14" s="33">
+      <c r="AM14" s="33">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="AM14" s="35">
+      <c r="AN14" s="35">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="AN14" s="37">
+      <c r="AO14" s="37">
         <f t="shared" si="6"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="AO14" s="35">
+      <c r="AP14" s="35">
         <f t="shared" si="5"/>
         <v>5.4</v>
       </c>
-      <c r="AP14" s="37">
+      <c r="AQ14" s="37">
         <f t="shared" si="0"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="AQ14" s="38">
+      <c r="AR14" s="38">
         <f t="shared" si="1"/>
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="22">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="C15" s="22">
         <v>4.5</v>
@@ -8486,96 +8488,95 @@
         <v>3</v>
       </c>
       <c r="E15" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="22">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I15" s="3">
         <f>'Updated Planning'!F37</f>
         <v>18.48</v>
       </c>
       <c r="J15" s="40">
-        <f t="shared" ref="J15:J24" si="10">I15-G15</f>
-        <v>4.4800000000000004</v>
+        <f t="shared" ref="J15:J24" si="8">I15-G15</f>
+        <v>1.4800000000000004</v>
       </c>
       <c r="K15" t="s">
         <v>135</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6960000000000002</v>
-      </c>
-      <c r="U15" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="V15" s="22">
+      <c r="W15" s="22">
         <v>44</v>
       </c>
-      <c r="X15" s="28" t="s">
+      <c r="Y15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="Y15" s="29">
+      <c r="Z15" s="29">
         <v>44</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <f t="shared" si="2"/>
         <v>8.4268125854993166</v>
       </c>
-      <c r="AD15" s="32" t="s">
+      <c r="AE15" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AE15" s="33">
-        <v>0</v>
-      </c>
       <c r="AF15" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="33">
         <v>1</v>
       </c>
-      <c r="AG15" s="33">
+      <c r="AH15" s="33">
         <v>1.5</v>
       </c>
-      <c r="AH15" s="33">
-        <v>0</v>
-      </c>
       <c r="AI15" s="33">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="33">
         <v>2.5</v>
       </c>
-      <c r="AJ15" s="3">
+      <c r="AK15" s="3">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="AK15" s="33">
+      <c r="AL15" s="33">
         <v>2</v>
       </c>
-      <c r="AL15" s="33">
+      <c r="AM15" s="33">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="AM15" s="35">
+      <c r="AN15" s="35">
         <f t="shared" si="5"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="AN15" s="37">
+      <c r="AO15" s="37">
         <f t="shared" si="6"/>
         <v>8.0599999999999987</v>
       </c>
-      <c r="AO15" s="35">
+      <c r="AP15" s="35">
         <f t="shared" si="5"/>
         <v>9.3800000000000008</v>
       </c>
-      <c r="AP15" s="37">
+      <c r="AQ15" s="37">
         <f t="shared" si="0"/>
         <v>8.0599999999999987</v>
       </c>
-      <c r="AQ15" s="38">
+      <c r="AR15" s="38">
         <f t="shared" si="1"/>
         <v>10.559999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>68</v>
       </c>
@@ -8602,83 +8603,82 @@
         <v>7.1999999999999993</v>
       </c>
       <c r="J16" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="K16" t="s">
         <v>67</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="9"/>
-        <v>1.44</v>
-      </c>
-      <c r="U16" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="V16" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="V16" s="22">
+      <c r="W16" s="22">
         <v>50</v>
       </c>
-      <c r="X16" s="28" t="s">
+      <c r="Y16" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="Y16" s="29">
+      <c r="Z16" s="29">
         <v>50</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="AA16" s="3">
         <f t="shared" si="2"/>
         <v>9.5759233926128591</v>
       </c>
-      <c r="AD16" s="32" t="s">
+      <c r="AE16" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="AE16" s="33">
+      <c r="AF16" s="33">
         <v>3</v>
       </c>
-      <c r="AF16" s="33">
+      <c r="AG16" s="33">
         <v>2.75</v>
       </c>
-      <c r="AG16" s="33">
-        <v>0</v>
-      </c>
       <c r="AH16" s="33">
         <v>0</v>
       </c>
       <c r="AI16" s="33">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="33">
         <v>5.75</v>
       </c>
-      <c r="AJ16" s="3">
+      <c r="AK16" s="3">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="AK16" s="33">
+      <c r="AL16" s="33">
         <v>3</v>
       </c>
-      <c r="AL16" s="33">
+      <c r="AM16" s="33">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="AM16" s="35">
+      <c r="AN16" s="35">
         <f t="shared" si="5"/>
         <v>4.25</v>
       </c>
-      <c r="AN16" s="37">
+      <c r="AO16" s="37">
         <f t="shared" si="6"/>
         <v>12.25</v>
       </c>
-      <c r="AO16" s="35">
+      <c r="AP16" s="35">
         <f t="shared" si="5"/>
         <v>7.75</v>
       </c>
-      <c r="AP16" s="37">
+      <c r="AQ16" s="37">
         <f t="shared" si="0"/>
         <v>12.25</v>
       </c>
-      <c r="AQ16" s="38">
+      <c r="AR16" s="38">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>28</v>
       </c>
@@ -8695,90 +8695,89 @@
         <v>4.5</v>
       </c>
       <c r="F17" s="22">
-        <v>0</v>
+        <v>4.1666666666666696</v>
       </c>
       <c r="G17" s="22">
-        <v>8.75</v>
+        <v>12.91666666666667</v>
       </c>
       <c r="I17" s="3">
         <f>'Updated Planning'!F39</f>
         <v>10.559999999999999</v>
       </c>
       <c r="J17" s="40">
-        <f t="shared" si="10"/>
-        <v>1.8099999999999987</v>
+        <f t="shared" si="8"/>
+        <v>-2.3566666666666709</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="9"/>
-        <v>2.1119999999999997</v>
-      </c>
-      <c r="U17" s="21" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="V17" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="V17" s="22">
+      <c r="W17" s="22">
         <v>58</v>
       </c>
-      <c r="X17" s="28" t="s">
+      <c r="Y17" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="Y17" s="29">
+      <c r="Z17" s="29">
         <v>58</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <f t="shared" si="2"/>
         <v>11.108071135430917</v>
       </c>
-      <c r="AD17" s="32" t="s">
+      <c r="AE17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AE17" s="33">
+      <c r="AF17" s="33">
         <v>5.05</v>
       </c>
-      <c r="AF17" s="33">
-        <v>0</v>
-      </c>
       <c r="AG17" s="33">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="33">
         <v>3.05</v>
       </c>
-      <c r="AH17" s="33">
+      <c r="AI17" s="33">
         <v>8.9499999999999993</v>
       </c>
-      <c r="AI17" s="33">
+      <c r="AJ17" s="33">
         <v>17.049999999999997</v>
       </c>
-      <c r="AJ17" s="3">
+      <c r="AK17" s="3">
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="AK17" s="33">
-        <v>2</v>
-      </c>
       <c r="AL17" s="33">
-        <f>AJ17*AK17</f>
-        <v>224</v>
-      </c>
-      <c r="AM17" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="AM17" s="33">
+        <f>AK17*AL17</f>
+        <v>280</v>
+      </c>
+      <c r="AN17" s="35">
         <f t="shared" si="5"/>
         <v>5.350000000000005</v>
       </c>
-      <c r="AN17" s="37">
+      <c r="AO17" s="37">
         <f t="shared" si="6"/>
-        <v>9.8300000000000018</v>
-      </c>
-      <c r="AO17" s="35">
+        <v>16.550000000000004</v>
+      </c>
+      <c r="AP17" s="35">
         <f t="shared" si="5"/>
         <v>13.190000000000005</v>
       </c>
-      <c r="AP17" s="37">
+      <c r="AQ17" s="37">
         <f t="shared" si="0"/>
-        <v>9.8300000000000018</v>
-      </c>
-      <c r="AQ17" s="38">
+        <v>16.550000000000004</v>
+      </c>
+      <c r="AR17" s="38">
         <f t="shared" si="1"/>
-        <v>26.88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>61</v>
       </c>
@@ -8805,69 +8804,68 @@
         <v>18</v>
       </c>
       <c r="J18" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2.6666666666666679</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6</v>
-      </c>
-      <c r="U18" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="V18" s="22">
+      <c r="W18" s="22">
         <v>112</v>
       </c>
-      <c r="X18" s="28" t="s">
+      <c r="Y18" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="Y18" s="29">
+      <c r="Z18" s="29">
         <v>112</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <f t="shared" si="2"/>
         <v>21.450068399452803</v>
       </c>
-      <c r="AD18" s="31" t="s">
+      <c r="AE18" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="AE18" s="25"/>
       <c r="AF18" s="25"/>
       <c r="AG18" s="25"/>
       <c r="AH18" s="25"/>
       <c r="AI18" s="25"/>
-      <c r="AJ18" s="3"/>
-      <c r="AL18" s="33">
+      <c r="AJ18" s="25"/>
+      <c r="AK18" s="3"/>
+      <c r="AM18" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AM18" s="35">
+      <c r="AN18" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN18" s="37">
+      <c r="AO18" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AO18" s="35">
+      <c r="AP18" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AP18" s="37">
+      <c r="AQ18" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AQ18" s="38">
+      <c r="AR18" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="22">
-        <v>5.05</v>
+        <v>6.55</v>
       </c>
       <c r="C19" s="22">
         <v>0</v>
@@ -8876,96 +8874,95 @@
         <v>3.05</v>
       </c>
       <c r="E19" s="22">
-        <v>13.95</v>
+        <v>15.45</v>
       </c>
       <c r="F19" s="22">
-        <v>0</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="G19" s="22">
-        <v>22.049999999999997</v>
+        <v>34.383333333333333</v>
       </c>
       <c r="I19" s="3">
         <f>'Updated Planning'!F41</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="J19" s="40">
         <f>I19-G19</f>
-        <v>4.8000000000000007</v>
+        <v>-0.78333333333333144</v>
       </c>
       <c r="K19" t="s">
         <v>134</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="9"/>
-        <v>5.3699999999999992</v>
-      </c>
-      <c r="U19" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="V19" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="V19" s="22">
+      <c r="W19" s="22">
         <v>20</v>
       </c>
-      <c r="X19" s="28" t="s">
+      <c r="Y19" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="Y19" s="29">
+      <c r="Z19" s="29">
         <v>20</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="AA19" s="3">
         <f t="shared" si="2"/>
         <v>3.8303693570451438</v>
       </c>
-      <c r="AD19" s="32" t="s">
+      <c r="AE19" s="32" t="s">
         <v>65</v>
-      </c>
-      <c r="AE19" s="33">
-        <v>0.5</v>
       </c>
       <c r="AF19" s="33">
         <v>0.5</v>
       </c>
       <c r="AG19" s="33">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH19" s="33">
         <v>0</v>
       </c>
       <c r="AI19" s="33">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="33">
         <v>1</v>
       </c>
-      <c r="AJ19" s="3">
+      <c r="AK19" s="3">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="AK19" s="33">
+      <c r="AL19" s="33">
         <v>3</v>
       </c>
-      <c r="AL19" s="33">
+      <c r="AM19" s="33">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="AM19" s="35">
+      <c r="AN19" s="35">
         <f t="shared" si="5"/>
         <v>1.6</v>
       </c>
-      <c r="AN19" s="37">
+      <c r="AO19" s="37">
         <f t="shared" si="6"/>
         <v>3.6799999999999997</v>
       </c>
-      <c r="AO19" s="35">
+      <c r="AP19" s="35">
         <f t="shared" si="5"/>
         <v>2.5100000000000002</v>
       </c>
-      <c r="AP19" s="37">
+      <c r="AQ19" s="37">
         <f t="shared" si="0"/>
         <v>3.6799999999999997</v>
       </c>
-      <c r="AQ19" s="38">
+      <c r="AR19" s="38">
         <f t="shared" si="1"/>
         <v>4.68</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>120</v>
       </c>
@@ -8980,34 +8977,32 @@
         <v>0</v>
       </c>
       <c r="J20" s="40">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="21" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="V20" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="V20" s="22">
-        <v>0</v>
-      </c>
-      <c r="X20" s="28" t="s">
+      <c r="W20" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="Y20" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="32" t="s">
+      <c r="AE20" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="AE20" s="33">
+      <c r="AF20" s="33">
         <v>6</v>
       </c>
-      <c r="AF20" s="33">
-        <v>0</v>
-      </c>
       <c r="AG20" s="33">
         <v>0</v>
       </c>
@@ -9015,41 +9010,44 @@
         <v>0</v>
       </c>
       <c r="AI20" s="33">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="33">
         <v>6</v>
       </c>
-      <c r="AJ20" s="3">
+      <c r="AK20" s="3">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="AK20" s="33">
+      <c r="AL20" s="33">
         <v>4</v>
       </c>
-      <c r="AL20" s="33">
+      <c r="AM20" s="33">
         <f t="shared" si="4"/>
         <v>196</v>
       </c>
-      <c r="AM20" s="35">
+      <c r="AN20" s="35">
         <f t="shared" si="5"/>
         <v>3.8000000000000007</v>
       </c>
-      <c r="AN20" s="37">
+      <c r="AO20" s="37">
         <f t="shared" si="6"/>
         <v>17.52</v>
       </c>
-      <c r="AO20" s="35">
+      <c r="AP20" s="35">
         <f t="shared" si="5"/>
         <v>7.23</v>
       </c>
-      <c r="AP20" s="37">
+      <c r="AQ20" s="37">
         <f t="shared" si="0"/>
         <v>17.52</v>
       </c>
-      <c r="AQ20" s="38">
+      <c r="AR20" s="38">
         <f t="shared" si="1"/>
         <v>23.52</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>65</v>
       </c>
@@ -9076,38 +9074,34 @@
         <v>4.68</v>
       </c>
       <c r="J21" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>3.6799999999999997</v>
       </c>
       <c r="L21" s="3">
-        <f>I21/5</f>
-        <v>0.93599999999999994</v>
-      </c>
-      <c r="U21" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="V21" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="V21" s="22">
+      <c r="W21" s="22">
         <v>731</v>
       </c>
-      <c r="X21" s="30" t="s">
+      <c r="Y21" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="Y21" s="27">
+      <c r="Z21" s="27">
         <v>731</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="AD21" s="32" t="s">
+      <c r="AE21" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="AE21" s="33">
+      <c r="AF21" s="33">
         <v>4.25</v>
       </c>
-      <c r="AF21" s="33">
-        <v>0</v>
-      </c>
       <c r="AG21" s="33">
         <v>0</v>
       </c>
@@ -9115,41 +9109,44 @@
         <v>0</v>
       </c>
       <c r="AI21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="33">
         <v>4.25</v>
       </c>
-      <c r="AJ21" s="3">
+      <c r="AK21" s="3">
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="AK21" s="33">
+      <c r="AL21" s="33">
         <v>2</v>
       </c>
-      <c r="AL21" s="33">
+      <c r="AM21" s="33">
         <f t="shared" si="4"/>
         <v>222</v>
       </c>
-      <c r="AM21" s="35">
+      <c r="AN21" s="35">
         <f t="shared" si="5"/>
         <v>17.950000000000003</v>
       </c>
-      <c r="AN21" s="37">
+      <c r="AO21" s="37">
         <f t="shared" si="6"/>
         <v>22.39</v>
       </c>
-      <c r="AO21" s="35">
+      <c r="AP21" s="35">
         <f t="shared" si="5"/>
         <v>25.720000000000002</v>
       </c>
-      <c r="AP21" s="37">
+      <c r="AQ21" s="37">
         <f t="shared" si="0"/>
         <v>22.39</v>
       </c>
-      <c r="AQ21" s="38">
+      <c r="AR21" s="38">
         <f t="shared" si="1"/>
         <v>26.64</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>64</v>
       </c>
@@ -9163,78 +9160,77 @@
         <v>0</v>
       </c>
       <c r="E22" s="22">
-        <v>1.5</v>
+        <v>10.08333333</v>
       </c>
       <c r="F22" s="22">
         <v>0</v>
       </c>
       <c r="G22" s="22">
-        <v>13.583333333333334</v>
+        <v>22.166666663333334</v>
       </c>
       <c r="I22" s="3">
         <f>'Updated Planning'!F44</f>
         <v>23.52</v>
       </c>
       <c r="J22" s="40">
-        <f t="shared" si="10"/>
-        <v>9.9366666666666656</v>
+        <f t="shared" si="8"/>
+        <v>1.3533333366666653</v>
       </c>
       <c r="L22" s="3">
-        <f>I22/5</f>
-        <v>4.7039999999999997</v>
-      </c>
-      <c r="AD22" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="AE22" s="27">
+      <c r="AF22" s="27">
         <v>21.3</v>
       </c>
-      <c r="AF22" s="27">
+      <c r="AG22" s="27">
         <v>11.25</v>
       </c>
-      <c r="AG22" s="27">
+      <c r="AH22" s="27">
         <v>11.05</v>
       </c>
-      <c r="AH22" s="27">
+      <c r="AI22" s="27">
         <v>11.95</v>
       </c>
-      <c r="AI22" s="27">
+      <c r="AJ22" s="27">
         <v>55.55</v>
-      </c>
-      <c r="AJ22" s="35">
-        <f>SUM(AJ4:AJ21)</f>
-        <v>731</v>
       </c>
       <c r="AK22" s="35">
         <f>SUM(AK4:AK21)</f>
-        <v>44</v>
-      </c>
-      <c r="AL22" s="33">
+        <v>731</v>
+      </c>
+      <c r="AL22" s="35">
+        <f>SUM(AL4:AL21)</f>
+        <v>44.5</v>
+      </c>
+      <c r="AM22" s="33">
         <f t="shared" si="4"/>
-        <v>32164</v>
-      </c>
-      <c r="AM22" s="35">
-        <f>SUM(AM4:AM21)</f>
+        <v>32529.5</v>
+      </c>
+      <c r="AN22" s="35">
+        <f>SUM(AN4:AN21)</f>
         <v>90.65</v>
       </c>
-      <c r="AN22" s="37">
-        <f>SUM(AN4:AN21)</f>
-        <v>138.72999999999999</v>
-      </c>
-      <c r="AO22" s="35">
+      <c r="AO22" s="37">
         <f>SUM(AO4:AO21)</f>
+        <v>145.45000000000002</v>
+      </c>
+      <c r="AP22" s="35">
+        <f>SUM(AP4:AP21)</f>
         <v>141.82000000000002</v>
       </c>
-      <c r="AP22" s="37">
-        <f>SUM(AP4:AP21)</f>
-        <v>138.72999999999999</v>
-      </c>
-      <c r="AQ22" s="38">
+      <c r="AQ22" s="37">
+        <f>SUM(AQ4:AQ21)</f>
+        <v>145.45000000000002</v>
+      </c>
+      <c r="AR22" s="38">
         <f t="shared" si="1"/>
-        <v>194.27999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>87</v>
       </c>
@@ -9261,79 +9257,78 @@
         <v>26.64</v>
       </c>
       <c r="J23" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>17.14</v>
       </c>
       <c r="L23" s="3">
-        <f>I23/5</f>
-        <v>5.3280000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>130</v>
       </c>
       <c r="B24" s="22">
-        <v>25.133333333333333</v>
+        <v>28.633333333333333</v>
       </c>
       <c r="C24" s="22">
-        <v>25.083333333333336</v>
+        <v>27.083333333333336</v>
       </c>
       <c r="D24" s="22">
         <v>12.8</v>
       </c>
       <c r="E24" s="22">
-        <v>33.36666666666666</v>
+        <v>45.949999996666662</v>
       </c>
       <c r="F24" s="22">
-        <v>0</v>
+        <v>20.250000000000004</v>
       </c>
       <c r="G24" s="22">
-        <v>96.383333333333326</v>
+        <v>134.71666666333334</v>
       </c>
       <c r="I24" s="3">
         <f>'Updated Planning'!F46</f>
-        <v>194.25</v>
+        <v>201</v>
       </c>
       <c r="J24" s="40">
-        <f t="shared" si="10"/>
-        <v>97.866666666666674</v>
+        <f t="shared" si="8"/>
+        <v>66.283333336666658</v>
       </c>
       <c r="L24" s="3">
         <f>SUM(L6:L23)</f>
-        <v>38.85</v>
-      </c>
-      <c r="AN24" s="38"/>
-    </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AN25" s="38"/>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="AO24" s="38"/>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AO25" s="38"/>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="J26" s="39">
-        <f>J24-L24</f>
-        <v>59.016666666666673</v>
-      </c>
-      <c r="AN26" s="38"/>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
+        <f>J24+L24</f>
+        <v>89.283333336666658</v>
+      </c>
+      <c r="AO26" s="38"/>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="J27" s="43">
         <f>94/31</f>
         <v>3.032258064516129</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="U33" s="3"/>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="V33" s="3"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="U34" s="21"/>
-      <c r="V34" s="22"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="U35" s="21"/>
-      <c r="V35" s="22"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W33" s="3"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V34" s="21"/>
+      <c r="W34" s="22"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V35" s="21"/>
+      <c r="W35" s="22"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -9364,13 +9359,13 @@
       <c r="L36" t="s">
         <v>145</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>146</v>
       </c>
-      <c r="U36" s="21"/>
-      <c r="V36" s="22"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V36" s="21"/>
+      <c r="W36" s="22"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>119</v>
       </c>
@@ -9384,19 +9379,19 @@
         <v>16</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37:E43" si="11">VLOOKUP(C37,$A$6:$L$12,12,FALSE)</f>
-        <v>0.38400000000000001</v>
+        <f t="shared" ref="E37:E43" si="9">VLOOKUP(C37,$A$6:$L$12,12,FALSE)</f>
+        <v>0.5</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>144</v>
       </c>
       <c r="G37" s="42">
-        <f>VLOOKUP(F37,$K$37:$M$42,2,FALSE)</f>
+        <f>VLOOKUP(F37,$K$37:$N$42,2,FALSE)</f>
         <v>42666</v>
       </c>
       <c r="H37" s="42">
-        <f>VLOOKUP(F37,$K$37:$M$42,3,FALSE)</f>
-        <v>42671</v>
+        <f>VLOOKUP(F37,$K$37:$N$42,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I37" t="s">
         <v>141</v>
@@ -9407,14 +9402,15 @@
       <c r="L37" s="41">
         <v>42631</v>
       </c>
-      <c r="M37" s="41">
+      <c r="M37" s="41"/>
+      <c r="N37" s="41">
         <f>L37+6</f>
         <v>42637</v>
       </c>
-      <c r="U37" s="21"/>
-      <c r="V37" s="22"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V37" s="21"/>
+      <c r="W37" s="22"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>119</v>
       </c>
@@ -9428,18 +9424,18 @@
         <v>6</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="11"/>
-        <v>0.57599999999999996</v>
+        <f t="shared" si="9"/>
+        <v>0.25</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>137</v>
       </c>
       <c r="G38" s="42">
-        <f t="shared" ref="G38:G64" si="12">VLOOKUP(F38,$K$37:$M$42,2,FALSE)</f>
+        <f t="shared" ref="G38:G64" si="10">VLOOKUP(F38,$K$37:$N$42,2,FALSE)</f>
         <v>42631</v>
       </c>
       <c r="H38" s="42">
-        <f t="shared" ref="H38:H64" si="13">VLOOKUP(F38,$K$37:$M$42,3,FALSE)</f>
+        <f t="shared" ref="H38:H64" si="11">VLOOKUP(F38,$K$37:$N$42,3,FALSE)</f>
         <v>42637</v>
       </c>
       <c r="I38" t="s">
@@ -9452,17 +9448,18 @@
         <v>138</v>
       </c>
       <c r="L38" s="41">
-        <f>M37+1</f>
+        <f>N37+1</f>
         <v>42638</v>
       </c>
-      <c r="M38" s="41">
+      <c r="M38" s="41"/>
+      <c r="N38" s="41">
         <f>L38+6</f>
         <v>42644</v>
       </c>
-      <c r="U38" s="21"/>
-      <c r="V38" s="22"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V38" s="21"/>
+      <c r="W38" s="22"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>119</v>
       </c>
@@ -9476,18 +9473,18 @@
         <v>3</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="11"/>
-        <v>0.28799999999999998</v>
+        <f t="shared" si="9"/>
+        <v>0.25</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>137</v>
       </c>
       <c r="G39" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42631</v>
       </c>
       <c r="H39" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42637</v>
       </c>
       <c r="I39" s="3" t="s">
@@ -9500,17 +9497,18 @@
         <v>139</v>
       </c>
       <c r="L39" s="41">
-        <f>M38+1</f>
+        <f>N38+1</f>
         <v>42645</v>
       </c>
-      <c r="M39" s="41">
+      <c r="M39" s="41"/>
+      <c r="N39" s="41">
         <f>L39+6</f>
         <v>42651</v>
       </c>
-      <c r="U39" s="21"/>
-      <c r="V39" s="22"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V39" s="21"/>
+      <c r="W39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>119</v>
       </c>
@@ -9524,18 +9522,18 @@
         <v>58</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="11"/>
-        <v>1.3919999999999999</v>
+        <f t="shared" si="9"/>
+        <v>1.5</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>137</v>
       </c>
       <c r="G40" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42631</v>
       </c>
       <c r="H40" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42637</v>
       </c>
       <c r="I40" s="3" t="s">
@@ -9548,17 +9546,18 @@
         <v>141</v>
       </c>
       <c r="L40" s="41">
-        <f>M39+1</f>
+        <f>N39+1</f>
         <v>42652</v>
       </c>
-      <c r="M40" s="41">
+      <c r="M40" s="41"/>
+      <c r="N40" s="41">
         <f>L40+6</f>
         <v>42658</v>
       </c>
-      <c r="U40" s="21"/>
-      <c r="V40" s="22"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V40" s="21"/>
+      <c r="W40" s="22"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>119</v>
       </c>
@@ -9572,38 +9571,42 @@
         <v>20</v>
       </c>
       <c r="E41" s="3">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="42">
+        <f t="shared" si="10"/>
+        <v>42645</v>
+      </c>
+      <c r="H41" s="42">
         <f t="shared" si="11"/>
-        <v>1.44</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G41" s="42">
-        <f t="shared" si="12"/>
-        <v>42638</v>
-      </c>
-      <c r="H41" s="42">
-        <f t="shared" si="13"/>
-        <v>42644</v>
+        <v>42651</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>137</v>
       </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
       <c r="K41" t="s">
         <v>143</v>
       </c>
       <c r="L41" s="41">
-        <f>M40+1</f>
+        <f>N40+1</f>
         <v>42659</v>
       </c>
-      <c r="M41" s="41">
+      <c r="M41" s="41"/>
+      <c r="N41" s="41">
         <f>L41+6</f>
         <v>42665</v>
       </c>
-      <c r="U41" s="21"/>
-      <c r="V41" s="22"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V41" s="21"/>
+      <c r="W41" s="22"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>119</v>
       </c>
@@ -9617,38 +9620,42 @@
         <v>13</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="11"/>
-        <v>1.8719999999999999</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>138</v>
       </c>
       <c r="G42" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42638</v>
       </c>
       <c r="H42" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42644</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>138</v>
       </c>
+      <c r="J42" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="K42" t="s">
         <v>144</v>
       </c>
       <c r="L42" s="41">
-        <f>M41+1</f>
+        <f>N41+1</f>
         <v>42666</v>
       </c>
-      <c r="M42" s="41">
+      <c r="M42" s="41"/>
+      <c r="N42" s="41">
         <f>L42+5</f>
         <v>42671</v>
       </c>
-      <c r="U42" s="21"/>
-      <c r="V42" s="22"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V42" s="21"/>
+      <c r="W42" s="22"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>119</v>
       </c>
@@ -9662,27 +9669,27 @@
         <v>82</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="11"/>
-        <v>2.976</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>143</v>
       </c>
       <c r="G43" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42659</v>
       </c>
       <c r="H43" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42665</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="U43" s="21"/>
-      <c r="V43" s="22"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V43" s="21"/>
+      <c r="W43" s="22"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>88</v>
       </c>
@@ -9696,24 +9703,24 @@
         <v>14</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" ref="E44:E49" si="14">VLOOKUP(C44,$A$14:$L$26,12,FALSE)/6</f>
-        <v>0.89499999999999991</v>
-      </c>
-      <c r="F44" s="8" t="s">
+        <f>VLOOKUP(C44,$A$14:$L$26,12,FALSE)/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="47" t="s">
         <v>137</v>
       </c>
       <c r="G44" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42631</v>
       </c>
       <c r="H44" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42637</v>
       </c>
-      <c r="U44" s="21"/>
-      <c r="V44" s="22"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V44" s="21"/>
+      <c r="W44" s="22"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>88</v>
       </c>
@@ -9727,24 +9734,24 @@
         <v>37</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="14"/>
-        <v>0.89499999999999991</v>
-      </c>
-      <c r="F45" s="8" t="s">
+        <f t="shared" ref="E45:E49" si="12">VLOOKUP(C45,$A$14:$L$26,12,FALSE)/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="47" t="s">
         <v>137</v>
       </c>
       <c r="G45" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42631</v>
       </c>
       <c r="H45" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42637</v>
       </c>
-      <c r="U45" s="21"/>
-      <c r="V45" s="22"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V45" s="21"/>
+      <c r="W45" s="22"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>88</v>
       </c>
@@ -9758,24 +9765,24 @@
         <v>14</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="14"/>
-        <v>0.89499999999999991</v>
-      </c>
-      <c r="F46" s="8" t="s">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="F46" s="47" t="s">
         <v>137</v>
       </c>
       <c r="G46" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42631</v>
       </c>
       <c r="H46" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42637</v>
       </c>
-      <c r="U46" s="21"/>
-      <c r="V46" s="22"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V46" s="21"/>
+      <c r="W46" s="22"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>88</v>
       </c>
@@ -9789,24 +9796,24 @@
         <v>24</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="14"/>
-        <v>0.89499999999999991</v>
-      </c>
-      <c r="F47" s="8" t="s">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="F47" s="47" t="s">
         <v>137</v>
       </c>
       <c r="G47" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42631</v>
       </c>
       <c r="H47" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42637</v>
       </c>
-      <c r="U47" s="21"/>
-      <c r="V47" s="22"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V47" s="21"/>
+      <c r="W47" s="22"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>88</v>
       </c>
@@ -9820,24 +9827,24 @@
         <v>13</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="14"/>
-        <v>0.89499999999999991</v>
-      </c>
-      <c r="F48" s="8" t="s">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="F48" s="47" t="s">
         <v>137</v>
       </c>
       <c r="G48" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42631</v>
       </c>
       <c r="H48" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42637</v>
       </c>
-      <c r="U48" s="21"/>
-      <c r="V48" s="22"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V48" s="21"/>
+      <c r="W48" s="22"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>88</v>
       </c>
@@ -9851,27 +9858,27 @@
         <v>10</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="14"/>
-        <v>0.89499999999999991</v>
+        <f t="shared" si="12"/>
+        <v>0.5</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>137</v>
       </c>
       <c r="G49" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42631</v>
       </c>
       <c r="H49" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42637</v>
       </c>
       <c r="I49" t="s">
         <v>137</v>
       </c>
-      <c r="U49" s="21"/>
-      <c r="V49" s="22"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V49" s="21"/>
+      <c r="W49" s="22"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>88</v>
       </c>
@@ -9886,23 +9893,23 @@
       </c>
       <c r="E50" s="3">
         <f>VLOOKUP(C50,$A$14:$L$26,12,FALSE)/2</f>
-        <v>1.0559999999999998</v>
-      </c>
-      <c r="F50" s="8" t="s">
+        <v>0.25</v>
+      </c>
+      <c r="F50" s="47" t="s">
         <v>138</v>
       </c>
       <c r="G50" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42638</v>
       </c>
       <c r="H50" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42644</v>
       </c>
-      <c r="U50" s="21"/>
-      <c r="V50" s="22"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V50" s="21"/>
+      <c r="W50" s="22"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>88</v>
       </c>
@@ -9917,23 +9924,23 @@
       </c>
       <c r="E51" s="3">
         <f>VLOOKUP(C51,$A$14:$L$26,12,FALSE)/2</f>
-        <v>1.0559999999999998</v>
-      </c>
-      <c r="F51" s="8" t="s">
+        <v>0.25</v>
+      </c>
+      <c r="F51" s="47" t="s">
         <v>138</v>
       </c>
       <c r="G51" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42638</v>
       </c>
       <c r="H51" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42644</v>
       </c>
-      <c r="U51" s="21"/>
-      <c r="V51" s="22"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V51" s="21"/>
+      <c r="W51" s="22"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>88</v>
       </c>
@@ -9948,21 +9955,21 @@
       </c>
       <c r="E52" s="3">
         <f>VLOOKUP(C52,$A$14:$L$26,12,FALSE)/2</f>
-        <v>1.3679999999999999</v>
-      </c>
-      <c r="F52" s="8" t="s">
+        <v>0.25</v>
+      </c>
+      <c r="F52" s="47" t="s">
         <v>138</v>
       </c>
       <c r="G52" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42638</v>
       </c>
       <c r="H52" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42644</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>88</v>
       </c>
@@ -9977,21 +9984,21 @@
       </c>
       <c r="E53" s="3">
         <f>VLOOKUP(C53,$A$14:$L$26,12,FALSE)/2</f>
-        <v>1.3679999999999999</v>
-      </c>
-      <c r="F53" s="8" t="s">
+        <v>0.25</v>
+      </c>
+      <c r="F53" s="47" t="s">
         <v>138</v>
       </c>
       <c r="G53" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42638</v>
       </c>
       <c r="H53" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42644</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>88</v>
       </c>
@@ -10006,21 +10013,21 @@
       </c>
       <c r="E54" s="3">
         <f>VLOOKUP(C54,$A$14:$L$26,12,FALSE)/4</f>
-        <v>0.92400000000000004</v>
+        <v>1</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>139</v>
       </c>
       <c r="G54" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42645</v>
       </c>
       <c r="H54" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42651</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>88</v>
       </c>
@@ -10035,24 +10042,27 @@
       </c>
       <c r="E55" s="3">
         <f>VLOOKUP(C55,$A$14:$L$26,12,FALSE)/4</f>
-        <v>0.92400000000000004</v>
+        <v>1</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>139</v>
       </c>
       <c r="G55" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42645</v>
       </c>
       <c r="H55" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42651</v>
       </c>
       <c r="I55" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J55" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>88</v>
       </c>
@@ -10067,21 +10077,25 @@
       </c>
       <c r="E56" s="3">
         <f>VLOOKUP(C56,$A$14:$L$26,12,FALSE)/4</f>
-        <v>0.92400000000000004</v>
+        <v>1</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>139</v>
       </c>
       <c r="G56" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42645</v>
       </c>
       <c r="H56" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42651</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N56">
+        <f>227+189</f>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>88</v>
       </c>
@@ -10096,24 +10110,24 @@
       </c>
       <c r="E57" s="3">
         <f>VLOOKUP(C57,$A$14:$L$26,12,FALSE)/4</f>
-        <v>0.92400000000000004</v>
+        <v>1</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>139</v>
       </c>
       <c r="G57" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42645</v>
       </c>
       <c r="H57" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42651</v>
       </c>
       <c r="I57" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>88</v>
       </c>
@@ -10127,25 +10141,25 @@
         <v>20</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" ref="E58:E64" si="15">VLOOKUP(C58,$A$14:$L$26,12,FALSE)</f>
-        <v>1.44</v>
+        <f t="shared" ref="E58:E64" si="13">VLOOKUP(C58,$A$14:$L$26,12,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>140</v>
       </c>
       <c r="G58" s="42" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="H58" s="42" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="I58" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>88</v>
       </c>
@@ -10160,17 +10174,17 @@
       </c>
       <c r="E59" s="3">
         <f>VLOOKUP(C59,$A$14:$L$26,12,FALSE)/3</f>
-        <v>1.2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>141</v>
       </c>
       <c r="G59" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42652</v>
       </c>
       <c r="H59" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42658</v>
       </c>
       <c r="I59" t="s">
@@ -10180,7 +10194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>88</v>
       </c>
@@ -10195,17 +10209,17 @@
       </c>
       <c r="E60" s="3">
         <f>VLOOKUP(C60,$A$14:$L$26,12,FALSE)/3</f>
-        <v>1.2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>141</v>
       </c>
       <c r="G60" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42652</v>
       </c>
       <c r="H60" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42658</v>
       </c>
       <c r="I60" s="3" t="s">
@@ -10215,7 +10229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>88</v>
       </c>
@@ -10230,17 +10244,17 @@
       </c>
       <c r="E61" s="3">
         <f>VLOOKUP(C61,$A$14:$L$26,12,FALSE)/3</f>
-        <v>1.2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>141</v>
       </c>
       <c r="G61" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42652</v>
       </c>
       <c r="H61" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42658</v>
       </c>
       <c r="I61" s="3" t="s">
@@ -10250,7 +10264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>120</v>
       </c>
@@ -10264,18 +10278,18 @@
         <v>49</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="15"/>
-        <v>4.7039999999999997</v>
+        <f t="shared" si="13"/>
+        <v>4</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>139</v>
       </c>
       <c r="G62" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42645</v>
       </c>
       <c r="H62" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42651</v>
       </c>
       <c r="I62" s="3" t="s">
@@ -10285,7 +10299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>120</v>
       </c>
@@ -10299,19 +10313,19 @@
         <v>13</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="15"/>
-        <v>0.93599999999999994</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G63" s="42" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="H63" s="42" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>120</v>
       </c>
@@ -10325,18 +10339,18 @@
         <v>111</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="15"/>
-        <v>5.3280000000000003</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>141</v>
       </c>
       <c r="G64" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42652</v>
       </c>
       <c r="H64" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42658</v>
       </c>
       <c r="I64" s="3" t="s">
@@ -10345,6 +10359,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -10352,8 +10367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL995"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10899,7 +10914,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="39">
-        <f>C28+Calc_Plan!AI4</f>
+        <f>C28+Calc_Plan!AJ4</f>
         <v>1.92</v>
       </c>
     </row>
@@ -10919,7 +10934,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="39">
-        <f>C29+Calc_Plan!AI5</f>
+        <f>C29+Calc_Plan!AJ5</f>
         <v>2.88</v>
       </c>
     </row>
@@ -10939,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="39">
-        <f>C30+Calc_Plan!AI6</f>
+        <f>C30+Calc_Plan!AJ6</f>
         <v>1.44</v>
       </c>
     </row>
@@ -10959,7 +10974,7 @@
         <v>3</v>
       </c>
       <c r="F31" s="39">
-        <f>C31+Calc_Plan!AI7</f>
+        <f>C31+Calc_Plan!AJ7</f>
         <v>9.36</v>
       </c>
     </row>
@@ -10979,7 +10994,7 @@
         <v>5</v>
       </c>
       <c r="F32" s="39">
-        <f>C32+Calc_Plan!AI8</f>
+        <f>C32+Calc_Plan!AJ8</f>
         <v>14.879999999999999</v>
       </c>
     </row>
@@ -10999,7 +11014,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="39">
-        <f>C33+Calc_Plan!AI9</f>
+        <f>C33+Calc_Plan!AJ9</f>
         <v>6.96</v>
       </c>
     </row>
@@ -11019,7 +11034,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="39">
-        <f>C34+Calc_Plan!AI10</f>
+        <f>C34+Calc_Plan!AJ10</f>
         <v>7.1999999999999993</v>
       </c>
     </row>
@@ -11039,7 +11054,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="39">
-        <f>C35+Calc_Plan!AI11</f>
+        <f>C35+Calc_Plan!AJ11</f>
         <v>0</v>
       </c>
     </row>
@@ -11059,7 +11074,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="39">
-        <f>C36+Calc_Plan!AI12</f>
+        <f>C36+Calc_Plan!AJ12</f>
         <v>13.68</v>
       </c>
     </row>
@@ -11079,7 +11094,7 @@
         <v>2</v>
       </c>
       <c r="F37" s="39">
-        <f>C37+Calc_Plan!AI13</f>
+        <f>C37+Calc_Plan!AJ13</f>
         <v>18.48</v>
       </c>
     </row>
@@ -11099,7 +11114,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="39">
-        <f>C38+Calc_Plan!AI14</f>
+        <f>C38+Calc_Plan!AJ14</f>
         <v>7.1999999999999993</v>
       </c>
     </row>
@@ -11119,7 +11134,7 @@
         <v>3</v>
       </c>
       <c r="F39" s="39">
-        <f>C39+Calc_Plan!AI15</f>
+        <f>C39+Calc_Plan!AJ15</f>
         <v>10.559999999999999</v>
       </c>
     </row>
@@ -11139,7 +11154,7 @@
         <v>4</v>
       </c>
       <c r="F40" s="39">
-        <f>C40+Calc_Plan!AI16</f>
+        <f>C40+Calc_Plan!AJ16</f>
         <v>18</v>
       </c>
     </row>
@@ -11148,19 +11163,19 @@
         <v>32</v>
       </c>
       <c r="C41" s="37">
-        <v>9.8000000000000007</v>
+        <v>16.550000000000004</v>
       </c>
       <c r="D41" s="38">
         <f t="shared" si="0"/>
-        <v>3.2666666666666671</v>
+        <v>5.5166666666666684</v>
       </c>
       <c r="E41" s="38">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F41" s="39">
-        <f>C41+Calc_Plan!AI17</f>
-        <v>26.849999999999998</v>
+        <f>C41+Calc_Plan!AJ17</f>
+        <v>33.6</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11179,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="39">
-        <f>C42+Calc_Plan!AI18</f>
+        <f>C42+Calc_Plan!AJ18</f>
         <v>0</v>
       </c>
     </row>
@@ -11199,7 +11214,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="39">
-        <f>C43+Calc_Plan!AI19</f>
+        <f>C43+Calc_Plan!AJ19</f>
         <v>4.68</v>
       </c>
     </row>
@@ -11219,7 +11234,7 @@
         <v>6</v>
       </c>
       <c r="F44" s="39">
-        <f>C44+Calc_Plan!AI20</f>
+        <f>C44+Calc_Plan!AJ20</f>
         <v>23.52</v>
       </c>
     </row>
@@ -11239,7 +11254,7 @@
         <v>7</v>
       </c>
       <c r="F45" s="39">
-        <f>C45+Calc_Plan!AI21</f>
+        <f>C45+Calc_Plan!AJ21</f>
         <v>26.64</v>
       </c>
     </row>
@@ -11248,19 +11263,19 @@
         <v>116</v>
       </c>
       <c r="C46" s="38">
-        <v>136.33000000000001</v>
+        <v>145.45000000000002</v>
       </c>
       <c r="D46" s="38">
         <f t="shared" si="0"/>
-        <v>45.443333333333335</v>
+        <v>48.483333333333341</v>
       </c>
       <c r="E46" s="38">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F46" s="39">
         <f>SUM(F28:F45)</f>
-        <v>194.25</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15589,12 +15604,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="AL33" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="BI3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="G2" sqref="G2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AU48" sqref="AU48"/>
+      <selection pane="bottomRight" activeCell="BH2" sqref="BH2:BR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15624,7 +15639,7 @@
     <row r="1" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A1" s="9">
         <f ca="1">TODAY()</f>
-        <v>42635</v>
+        <v>42648</v>
       </c>
       <c r="B1" s="9"/>
       <c r="I1" s="12" t="s">
@@ -16854,7 +16869,7 @@
       </c>
       <c r="F28" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="8">
         <f>VLOOKUP(D28,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
@@ -16864,6 +16879,9 @@
         <f>VLOOKUP(C28,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
+      <c r="BD28" s="13">
+        <v>1</v>
+      </c>
       <c r="BR28" s="13"/>
       <c r="BX28" s="13"/>
     </row>
@@ -16883,7 +16901,7 @@
       </c>
       <c r="F29" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" s="8">
         <f>VLOOKUP(D29,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
@@ -16893,6 +16911,9 @@
         <f>VLOOKUP(C29,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
+      <c r="BD29" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="2:76" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
@@ -16939,7 +16960,7 @@
       </c>
       <c r="F31" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="G31" s="8">
         <f>VLOOKUP(D31,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
@@ -16949,6 +16970,12 @@
         <f>VLOOKUP(C31,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
+      <c r="BD31" s="13">
+        <v>1</v>
+      </c>
+      <c r="BG31" s="13">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="32" spans="2:76" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
@@ -16966,7 +16993,7 @@
       </c>
       <c r="F32" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="G32" s="8">
         <f>VLOOKUP(D32,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
@@ -16976,6 +17003,15 @@
         <f>VLOOKUP(C32,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
+      <c r="BD32" s="13">
+        <v>1</v>
+      </c>
+      <c r="BE32" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="BG32" s="13">
+        <v>0.25</v>
+      </c>
       <c r="BR32" s="13"/>
       <c r="BX32" s="13"/>
     </row>
@@ -17140,7 +17176,7 @@
       </c>
       <c r="G38" s="8">
         <f>VLOOKUP(D38,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H38" s="8">
         <f>VLOOKUP(C38,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -17169,7 +17205,7 @@
       </c>
       <c r="G39" s="8">
         <f>VLOOKUP(D39,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H39" s="8">
         <f>VLOOKUP(C39,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -17196,7 +17232,7 @@
       </c>
       <c r="G40" s="8">
         <f>VLOOKUP(D40,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H40" s="8">
         <f>VLOOKUP(C40,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -17231,7 +17267,7 @@
       </c>
       <c r="G41" s="8">
         <f>VLOOKUP(D41,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H41" s="8">
         <f>VLOOKUP(C41,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -17260,16 +17296,22 @@
       </c>
       <c r="F42" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42" s="8">
         <f>VLOOKUP(D42,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H42" s="8">
         <f>VLOOKUP(C42,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>14</v>
       </c>
+      <c r="AU42" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AV42" s="46">
+        <v>1.5</v>
+      </c>
       <c r="BR42" s="13"/>
       <c r="BX42" s="13"/>
     </row>
@@ -17293,7 +17335,7 @@
       </c>
       <c r="G43" s="8">
         <f>VLOOKUP(D43,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H43" s="8">
         <f>VLOOKUP(C43,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -17322,7 +17364,7 @@
       </c>
       <c r="G44" s="8">
         <f>VLOOKUP(D44,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H44" s="8">
         <f>VLOOKUP(C44,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -17349,7 +17391,7 @@
       </c>
       <c r="G45" s="8">
         <f>VLOOKUP(D45,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H45" s="8">
         <f>VLOOKUP(C45,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -17384,7 +17426,7 @@
       </c>
       <c r="G46" s="8">
         <f>VLOOKUP(D46,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H46" s="8">
         <f>VLOOKUP(C46,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -17426,7 +17468,7 @@
       </c>
       <c r="G47" s="8">
         <f>VLOOKUP(D47,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H47" s="8">
         <f>VLOOKUP(C47,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -17462,7 +17504,7 @@
       </c>
       <c r="G48" s="8">
         <f>VLOOKUP(D48,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H48" s="8">
         <f>VLOOKUP(C48,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -17491,7 +17533,7 @@
       </c>
       <c r="G49" s="8">
         <f>VLOOKUP(D49,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H49" s="8">
         <f>VLOOKUP(C49,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -17518,7 +17560,7 @@
       </c>
       <c r="G50" s="8">
         <f>VLOOKUP(D50,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H50" s="8">
         <f>VLOOKUP(C50,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -17550,7 +17592,7 @@
       </c>
       <c r="G51" s="8">
         <f>VLOOKUP(D51,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H51" s="8">
         <f>VLOOKUP(C51,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -17580,7 +17622,7 @@
       </c>
       <c r="G52" s="8">
         <f>VLOOKUP(D52,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H52" s="8">
         <f>VLOOKUP(C52,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -17614,7 +17656,7 @@
       </c>
       <c r="G53" s="8">
         <f>VLOOKUP(D53,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H53" s="8">
         <f>VLOOKUP(C53,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -17656,7 +17698,7 @@
       </c>
       <c r="G54" s="8">
         <f>VLOOKUP(D54,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H54" s="8">
         <f>VLOOKUP(C54,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -17684,7 +17726,7 @@
       </c>
       <c r="G55" s="8">
         <f>VLOOKUP(D55,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H55" s="8">
         <f>VLOOKUP(C55,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -17714,7 +17756,7 @@
       </c>
       <c r="G56" s="8">
         <f>VLOOKUP(D56,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H56" s="8">
         <f>VLOOKUP(C56,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -17744,15 +17786,21 @@
       </c>
       <c r="F57" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G57" s="8">
         <f>VLOOKUP(D57,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H57" s="8">
         <f>VLOOKUP(C57,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>24</v>
+      </c>
+      <c r="AV57" s="46">
+        <v>2</v>
+      </c>
+      <c r="BD57" s="13">
+        <v>1</v>
       </c>
       <c r="BR57" s="13"/>
       <c r="BX57" s="13"/>
@@ -17778,7 +17826,7 @@
       </c>
       <c r="G58" s="8">
         <f>VLOOKUP(D58,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H58" s="8">
         <f>VLOOKUP(C58,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -17807,7 +17855,7 @@
       </c>
       <c r="G59" s="8">
         <f>VLOOKUP(D59,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H59" s="8">
         <f>VLOOKUP(C59,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -17835,7 +17883,7 @@
       </c>
       <c r="G60" s="8">
         <f>VLOOKUP(D60,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H60" s="8">
         <f>VLOOKUP(C60,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -17865,7 +17913,7 @@
       </c>
       <c r="G61" s="8">
         <f>VLOOKUP(D61,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H61" s="8">
         <f>VLOOKUP(C61,Schedule!$B$2:$E$29,4,FALSE)</f>
@@ -17894,16 +17942,19 @@
       </c>
       <c r="F62" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="8">
         <f>VLOOKUP(D62,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H62" s="8">
         <f>VLOOKUP(C62,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>13</v>
       </c>
+      <c r="AV62" s="46">
+        <v>1</v>
+      </c>
       <c r="BR62" s="13"/>
       <c r="BX62" s="13"/>
     </row>
@@ -17923,14 +17974,17 @@
       </c>
       <c r="F63" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G63" s="8">
         <f>VLOOKUP(D63,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H63" s="8">
         <v>10</v>
+      </c>
+      <c r="BF63" s="13">
+        <v>1.5</v>
       </c>
       <c r="BR63" s="13"/>
       <c r="BX63" s="13"/>
@@ -17955,7 +18009,7 @@
       </c>
       <c r="G64" s="8">
         <f>VLOOKUP(D64,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H64" s="8">
         <v>10</v>
@@ -17981,7 +18035,7 @@
       </c>
       <c r="G65" s="8">
         <f>VLOOKUP(D65,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H65" s="8">
         <v>10</v>
@@ -18005,14 +18059,17 @@
       </c>
       <c r="F66" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G66" s="8">
         <f>VLOOKUP(D66,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H66" s="8">
         <v>10</v>
+      </c>
+      <c r="BG66" s="13">
+        <v>1.5</v>
       </c>
     </row>
     <row r="67" spans="1:76" x14ac:dyDescent="0.3">
@@ -18035,7 +18092,7 @@
       </c>
       <c r="G67" s="8">
         <f>VLOOKUP(D67,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
-        <v>26.849999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="H67" s="8">
         <v>10</v>
@@ -18187,7 +18244,7 @@
       </c>
       <c r="F72" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.6666666666666701</v>
       </c>
       <c r="G72" s="8">
         <f>VLOOKUP(D72,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
@@ -18196,6 +18253,13 @@
       <c r="H72" s="8">
         <f>VLOOKUP(C72,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>16</v>
+      </c>
+      <c r="BA72" s="13">
+        <f>1.5-0.33333333333333</f>
+        <v>1.1666666666666701</v>
+      </c>
+      <c r="BB72" s="13">
+        <v>0.5</v>
       </c>
       <c r="BR72" s="13"/>
       <c r="BX72" s="13"/>
@@ -18344,7 +18408,7 @@
       </c>
       <c r="F77" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G77" s="8">
         <f>VLOOKUP(D77,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
@@ -18353,6 +18417,9 @@
       <c r="H77" s="8">
         <f>VLOOKUP(C77,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>28</v>
+      </c>
+      <c r="BB77" s="13">
+        <v>2.5</v>
       </c>
       <c r="BR77" s="13"/>
       <c r="BX77" s="13"/>
@@ -18495,7 +18562,7 @@
       </c>
       <c r="F82" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G82" s="8">
         <f>VLOOKUP(D82,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
@@ -18504,6 +18571,12 @@
       <c r="H82" s="8">
         <f>VLOOKUP(C82,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>32</v>
+      </c>
+      <c r="BF82" s="13">
+        <v>1</v>
+      </c>
+      <c r="BG82" s="13">
+        <v>0.5</v>
       </c>
       <c r="BR82" s="13"/>
       <c r="BX82" s="13"/>
@@ -18649,7 +18722,7 @@
       </c>
       <c r="F87" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G87" s="8">
         <f>VLOOKUP(D87,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
@@ -18658,6 +18731,9 @@
       <c r="H87" s="8">
         <f>VLOOKUP(C87,Schedule!$B$2:$E$29,4,FALSE)</f>
         <v>25</v>
+      </c>
+      <c r="BG87" s="13">
+        <v>1.5</v>
       </c>
       <c r="BR87" s="13"/>
       <c r="BX87" s="13"/>
@@ -18857,7 +18933,7 @@
       </c>
       <c r="F93" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" s="8">
         <f>VLOOKUP(D93,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
@@ -18865,6 +18941,9 @@
       </c>
       <c r="H93" s="8">
         <v>20</v>
+      </c>
+      <c r="BE93" s="13">
+        <v>1</v>
       </c>
       <c r="BR93" s="13"/>
       <c r="BX93" s="13"/>
@@ -18943,7 +19022,7 @@
       </c>
       <c r="F96" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" s="8">
         <f>VLOOKUP(D96,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
@@ -18952,6 +19031,9 @@
       <c r="H96" s="8">
         <v>20</v>
       </c>
+      <c r="BF96" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:76" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
@@ -18969,7 +19051,7 @@
       </c>
       <c r="F97" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" s="8">
         <f>VLOOKUP(D97,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
@@ -18977,6 +19059,9 @@
       </c>
       <c r="H97" s="8">
         <v>20</v>
+      </c>
+      <c r="BF97" s="13">
+        <v>1</v>
       </c>
       <c r="BR97" s="13"/>
       <c r="BX97" s="13"/>
@@ -20010,7 +20095,7 @@
       </c>
       <c r="F131" s="8">
         <f t="shared" ref="F131:F142" si="4">SUM(I131:XFD131)</f>
-        <v>3.75</v>
+        <v>10.08333333</v>
       </c>
       <c r="G131" s="8">
         <f>VLOOKUP(D131,'Updated Planning'!$B$28:$F$46,5,FALSE)</f>
@@ -20028,6 +20113,24 @@
       </c>
       <c r="AT131" s="13">
         <v>0.75</v>
+      </c>
+      <c r="AU131" s="13">
+        <v>1</v>
+      </c>
+      <c r="AW131" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AZ131" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="BA131" s="13">
+        <v>0.33333332999999998</v>
+      </c>
+      <c r="BB131" s="13">
+        <v>1</v>
+      </c>
+      <c r="BC131" s="46">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:76" x14ac:dyDescent="0.3">
@@ -20384,11 +20487,11 @@
     <row r="143" spans="1:76" x14ac:dyDescent="0.3">
       <c r="E143" s="16">
         <f>F143/COUNT(I143:XFD143)</f>
-        <v>2.6635964912280707</v>
+        <v>2.6415032679084969</v>
       </c>
       <c r="F143" s="8">
         <f>SUM(I143:XFD143)</f>
-        <v>101.21666666666668</v>
+        <v>134.71666666333334</v>
       </c>
       <c r="I143" s="13">
         <f>SUM(I3:I142)</f>
@@ -20403,7 +20506,7 @@
         <v>2.5</v>
       </c>
       <c r="L143" s="13">
-        <f t="shared" ref="L143:AT143" si="5">SUM(L3:L142)</f>
+        <f t="shared" ref="L143:BG143" si="5">SUM(L3:L142)</f>
         <v>3.3</v>
       </c>
       <c r="M143" s="13">
@@ -20542,6 +20645,58 @@
         <f t="shared" si="5"/>
         <v>2.416666666666667</v>
       </c>
+      <c r="AU143" s="13">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="AV143" s="13">
+        <f t="shared" si="5"/>
+        <v>4.5</v>
+      </c>
+      <c r="AW143" s="13">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="AX143" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AY143" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AZ143" s="13">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="BA143" s="13">
+        <f t="shared" si="5"/>
+        <v>1.4999999966666699</v>
+      </c>
+      <c r="BB143" s="13">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="BC143" s="13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BD143" s="13">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="BE143" s="13">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="BF143" s="13">
+        <f t="shared" si="5"/>
+        <v>4.5</v>
+      </c>
+      <c r="BG143" s="13">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="144" spans="1:76" x14ac:dyDescent="0.3">
       <c r="E144" s="8" t="s">
@@ -20549,7 +20704,7 @@
       </c>
       <c r="F144" s="8">
         <f>SUM(I144:XFD144)</f>
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="I144" s="13">
         <v>3</v>
@@ -20664,12 +20819,63 @@
       </c>
       <c r="AT144" s="13">
         <v>3</v>
+      </c>
+      <c r="AU144" s="13">
+        <v>3</v>
+      </c>
+      <c r="AV144" s="13">
+        <v>3</v>
+      </c>
+      <c r="AW144" s="13">
+        <v>3</v>
+      </c>
+      <c r="AX144" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY144" s="13">
+        <v>2</v>
+      </c>
+      <c r="AZ144" s="13">
+        <v>2</v>
+      </c>
+      <c r="BA144" s="13">
+        <v>2</v>
+      </c>
+      <c r="BB144" s="13">
+        <v>4</v>
+      </c>
+      <c r="BC144" s="13">
+        <v>2</v>
+      </c>
+      <c r="BD144" s="13">
+        <v>4</v>
+      </c>
+      <c r="BE144" s="13">
+        <v>0</v>
+      </c>
+      <c r="BF144" s="13">
+        <v>4</v>
+      </c>
+      <c r="BG144" s="13">
+        <v>4</v>
+      </c>
+      <c r="BH144" s="13">
+        <v>4</v>
+      </c>
+      <c r="BI144" s="13">
+        <v>4</v>
+      </c>
+      <c r="BJ144" s="13">
+        <v>4</v>
+      </c>
+      <c r="BK144" s="13">
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="6:83" x14ac:dyDescent="0.3">
       <c r="F147" s="8">
         <f>SUM(I147:XFD147)</f>
-        <v>2.2166666666666663</v>
+        <v>2.7166666633333363</v>
       </c>
       <c r="H147" s="8" t="s">
         <v>113</v>
@@ -20731,7 +20937,7 @@
         <v>0</v>
       </c>
       <c r="W147" s="13">
-        <f t="shared" ref="W147:AT147" si="8">W143-W144</f>
+        <f t="shared" ref="W147:BG147" si="8">W143-W144</f>
         <v>-1.5</v>
       </c>
       <c r="X147" s="13">
@@ -20825,6 +21031,58 @@
       <c r="AT147" s="13">
         <f t="shared" si="8"/>
         <v>-0.58333333333333304</v>
+      </c>
+      <c r="AU147" s="13">
+        <f t="shared" si="8"/>
+        <v>-0.5</v>
+      </c>
+      <c r="AV147" s="13">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="AW147" s="13">
+        <f t="shared" si="8"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AX147" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AY147" s="13">
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
+      <c r="AZ147" s="13">
+        <f t="shared" si="8"/>
+        <v>-0.5</v>
+      </c>
+      <c r="BA147" s="13">
+        <f t="shared" si="8"/>
+        <v>-0.50000000333333006</v>
+      </c>
+      <c r="BB147" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BC147" s="13">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="BD147" s="13">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="BE147" s="13">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="BF147" s="13">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="BG147" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="6:83" x14ac:dyDescent="0.3">
@@ -20978,59 +21236,59 @@
       </c>
       <c r="AU148" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>2.2166666666666663</v>
-      </c>
-      <c r="AV148" s="46" t="str">
+        <v>1.7166666666666663</v>
+      </c>
+      <c r="AV148" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AW148" s="13" t="str">
+        <v>3.2166666666666663</v>
+      </c>
+      <c r="AW148" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AX148" s="13" t="str">
+        <v>1.7166666666666663</v>
+      </c>
+      <c r="AX148" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AY148" s="13" t="str">
+        <v>1.7166666666666663</v>
+      </c>
+      <c r="AY148" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AZ148" s="13" t="str">
+        <v>-0.28333333333333366</v>
+      </c>
+      <c r="AZ148" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BA148" s="13" t="str">
+        <v>-0.78333333333333366</v>
+      </c>
+      <c r="BA148" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BB148" s="13" t="str">
+        <v>-1.2833333366666637</v>
+      </c>
+      <c r="BB148" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BC148" s="46" t="str">
+        <v>-1.2833333366666637</v>
+      </c>
+      <c r="BC148" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BD148" s="13" t="str">
+        <v>-2.2833333366666637</v>
+      </c>
+      <c r="BD148" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BE148" s="13" t="str">
+        <v>-0.28333333666666372</v>
+      </c>
+      <c r="BE148" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BF148" s="13" t="str">
+        <v>2.2166666633333363</v>
+      </c>
+      <c r="BF148" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BG148" s="13" t="str">
+        <v>2.7166666633333363</v>
+      </c>
+      <c r="BG148" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BH148" s="13" t="str">
+        <v>2.7166666633333363</v>
+      </c>
+      <c r="BH148" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>2.7166666633333363</v>
       </c>
       <c r="BI148" s="13" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -21167,7 +21425,7 @@
     <row r="150" spans="6:83" x14ac:dyDescent="0.3">
       <c r="F150" s="8">
         <f>SUM(I150:XFD150)</f>
-        <v>76.5</v>
+        <v>81</v>
       </c>
       <c r="AT150" s="13">
         <v>1</v>
@@ -21176,19 +21434,19 @@
         <v>3.75</v>
       </c>
       <c r="AY150" s="13">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="AZ150" s="13">
         <v>3.75</v>
       </c>
       <c r="BA150" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB150" s="13">
         <v>2</v>
       </c>
       <c r="BC150" s="46">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="BF150" s="13">
         <v>2</v>
@@ -21251,7 +21509,7 @@
     <row r="152" spans="6:83" x14ac:dyDescent="0.3">
       <c r="F152" s="8">
         <f>112.5-SUM(F149:F150)</f>
-        <v>26.5</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
